--- a/META Model.xlsx
+++ b/META Model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kerem\OneDrive\Masaüstü\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9B84F67-3027-4D2D-835B-5B27C8760911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A9A9E24-F609-417E-933D-EAF755F29C68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2364" yWindow="372" windowWidth="32016" windowHeight="15960" xr2:uid="{64BEE0EA-45A1-4490-9445-11F5F6D37C44}"/>
+    <workbookView xWindow="33324" yWindow="780" windowWidth="22800" windowHeight="15120" xr2:uid="{64BEE0EA-45A1-4490-9445-11F5F6D37C44}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -66,15 +66,34 @@
 </comments>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="115">
   <si>
     <t>Ticker</t>
   </si>
   <si>
-    <t>MSFT</t>
-  </si>
-  <si>
     <t>Implied Share Price</t>
   </si>
   <si>
@@ -366,12 +385,6 @@
     <t>% of fcf</t>
   </si>
   <si>
-    <t>Operating Cash Flow</t>
-  </si>
-  <si>
-    <t>CapEx % of OCF</t>
-  </si>
-  <si>
     <t>P/E (LTM)</t>
   </si>
   <si>
@@ -387,324 +400,9 @@
     <t>P/E (NTM)</t>
   </si>
   <si>
-    <t>Reinvestment Rate</t>
-  </si>
-  <si>
     <t>Stock Based Compensation</t>
   </si>
   <si>
-    <t>Azure</t>
-  </si>
-  <si>
-    <t>Azure Arc</t>
-  </si>
-  <si>
-    <t>OpenAI</t>
-  </si>
-  <si>
-    <t>Intelligent Data Platform</t>
-  </si>
-  <si>
-    <t>Fabric</t>
-  </si>
-  <si>
-    <t>compute, storage, governance</t>
-  </si>
-  <si>
-    <t>AI Studio</t>
-  </si>
-  <si>
-    <t>Cloud for Sustainability</t>
-  </si>
-  <si>
-    <t>Nuance DAX ambient intelligence</t>
-  </si>
-  <si>
-    <t>DAX Express</t>
-  </si>
-  <si>
-    <t>Productivity</t>
-  </si>
-  <si>
-    <t>Github Copilot</t>
-  </si>
-  <si>
-    <t>VS Code</t>
-  </si>
-  <si>
-    <t>Power BI</t>
-  </si>
-  <si>
-    <t>Power Pages</t>
-  </si>
-  <si>
-    <t>Power Virtual Agents</t>
-  </si>
-  <si>
-    <t>Power Automate</t>
-  </si>
-  <si>
-    <t>10m MAUs - Q4 2023</t>
-  </si>
-  <si>
-    <t>Dynamics</t>
-  </si>
-  <si>
-    <t>Microsoft 365</t>
-  </si>
-  <si>
-    <t>Microsoft 365 Copilot</t>
-  </si>
-  <si>
-    <t>Microsoft Teams</t>
-  </si>
-  <si>
-    <t>Teams Premium</t>
-  </si>
-  <si>
-    <t>Teams Phone</t>
-  </si>
-  <si>
-    <t>Teams Rooms</t>
-  </si>
-  <si>
-    <t>Viva</t>
-  </si>
-  <si>
-    <t>LinkedIn</t>
-  </si>
-  <si>
-    <t>Personal Computing</t>
-  </si>
-  <si>
-    <t>Windows 11</t>
-  </si>
-  <si>
-    <t>Windows 365</t>
-  </si>
-  <si>
-    <t>Entra ID</t>
-  </si>
-  <si>
-    <t>Security Copilot</t>
-  </si>
-  <si>
-    <t>Bing</t>
-  </si>
-  <si>
-    <t>Windows Copilot</t>
-  </si>
-  <si>
-    <t>Bing Chat Enterprise</t>
-  </si>
-  <si>
-    <t>Azure Virtual Desktop</t>
-  </si>
-  <si>
-    <t>$16.8B - FY 2025</t>
-  </si>
-  <si>
-    <t>Windows 365 &gt;$1B TTM - Q4 2023</t>
-  </si>
-  <si>
-    <t>Activision acquisition closes</t>
-  </si>
-  <si>
-    <t>$75.4B</t>
-  </si>
-  <si>
-    <t>Nuance acquisition closes</t>
-  </si>
-  <si>
-    <t>ZeniMax acquisition closes</t>
-  </si>
-  <si>
-    <t>Acquires Nokie phones</t>
-  </si>
-  <si>
-    <t>$9.5B</t>
-  </si>
-  <si>
-    <t>Satya replaces Ballmer</t>
-  </si>
-  <si>
-    <t>$18.1B</t>
-  </si>
-  <si>
-    <t>$8.1B</t>
-  </si>
-  <si>
-    <t>CRM, &gt;5B in revenue FY 2023</t>
-  </si>
-  <si>
-    <t>No Code</t>
-  </si>
-  <si>
-    <t>Loop</t>
-  </si>
-  <si>
-    <t>Notion Alternative</t>
-  </si>
-  <si>
-    <t>Management</t>
-  </si>
-  <si>
-    <t>Amy Hood</t>
-  </si>
-  <si>
-    <t>Alice Jolla</t>
-  </si>
-  <si>
-    <t>Keith Dolliver</t>
-  </si>
-  <si>
-    <t>Brett Iversen</t>
-  </si>
-  <si>
-    <t>Judson Althoff</t>
-  </si>
-  <si>
-    <t>CFO</t>
-  </si>
-  <si>
-    <t>CAO</t>
-  </si>
-  <si>
-    <t>Deputy GC</t>
-  </si>
-  <si>
-    <t>Xbox</t>
-  </si>
-  <si>
-    <t>Surface</t>
-  </si>
-  <si>
-    <t>Key Events</t>
-  </si>
-  <si>
-    <t>Amount</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>VP of Investor Relations</t>
-  </si>
-  <si>
-    <t>Brad Smith</t>
-  </si>
-  <si>
-    <t>Mustafa Suleyman</t>
-  </si>
-  <si>
-    <t>Phil Spencer</t>
-  </si>
-  <si>
-    <t>Takeshi Numoto</t>
-  </si>
-  <si>
-    <t>Kathleen Hogan</t>
-  </si>
-  <si>
-    <t>Vice Chair and President</t>
-  </si>
-  <si>
-    <t>CEO, Microsoft AI</t>
-  </si>
-  <si>
-    <t>CEO, Microsoft Gaming</t>
-  </si>
-  <si>
-    <t>EVP, CMO</t>
-  </si>
-  <si>
-    <t>EVP, CPO</t>
-  </si>
-  <si>
-    <t>Kevin Scott</t>
-  </si>
-  <si>
-    <t>EVP, CTO</t>
-  </si>
-  <si>
-    <t>CEO, Commercial Business</t>
-  </si>
-  <si>
-    <t>Copilot Studio</t>
-  </si>
-  <si>
-    <t>Azure Compute</t>
-  </si>
-  <si>
-    <t>Azure Storage</t>
-  </si>
-  <si>
-    <t>Azure Networking</t>
-  </si>
-  <si>
-    <t>Azure SQL</t>
-  </si>
-  <si>
-    <t>Github</t>
-  </si>
-  <si>
-    <t>Github Actions</t>
-  </si>
-  <si>
-    <t>Azure DevOps</t>
-  </si>
-  <si>
-    <t>.NET</t>
-  </si>
-  <si>
-    <t>Visual Studio</t>
-  </si>
-  <si>
-    <t>Outlook</t>
-  </si>
-  <si>
-    <t>Word</t>
-  </si>
-  <si>
-    <t>Excel</t>
-  </si>
-  <si>
-    <t>PowerPoint</t>
-  </si>
-  <si>
-    <t>OneDrive</t>
-  </si>
-  <si>
-    <t>SharePoint</t>
-  </si>
-  <si>
-    <t>Xbox Game Pass</t>
-  </si>
-  <si>
-    <t>Xbox Cloud Gaming (xCloud)</t>
-  </si>
-  <si>
-    <t>Activision Blizzard IP</t>
-  </si>
-  <si>
-    <t>Mojang (Minecraft)</t>
-  </si>
-  <si>
-    <t>Microsoft Advertising</t>
-  </si>
-  <si>
-    <t>Edge Browser</t>
-  </si>
-  <si>
-    <t>Chromium-Based</t>
-  </si>
-  <si>
-    <t>Azure Security</t>
-  </si>
-  <si>
-    <t>Sentinel, Defender, Monitor</t>
-  </si>
-  <si>
     <t>Recurring Revenue</t>
   </si>
   <si>
@@ -714,262 +412,7 @@
     <t>Recurring % of Revenue</t>
   </si>
   <si>
-    <t>Q1 21</t>
-  </si>
-  <si>
-    <t>Q2 21</t>
-  </si>
-  <si>
-    <t>Q3 21</t>
-  </si>
-  <si>
-    <t>Q4 21</t>
-  </si>
-  <si>
-    <t>Q1 22</t>
-  </si>
-  <si>
-    <t>Q2 22</t>
-  </si>
-  <si>
-    <t>Q3 22</t>
-  </si>
-  <si>
-    <t>Q4 22</t>
-  </si>
-  <si>
-    <t>Q1 23</t>
-  </si>
-  <si>
-    <t>Q2 23</t>
-  </si>
-  <si>
-    <t>Q3 23</t>
-  </si>
-  <si>
-    <t>Q4 23</t>
-  </si>
-  <si>
-    <t>Q1 24</t>
-  </si>
-  <si>
-    <t>Q2 24</t>
-  </si>
-  <si>
-    <t>Q3 24</t>
-  </si>
-  <si>
-    <t>Q4 24</t>
-  </si>
-  <si>
-    <t>Q1 25</t>
-  </si>
-  <si>
-    <t>Q2 25</t>
-  </si>
-  <si>
-    <t>Q3 25</t>
-  </si>
-  <si>
-    <t>Q4 25</t>
-  </si>
-  <si>
-    <t>Real EPS</t>
-  </si>
-  <si>
-    <t>Consensus EPS</t>
-  </si>
-  <si>
-    <t>Surprise %</t>
-  </si>
-  <si>
-    <t>Real Revenue</t>
-  </si>
-  <si>
-    <t>Consensus Revenue</t>
-  </si>
-  <si>
-    <t>Average Surprise EPS</t>
-  </si>
-  <si>
-    <t>Average Surprise Revenue</t>
-  </si>
-  <si>
     <t>OpenAI Profit Share (Loss)</t>
-  </si>
-  <si>
-    <t>36,000 customers - FY 2024</t>
-  </si>
-  <si>
-    <t>Connects cloud and on-premise</t>
-  </si>
-  <si>
-    <t>relational database</t>
-  </si>
-  <si>
-    <t>60,000 Azure AI customers - FY 2024</t>
-  </si>
-  <si>
-    <t>25,000 paid customers - FY 2024</t>
-  </si>
-  <si>
-    <t>50% YoY - FY 2024</t>
-  </si>
-  <si>
-    <t>Ambient Clinical Intelligence</t>
-  </si>
-  <si>
-    <t>AI-powered clinical documentation</t>
-  </si>
-  <si>
-    <t>2B ARR - Aug 2024, 100M+ devs</t>
-  </si>
-  <si>
-    <t>CI/CD automation</t>
-  </si>
-  <si>
-    <t>Enterprise planning and delivery</t>
-  </si>
-  <si>
-    <t>5M+ active developers</t>
-  </si>
-  <si>
-    <t>2.3 million paid subscribers</t>
-  </si>
-  <si>
-    <t>18,000 organizations - custom agents</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IDE - 29% professional market share </t>
-  </si>
-  <si>
-    <t>Most Popular IDE - 76% market share</t>
-  </si>
-  <si>
-    <t>375,000 organizations - Oct 2024</t>
-  </si>
-  <si>
-    <t>Integrated into Copilot Studio</t>
-  </si>
-  <si>
-    <t>400M commercial paid seats</t>
-  </si>
-  <si>
-    <t>Used by 65% of Fortune 500</t>
-  </si>
-  <si>
-    <t>Email &amp; Calendar</t>
-  </si>
-  <si>
-    <t>Word processing</t>
-  </si>
-  <si>
-    <t>Spreadsheet software</t>
-  </si>
-  <si>
-    <t>Presentation software</t>
-  </si>
-  <si>
-    <t>Cloud storage - tracked under M365</t>
-  </si>
-  <si>
-    <t>200m+ MAUs</t>
-  </si>
-  <si>
-    <t>360M MAUs</t>
-  </si>
-  <si>
-    <t>Seats gew 40% YoY - Sept 2025</t>
-  </si>
-  <si>
-    <t>&gt;17m users - 2024</t>
-  </si>
-  <si>
-    <t>Physical meeting room software</t>
-  </si>
-  <si>
-    <t>Viva Goals retired Dec 31, 2025</t>
-  </si>
-  <si>
-    <t>31% of all Windows Devices (434M/1.4B)</t>
-  </si>
-  <si>
-    <t>AI assistant built into the OS taskbar</t>
-  </si>
-  <si>
-    <t>Cloud PC &gt; 1B Annual Rev - Q4 2024</t>
-  </si>
-  <si>
-    <t>Formerly Azure ID - 50,000 MAUs</t>
-  </si>
-  <si>
-    <t>Used by 43% of Fortune 100</t>
-  </si>
-  <si>
-    <t>19B Annual Revenue - Linkedin &amp; Bing</t>
-  </si>
-  <si>
-    <t>140M DAUs - 2024</t>
-  </si>
-  <si>
-    <t>Now part of Copilot</t>
-  </si>
-  <si>
-    <t>Hardware &amp; Platform</t>
-  </si>
-  <si>
-    <t>38M est. subscribers</t>
-  </si>
-  <si>
-    <t>Console games via streaming</t>
-  </si>
-  <si>
-    <t>Call of Duty (100M+ players, Warcraft, Diablo</t>
-  </si>
-  <si>
-    <t>225M Monthly Active Players - June 2025</t>
-  </si>
-  <si>
-    <t>8.9B in FY 2025</t>
-  </si>
-  <si>
-    <t>OpenAI partnership (Round 2)</t>
-  </si>
-  <si>
-    <t>$10.0B</t>
-  </si>
-  <si>
-    <t>Acquires GitHub</t>
-  </si>
-  <si>
-    <t>$7.5B</t>
-  </si>
-  <si>
-    <t>Acquires LinkedIn</t>
-  </si>
-  <si>
-    <t>$26.2B</t>
-  </si>
-  <si>
-    <t>Acquires Mojang</t>
-  </si>
-  <si>
-    <t>$2.5B</t>
-  </si>
-  <si>
-    <t>Best Surprise EPS</t>
-  </si>
-  <si>
-    <t>Best Surprise Revenue</t>
-  </si>
-  <si>
-    <t>Worst Surprise EPS</t>
-  </si>
-  <si>
-    <t>Worst Surprise Revenue</t>
-  </si>
-  <si>
-    <t>Satya Nadella</t>
   </si>
   <si>
     <t>META</t>
@@ -997,16 +440,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="7">
+  <numFmts count="5">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="166" formatCode="0.0%"/>
-    <numFmt numFmtId="167" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1064,21 +505,6 @@
       <name val="calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1100,7 +526,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1126,74 +552,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1237,26 +601,7 @@
     <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="8" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1272,10 +617,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1878,8 +1219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF806BA9-FD26-46A5-A630-9D65D6C233D8}">
   <dimension ref="B2:X105"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1903,7 +1244,7 @@
       <c r="B2"/>
       <c r="C2"/>
       <c r="R2" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="2:24" x14ac:dyDescent="0.3">
@@ -1911,7 +1252,7 @@
     </row>
     <row r="4" spans="2:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -1952,26 +1293,26 @@
     </row>
     <row r="6" spans="2:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="G6" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
       <c r="M6" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N6" s="19"/>
       <c r="O6" s="19"/>
       <c r="P6" s="6"/>
       <c r="R6" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="S6" s="19"/>
       <c r="T6" s="19"/>
@@ -1982,25 +1323,25 @@
         <v>0</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>301</v>
+        <v>108</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I7" s="45">
+        <v>56</v>
+      </c>
+      <c r="I7" s="30">
         <v>78450</v>
       </c>
-      <c r="J7" s="45"/>
-      <c r="K7" s="45"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
       <c r="M7" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P7" s="8">
-        <f>NPV(U7,J94:N94)</f>
-        <v>175095.27794663649</v>
+        <f>SUM(I97:N97)</f>
+        <v>202961.30489800117</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="U7" s="10">
         <v>9.8799999999999999E-2</v>
@@ -2008,84 +1349,84 @@
     </row>
     <row r="8" spans="2:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8" s="20">
         <f>P12/P11</f>
-        <v>789.46390835587124</v>
+        <v>765.86325797510392</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I8" s="49">
+        <v>57</v>
+      </c>
+      <c r="I8" s="34">
         <v>2004</v>
       </c>
-      <c r="J8" s="49"/>
-      <c r="K8" s="49"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
       <c r="M8" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P8" s="8">
         <f>N51*U8</f>
-        <v>2979092.5196701596</v>
+        <v>2837230.9711144376</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="U8" s="8">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X8" s="21"/>
     </row>
     <row r="9" spans="2:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E9" s="20">
         <v>660.62</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I9" s="49" t="s">
-        <v>305</v>
-      </c>
-      <c r="J9" s="49"/>
-      <c r="K9" s="49"/>
+        <v>58</v>
+      </c>
+      <c r="I9" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
       <c r="M9" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P9" s="8">
         <f>P8/(1+U7)^5</f>
-        <v>1859904.8943446644</v>
+        <v>1771337.994613966</v>
       </c>
       <c r="U9" s="8"/>
     </row>
     <row r="10" spans="2:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E10" s="15">
         <f>E8/E9-1</f>
-        <v>0.19503482842764552</v>
+        <v>0.159309827094402</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I10" s="49" t="s">
-        <v>307</v>
-      </c>
-      <c r="J10" s="49"/>
-      <c r="K10" s="49"/>
+        <v>59</v>
+      </c>
+      <c r="I10" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
       <c r="M10" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P10" s="8">
         <f>-44448+28834+20113</f>
         <v>4499</v>
       </c>
       <c r="R10" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S10" s="19"/>
       <c r="T10" s="19"/>
@@ -2094,49 +1435,49 @@
     </row>
     <row r="11" spans="2:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G11" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I11" s="49" t="s">
-        <v>306</v>
-      </c>
-      <c r="J11" s="49"/>
-      <c r="K11" s="49"/>
+        <v>60</v>
+      </c>
+      <c r="I11" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
       <c r="M11" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P11" s="8">
         <v>2572</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="T11" s="47"/>
-      <c r="U11" s="47"/>
+        <v>27</v>
+      </c>
+      <c r="T11" s="32"/>
+      <c r="U11" s="32"/>
     </row>
     <row r="12" spans="2:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E12" s="18">
         <v>46028</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I12" s="46">
+        <v>61</v>
+      </c>
+      <c r="I12" s="31">
         <v>46022</v>
       </c>
-      <c r="J12" s="46"/>
-      <c r="K12" s="46"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
       <c r="M12" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P12" s="8">
         <f>P9+P7-P10</f>
-        <v>2030501.172291301</v>
+        <v>1969800.2995119672</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U12" s="10"/>
     </row>
@@ -2144,19 +1485,19 @@
       <c r="I13" s="10"/>
       <c r="P13" s="8"/>
       <c r="R13" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U13" s="10"/>
     </row>
     <row r="14" spans="2:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="R14" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U14" s="10"/>
     </row>
     <row r="15" spans="2:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -2180,19 +1521,19 @@
         <v>2025</v>
       </c>
       <c r="J15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K15" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="M15" s="19" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="N15" s="19"/>
       <c r="O15" s="19"/>
       <c r="P15" s="6"/>
       <c r="R15" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="2:24" s="23" customFormat="1" ht="1.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2208,7 +1549,7 @@
       <c r="K16" s="24"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
@@ -2219,7 +1560,7 @@
     </row>
     <row r="17" spans="2:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
@@ -2229,17 +1570,17 @@
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
       <c r="M17" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P17" s="8"/>
       <c r="R17" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="U17" s="10"/>
     </row>
     <row r="18" spans="2:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
@@ -2249,27 +1590,27 @@
       <c r="J18" s="12"/>
       <c r="K18" s="12"/>
       <c r="M18" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P18" s="8"/>
       <c r="R18" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U18" s="8"/>
     </row>
     <row r="19" spans="2:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M19" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="P19" s="28"/>
       <c r="R19" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U19" s="10"/>
     </row>
     <row r="20" spans="2:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
@@ -2279,17 +1620,17 @@
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="M20" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="P20" s="28"/>
       <c r="R20" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U20" s="10"/>
     </row>
     <row r="21" spans="2:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
@@ -2299,17 +1640,17 @@
       <c r="J21" s="12"/>
       <c r="K21" s="12"/>
       <c r="M21" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P21" s="28"/>
       <c r="R21" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U21" s="10"/>
     </row>
     <row r="22" spans="2:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
@@ -2321,19 +1662,19 @@
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c r="M22" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="P22" s="28"/>
       <c r="R22" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S22" s="6"/>
-      <c r="T22" s="48"/>
-      <c r="U22" s="48"/>
+      <c r="T22" s="33"/>
+      <c r="U22" s="33"/>
     </row>
     <row r="23" spans="2:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
@@ -2343,13 +1684,13 @@
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="R23" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="U23" s="10"/>
     </row>
     <row r="25" spans="2:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -2373,19 +1714,19 @@
         <v>2025</v>
       </c>
       <c r="J25" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K25" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K25" s="3" t="s">
+      <c r="L25" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L25" s="3" t="s">
+      <c r="M25" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M25" s="3" t="s">
+      <c r="N25" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="N25" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="26" spans="2:21" s="23" customFormat="1" ht="1.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2407,7 +1748,7 @@
     </row>
     <row r="27" spans="2:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
-        <v>302</v>
+        <v>109</v>
       </c>
       <c r="E27" s="12">
         <v>2912</v>
@@ -2448,7 +1789,7 @@
     </row>
     <row r="28" spans="2:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -2508,7 +1849,7 @@
     </row>
     <row r="30" spans="2:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
-        <v>303</v>
+        <v>110</v>
       </c>
       <c r="E30" s="12">
         <v>1929</v>
@@ -2539,7 +1880,7 @@
     </row>
     <row r="31" spans="2:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
@@ -2590,7 +1931,7 @@
     </row>
     <row r="33" spans="2:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
-        <v>304</v>
+        <v>111</v>
       </c>
       <c r="E33" s="12">
         <f t="shared" ref="E33:H33" si="5">E36/E27</f>
@@ -2635,7 +1976,7 @@
     </row>
     <row r="34" spans="2:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
@@ -2695,7 +2036,7 @@
     </row>
     <row r="36" spans="2:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E36" s="12">
         <v>117929</v>
@@ -2736,7 +2077,7 @@
     </row>
     <row r="37" spans="2:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
@@ -2800,7 +2141,7 @@
     </row>
     <row r="39" spans="2:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E39" s="12">
         <v>22649</v>
@@ -2840,7 +2181,7 @@
     </row>
     <row r="40" spans="2:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E40" s="11">
         <f>E39/E36</f>
@@ -2885,7 +2226,7 @@
     </row>
     <row r="42" spans="2:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E42" s="8">
         <f>E36-E39</f>
@@ -2930,7 +2271,7 @@
     </row>
     <row r="43" spans="2:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E43" s="11">
         <f>E42/E36</f>
@@ -2975,7 +2316,7 @@
     </row>
     <row r="45" spans="2:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E45" s="12">
         <v>35459.5</v>
@@ -2990,30 +2331,33 @@
         <v>21086</v>
       </c>
       <c r="I45" s="12">
-        <v>34466</v>
-      </c>
-      <c r="J45" s="8">
-        <v>52768</v>
-      </c>
-      <c r="K45" s="8">
-        <v>67457</v>
-      </c>
-      <c r="L45" s="8">
-        <f>L36*0.26</f>
-        <v>81449.461361703274</v>
+        <f>I36*0.12</f>
+        <v>23917.603154879995</v>
+      </c>
+      <c r="J45" s="12">
+        <f>J36*0.12</f>
+        <v>28382.541311832985</v>
+      </c>
+      <c r="K45" s="12">
+        <f>K36*0.115</f>
+        <v>31597.076984457908</v>
+      </c>
+      <c r="L45" s="12">
+        <f>L36*0.113</f>
+        <v>35399.188976432575</v>
       </c>
       <c r="M45" s="8">
-        <f>M36*0.24</f>
-        <v>84025.770478005754</v>
+        <f>M36*0.112</f>
+        <v>39212.026223069355</v>
       </c>
       <c r="N45" s="8">
-        <f>N36*0.24</f>
-        <v>92018.30176587365</v>
+        <f>N36*0.11</f>
+        <v>42175.054976025422</v>
       </c>
     </row>
     <row r="46" spans="2:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E46" s="11">
         <f>E45/E36</f>
@@ -3033,32 +2377,32 @@
       </c>
       <c r="I46" s="11">
         <f t="shared" si="16"/>
-        <v>0.17292368190982937</v>
+        <v>0.11999999999999998</v>
       </c>
       <c r="J46" s="11">
         <f t="shared" si="16"/>
-        <v>0.22310052966821736</v>
+        <v>0.12</v>
       </c>
       <c r="K46" s="11">
         <f t="shared" si="16"/>
-        <v>0.24551495708972754</v>
+        <v>0.115</v>
       </c>
       <c r="L46" s="11">
         <f t="shared" si="16"/>
-        <v>0.26</v>
+        <v>0.11299999999999999</v>
       </c>
       <c r="M46" s="11">
         <f t="shared" si="16"/>
-        <v>0.24</v>
+        <v>0.112</v>
       </c>
       <c r="N46" s="11">
         <f t="shared" si="16"/>
-        <v>0.24</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="48" spans="2:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E48" s="12">
         <v>24655</v>
@@ -3099,7 +2443,7 @@
     </row>
     <row r="49" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E49" s="11">
         <f>E48/E36</f>
@@ -3144,7 +2488,7 @@
     </row>
     <row r="51" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E51" s="12">
         <v>46753</v>
@@ -3181,7 +2525,7 @@
     </row>
     <row r="52" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E52" s="11">
         <f>E51/E36</f>
@@ -3226,7 +2570,7 @@
     </row>
     <row r="54" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B54" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E54" s="12">
         <v>7913</v>
@@ -3255,26 +2599,59 @@
       <c r="M54" s="8">
         <v>20821.7</v>
       </c>
-      <c r="N54" s="8"/>
+      <c r="N54" s="8">
+        <f>N51*0.17</f>
+        <v>24116.463254472721</v>
+      </c>
     </row>
     <row r="55" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B55" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E55" s="11"/>
-      <c r="F55" s="11"/>
-      <c r="G55" s="11"/>
-      <c r="H55" s="11"/>
-      <c r="I55" s="11"/>
-      <c r="J55" s="11"/>
-      <c r="K55" s="11"/>
-      <c r="L55" s="11"/>
-      <c r="M55" s="11"/>
-      <c r="N55" s="11"/>
+        <v>14</v>
+      </c>
+      <c r="E55" s="11">
+        <f>E54/E51</f>
+        <v>0.1692511710478472</v>
+      </c>
+      <c r="F55" s="11">
+        <f t="shared" ref="F55:N55" si="19">F54/F51</f>
+        <v>0.19416134047331146</v>
+      </c>
+      <c r="G55" s="11">
+        <f t="shared" si="19"/>
+        <v>0.17819939680434643</v>
+      </c>
+      <c r="H55" s="11">
+        <f t="shared" si="19"/>
+        <v>0.11968694599386</v>
+      </c>
+      <c r="I55" s="11">
+        <f t="shared" si="19"/>
+        <v>0.31086666343073488</v>
+      </c>
+      <c r="J55" s="11">
+        <f t="shared" si="19"/>
+        <v>0.13458208118983345</v>
+      </c>
+      <c r="K55" s="11">
+        <f t="shared" si="19"/>
+        <v>0.13784329522624597</v>
+      </c>
+      <c r="L55" s="11">
+        <f t="shared" si="19"/>
+        <v>0.15175531421145458</v>
+      </c>
+      <c r="M55" s="11">
+        <f t="shared" si="19"/>
+        <v>0.16385362974621287</v>
+      </c>
+      <c r="N55" s="11">
+        <f t="shared" si="19"/>
+        <v>0.17</v>
+      </c>
     </row>
     <row r="57" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B57" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
@@ -3298,19 +2675,19 @@
         <v>2025</v>
       </c>
       <c r="J57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K57" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K57" s="3" t="s">
+      <c r="L57" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L57" s="3" t="s">
+      <c r="M57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M57" s="3" t="s">
+      <c r="N57" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="N57" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="58" spans="2:16" s="23" customFormat="1" ht="1.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -3332,7 +2709,7 @@
     </row>
     <row r="59" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B59" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E59" s="12">
         <v>7966</v>
@@ -3361,56 +2738,144 @@
       <c r="M59" s="8">
         <v>62011.8</v>
       </c>
-      <c r="N59" s="8"/>
+      <c r="N59" s="8">
+        <f>N63*0.45</f>
+        <v>60937.707211698253</v>
+      </c>
     </row>
     <row r="60" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B60" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E60" s="11"/>
-      <c r="F60" s="11"/>
-      <c r="G60" s="11"/>
-      <c r="H60" s="11"/>
-      <c r="I60" s="11"/>
-      <c r="J60" s="11"/>
-      <c r="K60" s="11"/>
-      <c r="L60" s="11"/>
-      <c r="M60" s="11"/>
-      <c r="N60" s="11"/>
+        <v>15</v>
+      </c>
+      <c r="E60" s="11">
+        <f>E59/E63</f>
+        <v>0.42904077126083912</v>
+      </c>
+      <c r="F60" s="11">
+        <f t="shared" ref="F60:M60" si="20">F59/F63</f>
+        <v>0.27635137284846173</v>
+      </c>
+      <c r="G60" s="11">
+        <f t="shared" si="20"/>
+        <v>0.4099244480305142</v>
+      </c>
+      <c r="H60" s="11">
+        <f t="shared" si="20"/>
+        <v>0.41598668670818123</v>
+      </c>
+      <c r="I60" s="11">
+        <f t="shared" si="20"/>
+        <v>0.26966093377309613</v>
+      </c>
+      <c r="J60" s="11">
+        <f t="shared" si="20"/>
+        <v>0.26078892065937836</v>
+      </c>
+      <c r="K60" s="11">
+        <f t="shared" si="20"/>
+        <v>0.34274686589833597</v>
+      </c>
+      <c r="L60" s="11">
+        <f t="shared" si="20"/>
+        <v>0.4143896550336959</v>
+      </c>
+      <c r="M60" s="11">
+        <f t="shared" si="20"/>
+        <v>0.44877310045478941</v>
+      </c>
+      <c r="N60" s="11">
+        <f t="shared" ref="N60" si="21">N59/N63</f>
+        <v>0.45</v>
+      </c>
     </row>
     <row r="61" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B61" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E61" s="11"/>
-      <c r="F61" s="11"/>
-      <c r="G61" s="11"/>
-      <c r="H61" s="11"/>
-      <c r="I61" s="11"/>
-      <c r="J61" s="11"/>
-      <c r="K61" s="11"/>
-      <c r="L61" s="11"/>
-      <c r="M61" s="11"/>
-      <c r="N61" s="11"/>
+        <v>33</v>
+      </c>
+      <c r="E61" s="11">
+        <f>E59/E36</f>
+        <v>6.7549118537425054E-2</v>
+      </c>
+      <c r="F61" s="11">
+        <f t="shared" ref="F61:N61" si="22">F59/F36</f>
+        <v>7.44882470478265E-2</v>
+      </c>
+      <c r="G61" s="11">
+        <f t="shared" si="22"/>
+        <v>8.2852737542808849E-2</v>
+      </c>
+      <c r="H61" s="11">
+        <f t="shared" si="22"/>
+        <v>9.4212193238946876E-2</v>
+      </c>
+      <c r="I61" s="11">
+        <f t="shared" si="22"/>
+        <v>9.4839603505052009E-2</v>
+      </c>
+      <c r="J61" s="11">
+        <f t="shared" si="22"/>
+        <v>0.12211929727923848</v>
+      </c>
+      <c r="K61" s="11">
+        <f t="shared" si="22"/>
+        <v>0.15197855176167291</v>
+      </c>
+      <c r="L61" s="11">
+        <f t="shared" si="22"/>
+        <v>0.17243907774451964</v>
+      </c>
+      <c r="M61" s="11">
+        <f t="shared" si="22"/>
+        <v>0.1771222318502354</v>
+      </c>
+      <c r="N61" s="11">
+        <f t="shared" si="22"/>
+        <v>0.1589363142999396</v>
+      </c>
     </row>
     <row r="63" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B63" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E63" s="12"/>
-      <c r="F63" s="12"/>
-      <c r="G63" s="12"/>
-      <c r="H63" s="12"/>
-      <c r="I63" s="12"/>
-      <c r="J63" s="12"/>
-      <c r="K63" s="12"/>
-      <c r="L63" s="8"/>
-      <c r="M63" s="8"/>
-      <c r="N63" s="8"/>
+        <v>18</v>
+      </c>
+      <c r="E63" s="12">
+        <v>18567</v>
+      </c>
+      <c r="F63" s="12">
+        <v>31431</v>
+      </c>
+      <c r="G63" s="12">
+        <v>27266</v>
+      </c>
+      <c r="H63" s="12">
+        <v>37256</v>
+      </c>
+      <c r="I63" s="12">
+        <v>70098.399999999994</v>
+      </c>
+      <c r="J63" s="12">
+        <f>I63*1.58</f>
+        <v>110755.47199999999</v>
+      </c>
+      <c r="K63" s="12">
+        <f>J63*1.1</f>
+        <v>121831.01920000001</v>
+      </c>
+      <c r="L63" s="8">
+        <f>K63*1.07</f>
+        <v>130359.19054400001</v>
+      </c>
+      <c r="M63" s="8">
+        <f>L63*1.06</f>
+        <v>138180.74197664001</v>
+      </c>
+      <c r="N63" s="8">
+        <f>M63*0.98</f>
+        <v>135417.12713710722</v>
+      </c>
     </row>
     <row r="64" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E64" s="12"/>
       <c r="F64" s="12"/>
@@ -3425,37 +2890,97 @@
     </row>
     <row r="66" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B66" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E66" s="13"/>
-      <c r="F66" s="13"/>
-      <c r="G66" s="13"/>
-      <c r="H66" s="13"/>
-      <c r="I66" s="13"/>
-      <c r="J66" s="13"/>
-      <c r="K66" s="13"/>
-      <c r="L66" s="13"/>
-      <c r="M66" s="13"/>
-      <c r="N66" s="13"/>
+        <v>19</v>
+      </c>
+      <c r="E66" s="13">
+        <f>0.7*1000</f>
+        <v>700</v>
+      </c>
+      <c r="F66" s="13">
+        <f>5.68*1000</f>
+        <v>5680</v>
+      </c>
+      <c r="G66" s="13">
+        <f>3.84*1000</f>
+        <v>3840</v>
+      </c>
+      <c r="H66" s="13">
+        <f>1.05*1000</f>
+        <v>1050</v>
+      </c>
+      <c r="I66" s="13">
+        <f>-3.05*1000</f>
+        <v>-3050</v>
+      </c>
+      <c r="J66" s="13">
+        <f>I66*0.5</f>
+        <v>-1525</v>
+      </c>
+      <c r="K66" s="13">
+        <f>J66*0.33</f>
+        <v>-503.25</v>
+      </c>
+      <c r="L66" s="13">
+        <f>K66*-1</f>
+        <v>503.25</v>
+      </c>
+      <c r="M66" s="13">
+        <f>L66*2.4</f>
+        <v>1207.8</v>
+      </c>
+      <c r="N66" s="13">
+        <f>M66*1.25</f>
+        <v>1509.75</v>
+      </c>
     </row>
     <row r="67" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B67" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E67" s="14"/>
-      <c r="F67" s="14"/>
-      <c r="G67" s="14"/>
-      <c r="H67" s="14"/>
-      <c r="I67" s="14"/>
-      <c r="J67" s="14"/>
-      <c r="K67" s="14"/>
-      <c r="L67" s="14"/>
-      <c r="M67" s="14"/>
-      <c r="N67" s="14"/>
+        <v>15</v>
+      </c>
+      <c r="E67" s="11">
+        <f>E66/E59</f>
+        <v>8.7873462214411252E-2</v>
+      </c>
+      <c r="F67" s="11">
+        <f t="shared" ref="F67:N67" si="23">F66/F59</f>
+        <v>0.65392585770204925</v>
+      </c>
+      <c r="G67" s="11">
+        <f t="shared" si="23"/>
+        <v>0.34356267334705198</v>
+      </c>
+      <c r="H67" s="11">
+        <f t="shared" si="23"/>
+        <v>6.7750677506775062E-2</v>
+      </c>
+      <c r="I67" s="11">
+        <f t="shared" si="23"/>
+        <v>-0.1613517574116004</v>
+      </c>
+      <c r="J67" s="11">
+        <f t="shared" si="23"/>
+        <v>-5.279776206731801E-2</v>
+      </c>
+      <c r="K67" s="11">
+        <f t="shared" si="23"/>
+        <v>-1.2051813818934221E-2</v>
+      </c>
+      <c r="L67" s="11">
+        <f t="shared" si="23"/>
+        <v>9.3160803043345463E-3</v>
+      </c>
+      <c r="M67" s="11">
+        <f t="shared" si="23"/>
+        <v>1.9476938260137584E-2</v>
+      </c>
+      <c r="N67" s="11">
+        <f t="shared" si="23"/>
+        <v>2.4775300369525098E-2</v>
+      </c>
     </row>
     <row r="68" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B68" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E68" s="14"/>
       <c r="F68" s="14"/>
@@ -3470,7 +2995,7 @@
     </row>
     <row r="70" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B70" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
@@ -3494,82 +3019,112 @@
         <v>2025</v>
       </c>
       <c r="J70" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K70" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K70" s="3" t="s">
+      <c r="L70" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L70" s="3" t="s">
+      <c r="M70" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M70" s="3" t="s">
+      <c r="N70" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="N70" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="71" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B71" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E71" s="8">
         <f>E36</f>
         <v>117929</v>
       </c>
       <c r="F71" s="8">
-        <f t="shared" ref="F71:N71" si="19">F36</f>
+        <f t="shared" ref="F71:N71" si="24">F36</f>
         <v>116609</v>
       </c>
       <c r="G71" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>134902</v>
       </c>
       <c r="H71" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>164501</v>
       </c>
       <c r="I71" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>199313.35962399998</v>
       </c>
       <c r="J71" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>236521.17759860822</v>
       </c>
       <c r="K71" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>274757.19116919918</v>
       </c>
       <c r="L71" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>313267.15908347414</v>
       </c>
       <c r="M71" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>350107.37699169066</v>
       </c>
       <c r="N71" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>383409.59069114021</v>
       </c>
     </row>
     <row r="72" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B72" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
-      <c r="E72" s="11"/>
-      <c r="F72" s="11"/>
-      <c r="G72" s="11"/>
-      <c r="H72" s="11"/>
-      <c r="I72" s="11"/>
-      <c r="J72" s="11"/>
-      <c r="K72" s="11"/>
-      <c r="L72" s="11"/>
-      <c r="M72" s="11"/>
-      <c r="N72" s="11"/>
+      <c r="E72" s="11">
+        <f>E37</f>
+        <v>0.37182574303495608</v>
+      </c>
+      <c r="F72" s="11">
+        <f t="shared" ref="F72:N72" si="25">F37</f>
+        <v>-1.1193175554782962E-2</v>
+      </c>
+      <c r="G72" s="11">
+        <f t="shared" si="25"/>
+        <v>0.15687468377226457</v>
+      </c>
+      <c r="H72" s="11">
+        <f t="shared" si="25"/>
+        <v>0.21941112807816043</v>
+      </c>
+      <c r="I72" s="11">
+        <f t="shared" si="25"/>
+        <v>0.21162399999999984</v>
+      </c>
+      <c r="J72" s="11">
+        <f t="shared" si="25"/>
+        <v>0.18667999999999965</v>
+      </c>
+      <c r="K72" s="11">
+        <f t="shared" si="25"/>
+        <v>0.16165999999999983</v>
+      </c>
+      <c r="L72" s="11">
+        <f t="shared" si="25"/>
+        <v>0.14015999999999998</v>
+      </c>
+      <c r="M72" s="11">
+        <f t="shared" si="25"/>
+        <v>0.11759999999999989</v>
+      </c>
+      <c r="N72" s="11">
+        <f t="shared" si="25"/>
+        <v>9.5119999999999816E-2</v>
+      </c>
     </row>
     <row r="73" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E73" s="8"/>
@@ -3585,35 +3140,86 @@
     </row>
     <row r="74" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B74" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E74" s="8"/>
-      <c r="F74" s="8"/>
-      <c r="G74" s="8"/>
-      <c r="H74" s="8"/>
-      <c r="I74" s="8"/>
-      <c r="J74" s="8"/>
-      <c r="K74" s="8"/>
-      <c r="L74" s="8"/>
-      <c r="M74" s="8"/>
-      <c r="N74" s="8"/>
+        <v>12</v>
+      </c>
+      <c r="E74" s="8" cm="1">
+        <f t="array" ref="E74:N74">E51:N51</f>
+        <v>46753</v>
+      </c>
+      <c r="F74" s="8">
+        <v>28945</v>
+      </c>
+      <c r="G74" s="8">
+        <v>46751</v>
+      </c>
+      <c r="H74" s="8">
+        <v>69381</v>
+      </c>
+      <c r="I74" s="8">
+        <v>82408</v>
+      </c>
+      <c r="J74" s="8">
+        <v>86385.2</v>
+      </c>
+      <c r="K74" s="8">
+        <v>98057</v>
+      </c>
+      <c r="L74" s="8">
+        <v>107730</v>
+      </c>
+      <c r="M74" s="8">
+        <v>127075</v>
+      </c>
+      <c r="N74" s="8">
+        <v>141861.54855572188</v>
+      </c>
     </row>
     <row r="75" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B75" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
-      <c r="E75" s="11"/>
-      <c r="F75" s="11"/>
-      <c r="G75" s="11"/>
-      <c r="H75" s="11"/>
-      <c r="I75" s="11"/>
-      <c r="J75" s="11"/>
-      <c r="K75" s="11"/>
-      <c r="L75" s="11"/>
-      <c r="M75" s="11"/>
-      <c r="N75" s="11"/>
+      <c r="E75" s="11">
+        <f>E74/E71</f>
+        <v>0.39645040660058173</v>
+      </c>
+      <c r="F75" s="11">
+        <f t="shared" ref="F75:N75" si="26">F74/F71</f>
+        <v>0.24822269293107735</v>
+      </c>
+      <c r="G75" s="11">
+        <f t="shared" si="26"/>
+        <v>0.34655527716416362</v>
+      </c>
+      <c r="H75" s="11">
+        <f t="shared" si="26"/>
+        <v>0.42176643303080225</v>
+      </c>
+      <c r="I75" s="11">
+        <f t="shared" si="26"/>
+        <v>0.41345948989802178</v>
+      </c>
+      <c r="J75" s="11">
+        <f t="shared" si="26"/>
+        <v>0.36523241122450895</v>
+      </c>
+      <c r="K75" s="11">
+        <f t="shared" si="26"/>
+        <v>0.35688601846135187</v>
+      </c>
+      <c r="L75" s="11">
+        <f t="shared" si="26"/>
+        <v>0.34389177695863721</v>
+      </c>
+      <c r="M75" s="11">
+        <f t="shared" si="26"/>
+        <v>0.3629600755399563</v>
+      </c>
+      <c r="N75" s="11">
+        <f t="shared" si="26"/>
+        <v>0.37</v>
+      </c>
     </row>
     <row r="76" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J76" s="8"/>
@@ -3624,147 +3230,409 @@
     </row>
     <row r="77" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B77" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E77" s="8"/>
-      <c r="F77" s="8"/>
-      <c r="G77" s="8"/>
-      <c r="H77" s="8"/>
-      <c r="I77" s="8"/>
-      <c r="J77" s="8"/>
-      <c r="K77" s="8"/>
-      <c r="L77" s="8"/>
-      <c r="M77" s="8"/>
-      <c r="N77" s="8"/>
+        <v>13</v>
+      </c>
+      <c r="E77" s="8" cm="1">
+        <f t="array" ref="E77:M77">E54:M54</f>
+        <v>7913</v>
+      </c>
+      <c r="F77" s="8">
+        <v>5620</v>
+      </c>
+      <c r="G77" s="8">
+        <v>8331</v>
+      </c>
+      <c r="H77" s="8">
+        <v>8304</v>
+      </c>
+      <c r="I77" s="8">
+        <v>25617.9</v>
+      </c>
+      <c r="J77" s="8">
+        <v>11625.9</v>
+      </c>
+      <c r="K77" s="8">
+        <v>13516.5</v>
+      </c>
+      <c r="L77" s="8">
+        <v>16348.6</v>
+      </c>
+      <c r="M77" s="8">
+        <v>20821.7</v>
+      </c>
+      <c r="N77" s="8">
+        <f>N54</f>
+        <v>24116.463254472721</v>
+      </c>
     </row>
     <row r="78" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B78" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
-      <c r="E78" s="11"/>
-      <c r="F78" s="11"/>
-      <c r="G78" s="11"/>
-      <c r="H78" s="11"/>
-      <c r="I78" s="11"/>
-      <c r="J78" s="11"/>
-      <c r="K78" s="11"/>
-      <c r="L78" s="11"/>
-      <c r="M78" s="11"/>
-      <c r="N78" s="11"/>
+      <c r="E78" s="11">
+        <f>E55</f>
+        <v>0.1692511710478472</v>
+      </c>
+      <c r="F78" s="11">
+        <f t="shared" ref="F78:N78" si="27">F55</f>
+        <v>0.19416134047331146</v>
+      </c>
+      <c r="G78" s="11">
+        <f t="shared" si="27"/>
+        <v>0.17819939680434643</v>
+      </c>
+      <c r="H78" s="11">
+        <f t="shared" si="27"/>
+        <v>0.11968694599386</v>
+      </c>
+      <c r="I78" s="11">
+        <f t="shared" si="27"/>
+        <v>0.31086666343073488</v>
+      </c>
+      <c r="J78" s="11">
+        <f t="shared" si="27"/>
+        <v>0.13458208118983345</v>
+      </c>
+      <c r="K78" s="11">
+        <f t="shared" si="27"/>
+        <v>0.13784329522624597</v>
+      </c>
+      <c r="L78" s="11">
+        <f t="shared" si="27"/>
+        <v>0.15175531421145458</v>
+      </c>
+      <c r="M78" s="11">
+        <f t="shared" si="27"/>
+        <v>0.16385362974621287</v>
+      </c>
+      <c r="N78" s="11">
+        <f t="shared" si="27"/>
+        <v>0.17</v>
+      </c>
     </row>
     <row r="80" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B80" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E80" s="8"/>
-      <c r="F80" s="8"/>
-      <c r="G80" s="8"/>
-      <c r="H80" s="8"/>
-      <c r="I80" s="8"/>
-      <c r="J80" s="8"/>
-      <c r="K80" s="8"/>
-      <c r="L80" s="8"/>
-      <c r="M80" s="8"/>
-      <c r="N80" s="8"/>
+        <v>22</v>
+      </c>
+      <c r="E80" s="8">
+        <f>E74-E77</f>
+        <v>38840</v>
+      </c>
+      <c r="F80" s="8">
+        <f t="shared" ref="F80:N80" si="28">F74-F77</f>
+        <v>23325</v>
+      </c>
+      <c r="G80" s="8">
+        <f t="shared" si="28"/>
+        <v>38420</v>
+      </c>
+      <c r="H80" s="8">
+        <f t="shared" si="28"/>
+        <v>61077</v>
+      </c>
+      <c r="I80" s="8">
+        <f t="shared" si="28"/>
+        <v>56790.1</v>
+      </c>
+      <c r="J80" s="8">
+        <f t="shared" si="28"/>
+        <v>74759.3</v>
+      </c>
+      <c r="K80" s="8">
+        <f t="shared" si="28"/>
+        <v>84540.5</v>
+      </c>
+      <c r="L80" s="8">
+        <f t="shared" si="28"/>
+        <v>91381.4</v>
+      </c>
+      <c r="M80" s="8">
+        <f t="shared" si="28"/>
+        <v>106253.3</v>
+      </c>
+      <c r="N80" s="8">
+        <f t="shared" si="28"/>
+        <v>117745.08530124916</v>
+      </c>
     </row>
     <row r="82" spans="2:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B82" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E82" s="8"/>
-      <c r="F82" s="8"/>
-      <c r="G82" s="8"/>
-      <c r="H82" s="8"/>
-      <c r="I82" s="8"/>
-      <c r="J82" s="8"/>
-      <c r="K82" s="8"/>
-      <c r="L82" s="8"/>
-      <c r="M82" s="8"/>
-      <c r="N82" s="8"/>
+        <v>17</v>
+      </c>
+      <c r="E82" s="8">
+        <f>E59</f>
+        <v>7966</v>
+      </c>
+      <c r="F82" s="8">
+        <f t="shared" ref="F82:N82" si="29">F59</f>
+        <v>8686</v>
+      </c>
+      <c r="G82" s="8">
+        <f t="shared" si="29"/>
+        <v>11177</v>
+      </c>
+      <c r="H82" s="8">
+        <f t="shared" si="29"/>
+        <v>15498</v>
+      </c>
+      <c r="I82" s="8">
+        <f t="shared" si="29"/>
+        <v>18902.8</v>
+      </c>
+      <c r="J82" s="8">
+        <f t="shared" si="29"/>
+        <v>28883.8</v>
+      </c>
+      <c r="K82" s="8">
+        <f t="shared" si="29"/>
+        <v>41757.199999999997</v>
+      </c>
+      <c r="L82" s="8">
+        <f t="shared" si="29"/>
+        <v>54019.5</v>
+      </c>
+      <c r="M82" s="8">
+        <f t="shared" si="29"/>
+        <v>62011.8</v>
+      </c>
+      <c r="N82" s="8">
+        <f t="shared" si="29"/>
+        <v>60937.707211698253</v>
+      </c>
     </row>
     <row r="83" spans="2:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B83" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C83" s="5"/>
       <c r="D83" s="5"/>
-      <c r="E83" s="11"/>
-      <c r="F83" s="11"/>
-      <c r="G83" s="11"/>
-      <c r="H83" s="11"/>
-      <c r="I83" s="11"/>
-      <c r="J83" s="11"/>
-      <c r="K83" s="11"/>
-      <c r="L83" s="11"/>
-      <c r="M83" s="11"/>
-      <c r="N83" s="11"/>
+      <c r="E83" s="11">
+        <f>E82/E71</f>
+        <v>6.7549118537425054E-2</v>
+      </c>
+      <c r="F83" s="11">
+        <f t="shared" ref="F83:N83" si="30">F82/F71</f>
+        <v>7.44882470478265E-2</v>
+      </c>
+      <c r="G83" s="11">
+        <f t="shared" si="30"/>
+        <v>8.2852737542808849E-2</v>
+      </c>
+      <c r="H83" s="11">
+        <f t="shared" si="30"/>
+        <v>9.4212193238946876E-2</v>
+      </c>
+      <c r="I83" s="11">
+        <f t="shared" si="30"/>
+        <v>9.4839603505052009E-2</v>
+      </c>
+      <c r="J83" s="11">
+        <f t="shared" si="30"/>
+        <v>0.12211929727923848</v>
+      </c>
+      <c r="K83" s="11">
+        <f t="shared" si="30"/>
+        <v>0.15197855176167291</v>
+      </c>
+      <c r="L83" s="11">
+        <f t="shared" si="30"/>
+        <v>0.17243907774451964</v>
+      </c>
+      <c r="M83" s="11">
+        <f t="shared" si="30"/>
+        <v>0.1771222318502354</v>
+      </c>
+      <c r="N83" s="11">
+        <f t="shared" si="30"/>
+        <v>0.1589363142999396</v>
+      </c>
     </row>
     <row r="85" spans="2:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B85" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E85" s="8"/>
-      <c r="F85" s="8"/>
-      <c r="G85" s="8"/>
-      <c r="H85" s="8"/>
-      <c r="I85" s="8"/>
-      <c r="J85" s="8"/>
-      <c r="K85" s="8"/>
-      <c r="L85" s="8"/>
-      <c r="M85" s="8"/>
-      <c r="N85" s="8"/>
+        <v>18</v>
+      </c>
+      <c r="E85" s="8">
+        <f>E63</f>
+        <v>18567</v>
+      </c>
+      <c r="F85" s="8">
+        <f t="shared" ref="F85:N85" si="31">F63</f>
+        <v>31431</v>
+      </c>
+      <c r="G85" s="8">
+        <f t="shared" si="31"/>
+        <v>27266</v>
+      </c>
+      <c r="H85" s="8">
+        <f t="shared" si="31"/>
+        <v>37256</v>
+      </c>
+      <c r="I85" s="8">
+        <f t="shared" si="31"/>
+        <v>70098.399999999994</v>
+      </c>
+      <c r="J85" s="8">
+        <f t="shared" si="31"/>
+        <v>110755.47199999999</v>
+      </c>
+      <c r="K85" s="8">
+        <f t="shared" si="31"/>
+        <v>121831.01920000001</v>
+      </c>
+      <c r="L85" s="8">
+        <f t="shared" si="31"/>
+        <v>130359.19054400001</v>
+      </c>
+      <c r="M85" s="8">
+        <f t="shared" si="31"/>
+        <v>138180.74197664001</v>
+      </c>
+      <c r="N85" s="8">
+        <f t="shared" si="31"/>
+        <v>135417.12713710722</v>
+      </c>
       <c r="Q85" s="8"/>
     </row>
     <row r="86" spans="2:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B86" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
-      <c r="E86" s="11"/>
-      <c r="F86" s="11"/>
-      <c r="G86" s="11"/>
-      <c r="H86" s="11"/>
-      <c r="I86" s="11"/>
-      <c r="J86" s="11"/>
-      <c r="K86" s="11"/>
-      <c r="L86" s="11"/>
-      <c r="M86" s="11"/>
-      <c r="N86" s="11"/>
+      <c r="E86" s="11">
+        <f>E85/E71</f>
+        <v>0.15744218979216307</v>
+      </c>
+      <c r="F86" s="11">
+        <f t="shared" ref="F86:N86" si="32">F85/F71</f>
+        <v>0.26954180209074774</v>
+      </c>
+      <c r="G86" s="11">
+        <f t="shared" si="32"/>
+        <v>0.20211709240782197</v>
+      </c>
+      <c r="H86" s="11">
+        <f t="shared" si="32"/>
+        <v>0.22647886638986997</v>
+      </c>
+      <c r="I86" s="11">
+        <f t="shared" si="32"/>
+        <v>0.35169945523089369</v>
+      </c>
+      <c r="J86" s="11">
+        <f t="shared" si="32"/>
+        <v>0.46826873231605171</v>
+      </c>
+      <c r="K86" s="11">
+        <f t="shared" si="32"/>
+        <v>0.4434133959572138</v>
+      </c>
+      <c r="L86" s="11">
+        <f t="shared" si="32"/>
+        <v>0.4161278536996727</v>
+      </c>
+      <c r="M86" s="11">
+        <f t="shared" si="32"/>
+        <v>0.39468103518401315</v>
+      </c>
+      <c r="N86" s="11">
+        <f t="shared" si="32"/>
+        <v>0.35319180955542129</v>
+      </c>
     </row>
     <row r="88" spans="2:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B88" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E88" s="13"/>
-      <c r="F88" s="13"/>
-      <c r="G88" s="13"/>
-      <c r="H88" s="13"/>
-      <c r="I88" s="13"/>
-      <c r="J88" s="13"/>
-      <c r="K88" s="13"/>
-      <c r="L88" s="13"/>
-      <c r="M88" s="13"/>
-      <c r="N88" s="13"/>
+        <v>19</v>
+      </c>
+      <c r="E88" s="13">
+        <f>0.7*1000</f>
+        <v>700</v>
+      </c>
+      <c r="F88" s="13">
+        <f>5.68*1000</f>
+        <v>5680</v>
+      </c>
+      <c r="G88" s="13">
+        <f>3.84*1000</f>
+        <v>3840</v>
+      </c>
+      <c r="H88" s="13">
+        <f>1.05*1000</f>
+        <v>1050</v>
+      </c>
+      <c r="I88" s="13">
+        <f>-3.05*1000</f>
+        <v>-3050</v>
+      </c>
+      <c r="J88" s="13">
+        <f>I88*0.5</f>
+        <v>-1525</v>
+      </c>
+      <c r="K88" s="13">
+        <f>J88*0.33</f>
+        <v>-503.25</v>
+      </c>
+      <c r="L88" s="13">
+        <f>K88*-1</f>
+        <v>503.25</v>
+      </c>
+      <c r="M88" s="13">
+        <f>L88*2.4</f>
+        <v>1207.8</v>
+      </c>
+      <c r="N88" s="13">
+        <f>M88*1.25</f>
+        <v>1509.75</v>
+      </c>
     </row>
     <row r="89" spans="2:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B89" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
-      <c r="E89" s="11"/>
-      <c r="F89" s="11"/>
-      <c r="G89" s="11"/>
-      <c r="H89" s="11"/>
-      <c r="I89" s="11"/>
-      <c r="J89" s="11"/>
-      <c r="K89" s="11"/>
-      <c r="L89" s="11"/>
-      <c r="M89" s="11"/>
-      <c r="N89" s="11"/>
+      <c r="E89" s="11">
+        <f>E88/E71</f>
+        <v>5.9357749154152076E-3</v>
+      </c>
+      <c r="F89" s="11">
+        <f t="shared" ref="F89:N89" si="33">F88/F71</f>
+        <v>4.8709790839472085E-2</v>
+      </c>
+      <c r="G89" s="11">
+        <f t="shared" si="33"/>
+        <v>2.8465108004329068E-2</v>
+      </c>
+      <c r="H89" s="11">
+        <f t="shared" si="33"/>
+        <v>6.3829399213378643E-3</v>
+      </c>
+      <c r="I89" s="11">
+        <f t="shared" si="33"/>
+        <v>-1.5302536697759519E-2</v>
+      </c>
+      <c r="J89" s="11">
+        <f t="shared" si="33"/>
+        <v>-6.4476256015773099E-3</v>
+      </c>
+      <c r="K89" s="11">
+        <f t="shared" si="33"/>
+        <v>-1.8316172103029394E-3</v>
+      </c>
+      <c r="L89" s="11">
+        <f t="shared" si="33"/>
+        <v>1.606456295873333E-3</v>
+      </c>
+      <c r="M89" s="11">
+        <f t="shared" si="33"/>
+        <v>3.4497987742448098E-3</v>
+      </c>
+      <c r="N89" s="11">
+        <f t="shared" si="33"/>
+        <v>3.9376949264062506E-3</v>
+      </c>
     </row>
     <row r="90" spans="2:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B90" s="5"/>
@@ -3783,39 +3651,94 @@
     </row>
     <row r="91" spans="2:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B91" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E91" s="13"/>
-      <c r="F91" s="13"/>
-      <c r="G91" s="13"/>
-      <c r="H91" s="13"/>
-      <c r="I91" s="13"/>
-      <c r="J91" s="13"/>
-      <c r="K91" s="13"/>
-      <c r="L91" s="13"/>
-      <c r="M91" s="13"/>
-      <c r="N91" s="13"/>
+        <v>103</v>
+      </c>
+      <c r="E91" s="13">
+        <v>9160</v>
+      </c>
+      <c r="F91" s="13">
+        <v>11992</v>
+      </c>
+      <c r="G91" s="13">
+        <v>14030</v>
+      </c>
+      <c r="H91" s="13">
+        <v>15140</v>
+      </c>
+      <c r="I91" s="13">
+        <v>20000</v>
+      </c>
+      <c r="J91" s="13">
+        <f>J71*0.11</f>
+        <v>26017.329535846904</v>
+      </c>
+      <c r="K91" s="13">
+        <f>K71*0.11</f>
+        <v>30223.291028611911</v>
+      </c>
+      <c r="L91" s="13">
+        <f>L71*0.105</f>
+        <v>32893.051703764781</v>
+      </c>
+      <c r="M91" s="13">
+        <f t="shared" ref="M91:N91" si="34">M71*0.105</f>
+        <v>36761.274584127517</v>
+      </c>
+      <c r="N91" s="13">
+        <f t="shared" si="34"/>
+        <v>40258.00702256972</v>
+      </c>
     </row>
     <row r="92" spans="2:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B92" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C92" s="5"/>
       <c r="D92" s="5"/>
-      <c r="E92" s="11"/>
-      <c r="F92" s="11"/>
-      <c r="G92" s="11"/>
-      <c r="H92" s="11"/>
-      <c r="I92" s="11"/>
-      <c r="J92" s="11"/>
-      <c r="K92" s="11"/>
-      <c r="L92" s="11"/>
-      <c r="M92" s="11"/>
-      <c r="N92" s="11"/>
+      <c r="E92" s="11">
+        <f>E91/E71</f>
+        <v>7.7673854607433285E-2</v>
+      </c>
+      <c r="F92" s="11">
+        <f t="shared" ref="F92:J92" si="35">F91/F71</f>
+        <v>0.10283940347657557</v>
+      </c>
+      <c r="G92" s="11">
+        <f t="shared" si="35"/>
+        <v>0.10400142325540021</v>
+      </c>
+      <c r="H92" s="11">
+        <f t="shared" si="35"/>
+        <v>9.2035914675290723E-2</v>
+      </c>
+      <c r="I92" s="11">
+        <f t="shared" si="35"/>
+        <v>0.100344502936128</v>
+      </c>
+      <c r="J92" s="11">
+        <f t="shared" si="35"/>
+        <v>0.11</v>
+      </c>
+      <c r="K92" s="11">
+        <f t="shared" ref="K92" si="36">K91/K71</f>
+        <v>0.11</v>
+      </c>
+      <c r="L92" s="11">
+        <f t="shared" ref="L92" si="37">L91/L71</f>
+        <v>0.10499999999999998</v>
+      </c>
+      <c r="M92" s="11">
+        <f t="shared" ref="M92" si="38">M91/M71</f>
+        <v>0.105</v>
+      </c>
+      <c r="N92" s="11">
+        <f t="shared" ref="N92" si="39">N91/N71</f>
+        <v>0.105</v>
+      </c>
     </row>
     <row r="94" spans="2:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B94" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E94" s="12">
         <v>39116</v>
@@ -3829,27 +3752,29 @@
       <c r="H94" s="12">
         <v>52103</v>
       </c>
-      <c r="I94" s="12">
-        <v>40028</v>
+      <c r="I94" s="8">
+        <f>I80+I82-I85+I88+I91</f>
+        <v>22544.5</v>
       </c>
       <c r="J94" s="8">
-        <v>18407.5</v>
+        <f t="shared" ref="J94:N94" si="40">J80+J82-J85+J88+J91</f>
+        <v>17379.957535846916</v>
       </c>
       <c r="K94" s="8">
-        <f>K71*0.103</f>
-        <v>28299.990690427516</v>
+        <f t="shared" si="40"/>
+        <v>34186.721828611902</v>
       </c>
       <c r="L94" s="8">
-        <f>L71*0.155</f>
-        <v>48556.409657938493</v>
+        <f t="shared" si="40"/>
+        <v>48438.011159764763</v>
       </c>
       <c r="M94" s="8">
-        <f>M71*0.2</f>
-        <v>70021.475398338138</v>
+        <f t="shared" si="40"/>
+        <v>68053.432607487513</v>
       </c>
       <c r="N94" s="8">
-        <f>N71*0.21</f>
-        <v>80516.01404513944</v>
+        <f t="shared" si="40"/>
+        <v>85033.422398409894</v>
       </c>
       <c r="O94" s="8"/>
       <c r="P94" s="8"/>
@@ -3864,7 +3789,7 @@
     </row>
     <row r="95" spans="2:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B95" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C95" s="5"/>
       <c r="D95" s="5"/>
@@ -3873,54 +3798,73 @@
         <v>0.33169110227340182</v>
       </c>
       <c r="F95" s="11">
-        <f t="shared" ref="F95:N95" si="20">F94/F71</f>
+        <f t="shared" ref="F95:N95" si="41">F94/F71</f>
         <v>0.15812673121285664</v>
       </c>
       <c r="G95" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="41"/>
         <v>0.31882403522557118</v>
       </c>
       <c r="H95" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="41"/>
         <v>0.31673363687758738</v>
       </c>
       <c r="I95" s="11">
-        <f t="shared" si="20"/>
-        <v>0.20082948817636656</v>
+        <f t="shared" si="41"/>
+        <v>0.11311083232217688</v>
       </c>
       <c r="J95" s="11">
-        <f t="shared" si="20"/>
-        <v>7.7826011974448744E-2</v>
+        <f t="shared" si="41"/>
+        <v>7.3481612565542989E-2</v>
       </c>
       <c r="K95" s="11">
-        <f t="shared" si="20"/>
-        <v>0.10299999999999999</v>
+        <f t="shared" si="41"/>
+        <v>0.12442521225062043</v>
       </c>
       <c r="L95" s="11">
-        <f t="shared" si="20"/>
-        <v>0.155</v>
+        <f t="shared" si="41"/>
+        <v>0.15462205263226403</v>
       </c>
       <c r="M95" s="11">
-        <f t="shared" si="20"/>
-        <v>0.2</v>
+        <f t="shared" si="41"/>
+        <v>0.19437874515024192</v>
       </c>
       <c r="N95" s="11">
-        <f t="shared" si="20"/>
-        <v>0.21</v>
+        <f t="shared" si="41"/>
+        <v>0.2217821996709245</v>
       </c>
     </row>
     <row r="96" spans="2:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="V96" s="51"/>
+      <c r="V96" s="29"/>
     </row>
     <row r="97" spans="2:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B97" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J97" s="8"/>
-      <c r="K97" s="8"/>
-      <c r="L97" s="8"/>
-      <c r="M97" s="8"/>
-      <c r="N97" s="8"/>
+        <v>24</v>
+      </c>
+      <c r="I97" s="8">
+        <f>I94</f>
+        <v>22544.5</v>
+      </c>
+      <c r="J97" s="8">
+        <f>J94/(1+$U$7)^1</f>
+        <v>15817.216541542515</v>
+      </c>
+      <c r="K97" s="8">
+        <f>K94/(1+$U$7)^2</f>
+        <v>28315.234109689562</v>
+      </c>
+      <c r="L97" s="8">
+        <f>L94/(1+$U$7)^3</f>
+        <v>36511.556770270668</v>
+      </c>
+      <c r="M97" s="8">
+        <f>M94/(1+$U$7)^4</f>
+        <v>46684.792502691751</v>
+      </c>
+      <c r="N97" s="8">
+        <f>N94/(1+$U$7)^5</f>
+        <v>53088.004973806703</v>
+      </c>
       <c r="V97" s="8"/>
     </row>
     <row r="99" spans="2:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3968,15 +3912,15 @@
   <sheetData>
     <row r="2" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -4002,19 +3946,19 @@
         <v>2025</v>
       </c>
       <c r="L4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="P4" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="S4" s="12"/>
     </row>
@@ -4037,10 +3981,10 @@
     </row>
     <row r="6" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G6" s="12">
         <v>53915</v>
@@ -4075,7 +4019,7 @@
     </row>
     <row r="7" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G7" s="11">
         <f>(G6-46398)/46398</f>
@@ -4114,7 +4058,7 @@
     </row>
     <row r="8" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G8" s="12">
         <f>(39872)*0.91</f>
@@ -4152,7 +4096,7 @@
     </row>
     <row r="9" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G9" s="12">
         <f>(39872)*0.09</f>
@@ -4181,7 +4125,7 @@
     </row>
     <row r="10" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G10" s="12">
         <v>3754</v>
@@ -4208,7 +4152,7 @@
     </row>
     <row r="11" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G11" s="12">
         <v>10289</v>
@@ -4244,10 +4188,10 @@
     </row>
     <row r="13" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G13" s="12">
         <v>60080</v>
@@ -4280,7 +4224,7 @@
     </row>
     <row r="14" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G14" s="11">
         <f>(G13-51700)/51700</f>
@@ -4317,7 +4261,7 @@
     </row>
     <row r="15" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G15" s="12">
         <v>52589</v>
@@ -4346,7 +4290,7 @@
     </row>
     <row r="16" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G16" s="12">
         <v>6943</v>
@@ -4375,7 +4319,7 @@
     </row>
     <row r="18" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G18" s="12">
         <v>54093</v>
@@ -4409,10 +4353,10 @@
     </row>
     <row r="19" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G19" s="11">
         <f>(G18-48251)/48251</f>
@@ -4449,7 +4393,7 @@
     </row>
     <row r="20" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G20" s="12">
         <f>22488+7143</f>
@@ -4479,7 +4423,7 @@
     </row>
     <row r="21" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G21" s="12">
         <v>7407</v>
@@ -4507,7 +4451,7 @@
     </row>
     <row r="22" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G22" s="12">
         <v>15370</v>
@@ -4545,7 +4489,7 @@
     </row>
     <row r="24" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -4591,7 +4535,7 @@
     </row>
     <row r="26" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -4617,19 +4561,19 @@
         <v>2025</v>
       </c>
       <c r="L26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M26" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M26" s="3" t="s">
+      <c r="N26" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="N26" s="3" t="s">
+      <c r="O26" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O26" s="3" t="s">
+      <c r="P26" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="P26" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="23" customFormat="1" ht="1.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -4651,7 +4595,7 @@
     </row>
     <row r="28" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G28" s="12">
         <v>24351</v>
@@ -4683,7 +4627,7 @@
     </row>
     <row r="29" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G29" s="11">
         <f t="shared" ref="G29:N29" si="5">G28/G6</f>
@@ -4720,7 +4664,7 @@
     </row>
     <row r="31" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G31" s="12">
         <v>26126</v>
@@ -4752,7 +4696,7 @@
     </row>
     <row r="32" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G32" s="11">
         <f t="shared" ref="G32:N32" si="6">G31/G13</f>
@@ -4789,7 +4733,7 @@
     </row>
     <row r="34" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G34" s="12">
         <v>19439</v>
@@ -4821,7 +4765,7 @@
     </row>
     <row r="35" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G35" s="11">
         <f>G34/G18</f>
@@ -4869,7 +4813,7 @@
     </row>
     <row r="37" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
@@ -4912,7 +4856,7 @@
     </row>
     <row r="39" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -4938,19 +4882,19 @@
         <v>2025</v>
       </c>
       <c r="L39" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M39" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M39" s="3" t="s">
+      <c r="N39" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="N39" s="3" t="s">
+      <c r="O39" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O39" s="3" t="s">
+      <c r="P39" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="P39" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="40" spans="2:16" s="23" customFormat="1" ht="1.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -4972,7 +4916,7 @@
     </row>
     <row r="41" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G41" s="12">
         <v>83953</v>
@@ -4992,7 +4936,7 @@
     </row>
     <row r="42" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G42" s="11">
         <f>(G41-73160)/73160</f>
@@ -5019,7 +4963,7 @@
     </row>
     <row r="43" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G43" s="12">
         <v>84135</v>
@@ -5039,7 +4983,7 @@
     </row>
     <row r="44" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G44" s="11">
         <f>(G43-69855)/69855</f>
@@ -5066,7 +5010,7 @@
     </row>
     <row r="46" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -5092,19 +5036,19 @@
         <v>2025</v>
       </c>
       <c r="L46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M46" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M46" s="3" t="s">
+      <c r="N46" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="N46" s="3" t="s">
+      <c r="O46" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O46" s="3" t="s">
+      <c r="P46" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="P46" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="47" spans="2:16" s="23" customFormat="1" ht="1.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -5126,7 +5070,7 @@
     </row>
     <row r="48" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C48" s="24"/>
       <c r="D48" s="24"/>
@@ -5151,17 +5095,17 @@
         <v>333705</v>
       </c>
       <c r="M48" s="25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N48" s="25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O48" s="25"/>
       <c r="P48" s="25"/>
     </row>
     <row r="49" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G49" s="12">
         <v>141000</v>
@@ -5184,7 +5128,7 @@
     </row>
     <row r="50" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G50" s="11">
         <v>0.498</v>
@@ -5213,7 +5157,7 @@
     </row>
     <row r="51" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G51" s="11"/>
       <c r="H51" s="11">
@@ -5240,7 +5184,7 @@
     </row>
     <row r="52" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G52" s="12"/>
       <c r="H52" s="12"/>
@@ -5268,7 +5212,7 @@
     </row>
     <row r="53" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53" s="1" t="s">
-        <v>212</v>
+        <v>104</v>
       </c>
       <c r="L53" s="8">
         <f>Main!J36*L55</f>
@@ -5285,7 +5229,7 @@
     </row>
     <row r="54" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B54" s="1" t="s">
-        <v>213</v>
+        <v>105</v>
       </c>
       <c r="L54" s="8">
         <f>Main!J36-L53</f>
@@ -5302,7 +5246,7 @@
     </row>
     <row r="55" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B55" s="5" t="s">
-        <v>214</v>
+        <v>106</v>
       </c>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
@@ -5325,7 +5269,7 @@
     </row>
     <row r="56" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="1" t="s">
-        <v>242</v>
+        <v>107</v>
       </c>
       <c r="L56" s="13">
         <f>-40000*0.27</f>
@@ -5350,10 +5294,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3582438-1AC1-43DF-96FD-76E4B45DFDBC}">
-  <dimension ref="B2:AK80"/>
+  <dimension ref="A12:A69"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView showGridLines="0" topLeftCell="A66" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A81" sqref="A1:AK81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5363,1584 +5307,46 @@
     <col min="7" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2">
-        <v>2021</v>
-      </c>
-      <c r="F2" s="2">
-        <v>2022</v>
-      </c>
-      <c r="G2" s="2">
-        <v>2023</v>
-      </c>
-      <c r="H2" s="2">
-        <v>2024</v>
-      </c>
-      <c r="I2" s="2">
-        <v>2025</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="AE2" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="AF2" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="AH2" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="AI2" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="AJ2" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="AK2" s="2" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="3" spans="2:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="13">
-        <v>56118</v>
-      </c>
-      <c r="F3" s="13">
-        <v>65149</v>
-      </c>
-      <c r="G3" s="13">
-        <v>59475</v>
-      </c>
-      <c r="H3" s="13">
-        <v>74071</v>
-      </c>
-      <c r="I3" s="13">
-        <v>71611</v>
-      </c>
-      <c r="J3" s="13">
-        <v>75264.92668199999</v>
-      </c>
-      <c r="K3" s="13">
-        <v>82894.543678069982</v>
-      </c>
-      <c r="L3" s="13">
-        <v>104408.56690800063</v>
-      </c>
-      <c r="M3" s="13">
-        <v>150978.8510565102</v>
-      </c>
-      <c r="N3" s="13">
-        <v>178723.13532467111</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="21">
-        <v>1.95</v>
-      </c>
-      <c r="S3" s="21">
-        <v>2.17</v>
-      </c>
-      <c r="T3" s="21">
-        <v>2.27</v>
-      </c>
-      <c r="U3" s="21">
-        <v>2.48</v>
-      </c>
-      <c r="V3" s="21">
-        <v>2.2200000000000002</v>
-      </c>
-      <c r="W3" s="21">
-        <v>2.23</v>
-      </c>
-      <c r="X3" s="21">
-        <v>2.35</v>
-      </c>
-      <c r="Y3" s="21">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="Z3" s="21">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="AA3" s="21">
-        <v>2.69</v>
-      </c>
-      <c r="AB3" s="21">
-        <v>2.99</v>
-      </c>
-      <c r="AC3" s="21">
-        <v>2.93</v>
-      </c>
-      <c r="AD3" s="21">
-        <v>2.94</v>
-      </c>
-      <c r="AE3" s="21">
-        <v>2.95</v>
-      </c>
-      <c r="AF3" s="21">
-        <v>3.3</v>
-      </c>
-      <c r="AG3" s="21">
-        <v>3.23</v>
-      </c>
-      <c r="AH3" s="21">
-        <v>3.46</v>
-      </c>
-      <c r="AI3" s="21">
-        <v>3.65</v>
-      </c>
-      <c r="AJ3" s="21">
-        <v>4.13</v>
-      </c>
-    </row>
-    <row r="4" spans="2:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="26">
-        <f>Main!E63</f>
-        <v>0</v>
-      </c>
-      <c r="F4" s="26">
-        <f>Main!F63</f>
-        <v>0</v>
-      </c>
-      <c r="G4" s="26">
-        <f>Main!G63</f>
-        <v>0</v>
-      </c>
-      <c r="H4" s="26">
-        <f>Main!H63</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="26">
-        <f>Main!I63</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="26">
-        <f>Main!J63</f>
-        <v>0</v>
-      </c>
-      <c r="K4" s="26">
-        <f>Main!K63</f>
-        <v>0</v>
-      </c>
-      <c r="L4" s="26">
-        <f>Main!L63</f>
-        <v>0</v>
-      </c>
-      <c r="M4" s="26">
-        <f>Main!M63</f>
-        <v>0</v>
-      </c>
-      <c r="N4" s="26">
-        <f>Main!N63</f>
-        <v>0</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="21">
-        <v>1.7813000000000001</v>
-      </c>
-      <c r="S4" s="21">
-        <v>1.9180200000000001</v>
-      </c>
-      <c r="T4" s="21">
-        <v>2.07687</v>
-      </c>
-      <c r="U4" s="21">
-        <v>2.3189600000000001</v>
-      </c>
-      <c r="V4" s="21">
-        <v>2.18879</v>
-      </c>
-      <c r="W4" s="21">
-        <v>2.2922400000000001</v>
-      </c>
-      <c r="X4" s="21">
-        <v>2.3045900000000001</v>
-      </c>
-      <c r="Y4" s="21">
-        <v>2.29332</v>
-      </c>
-      <c r="Z4" s="21">
-        <v>2.2391000000000001</v>
-      </c>
-      <c r="AA4" s="21">
-        <v>2.55063</v>
-      </c>
-      <c r="AB4" s="21">
-        <v>2.65401</v>
-      </c>
-      <c r="AC4" s="21">
-        <v>2.7713199999999998</v>
-      </c>
-      <c r="AD4" s="21">
-        <v>2.82464</v>
-      </c>
-      <c r="AE4" s="21">
-        <v>2.9375</v>
-      </c>
-      <c r="AF4" s="21">
-        <v>3.1012200000000001</v>
-      </c>
-      <c r="AG4" s="21">
-        <v>3.1194899999999999</v>
-      </c>
-      <c r="AH4" s="21">
-        <v>3.2222200000000001</v>
-      </c>
-      <c r="AI4" s="21">
-        <v>3.3747099999999999</v>
-      </c>
-      <c r="AJ4" s="21">
-        <v>3.6715599999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="2:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E5" s="13">
-        <f t="shared" ref="E5:N5" si="0">E3+E4</f>
-        <v>56118</v>
-      </c>
-      <c r="F5" s="13">
-        <f t="shared" si="0"/>
-        <v>65149</v>
-      </c>
-      <c r="G5" s="13">
-        <f t="shared" si="0"/>
-        <v>59475</v>
-      </c>
-      <c r="H5" s="13">
-        <f t="shared" si="0"/>
-        <v>74071</v>
-      </c>
-      <c r="I5" s="13">
-        <f t="shared" si="0"/>
-        <v>71611</v>
-      </c>
-      <c r="J5" s="13">
-        <f t="shared" si="0"/>
-        <v>75264.92668199999</v>
-      </c>
-      <c r="K5" s="13">
-        <f t="shared" si="0"/>
-        <v>82894.543678069982</v>
-      </c>
-      <c r="L5" s="13">
-        <f t="shared" si="0"/>
-        <v>104408.56690800063</v>
-      </c>
-      <c r="M5" s="13">
-        <f t="shared" si="0"/>
-        <v>150978.8510565102</v>
-      </c>
-      <c r="N5" s="13">
-        <f t="shared" si="0"/>
-        <v>178723.13532467111</v>
-      </c>
-      <c r="P5" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q5" s="42"/>
-      <c r="R5" s="40">
-        <f t="shared" ref="R5:AJ5" si="1">R3/R4-1</f>
-        <v>9.4706113512603052E-2</v>
-      </c>
-      <c r="S5" s="40">
-        <f t="shared" si="1"/>
-        <v>0.13137506386794717</v>
-      </c>
-      <c r="T5" s="40">
-        <f t="shared" si="1"/>
-        <v>9.299089495250068E-2</v>
-      </c>
-      <c r="U5" s="40">
-        <f t="shared" si="1"/>
-        <v>6.944492358643517E-2</v>
-      </c>
-      <c r="V5" s="40">
-        <f t="shared" si="1"/>
-        <v>1.4259019823738228E-2</v>
-      </c>
-      <c r="W5" s="40">
-        <f t="shared" si="1"/>
-        <v>-2.7152479670540686E-2</v>
-      </c>
-      <c r="X5" s="40">
-        <f t="shared" si="1"/>
-        <v>1.9704155619871599E-2</v>
-      </c>
-      <c r="Y5" s="40">
-        <f t="shared" si="1"/>
-        <v>1.1633788568538028E-2</v>
-      </c>
-      <c r="Z5" s="40">
-        <f t="shared" si="1"/>
-        <v>9.4189629761957994E-2</v>
-      </c>
-      <c r="AA5" s="40">
-        <f t="shared" si="1"/>
-        <v>5.4641402320211085E-2</v>
-      </c>
-      <c r="AB5" s="40">
-        <f t="shared" si="1"/>
-        <v>0.1265971115406499</v>
-      </c>
-      <c r="AC5" s="40">
-        <f t="shared" si="1"/>
-        <v>5.7257913196599564E-2</v>
-      </c>
-      <c r="AD5" s="40">
-        <f t="shared" si="1"/>
-        <v>4.0840602696272876E-2</v>
-      </c>
-      <c r="AE5" s="40">
-        <f t="shared" si="1"/>
-        <v>4.2553191489362874E-3</v>
-      </c>
-      <c r="AF5" s="40">
-        <f t="shared" si="1"/>
-        <v>6.4097355234391529E-2</v>
-      </c>
-      <c r="AG5" s="40">
-        <f t="shared" si="1"/>
-        <v>3.5425662528169699E-2</v>
-      </c>
-      <c r="AH5" s="40">
-        <f t="shared" si="1"/>
-        <v>7.3793843995754393E-2</v>
-      </c>
-      <c r="AI5" s="40">
-        <f t="shared" si="1"/>
-        <v>8.1574416764699897E-2</v>
-      </c>
-      <c r="AJ5" s="40">
-        <f t="shared" si="1"/>
-        <v>0.12486245628561154</v>
-      </c>
-    </row>
-    <row r="6" spans="2:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B6" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="43">
-        <f t="shared" ref="E6:N6" si="2">E4/E5</f>
-        <v>0</v>
-      </c>
-      <c r="F6" s="43">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G6" s="43">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H6" s="43">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I6" s="43">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J6" s="43">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K6" s="43">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L6" s="43">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M6" s="43">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N6" s="43">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q6" s="39"/>
-      <c r="R6" s="41">
-        <v>41706</v>
-      </c>
-      <c r="S6" s="41">
-        <v>46152</v>
-      </c>
-      <c r="T6" s="41">
-        <v>45317</v>
-      </c>
-      <c r="U6" s="41">
-        <v>51728</v>
-      </c>
-      <c r="V6" s="41">
-        <v>49360</v>
-      </c>
-      <c r="W6" s="41">
-        <v>51865</v>
-      </c>
-      <c r="X6" s="41">
-        <v>50122</v>
-      </c>
-      <c r="Y6" s="41">
-        <v>52747</v>
-      </c>
-      <c r="Z6" s="41">
-        <v>52857</v>
-      </c>
-      <c r="AA6" s="41">
-        <v>56189</v>
-      </c>
-      <c r="AB6" s="41">
-        <v>56517</v>
-      </c>
-      <c r="AC6" s="41">
-        <v>62020</v>
-      </c>
-      <c r="AD6" s="41">
-        <v>61858</v>
-      </c>
-      <c r="AE6" s="41">
-        <v>64727</v>
-      </c>
-      <c r="AF6" s="41">
-        <v>65585</v>
-      </c>
-      <c r="AG6" s="41">
-        <v>69632</v>
-      </c>
-      <c r="AH6" s="41">
-        <v>70066</v>
-      </c>
-      <c r="AI6" s="41">
-        <v>76441</v>
-      </c>
-      <c r="AJ6" s="41">
-        <v>77673</v>
-      </c>
-    </row>
-    <row r="7" spans="2:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="P7" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q7" s="39"/>
-      <c r="R7" s="41">
-        <v>41035.5</v>
-      </c>
-      <c r="S7" s="41">
-        <v>44260.4</v>
-      </c>
-      <c r="T7" s="41">
-        <v>44011.8</v>
-      </c>
-      <c r="U7" s="41">
-        <v>50745.5</v>
-      </c>
-      <c r="V7" s="41">
-        <v>49022.6</v>
-      </c>
-      <c r="W7" s="41">
-        <v>52384.3</v>
-      </c>
-      <c r="X7" s="41">
-        <v>49609.2</v>
-      </c>
-      <c r="Y7" s="41">
-        <v>52986.7</v>
-      </c>
-      <c r="Z7" s="41">
-        <v>51018.6</v>
-      </c>
-      <c r="AA7" s="41">
-        <v>55485.4</v>
-      </c>
-      <c r="AB7" s="41">
-        <v>54523.4</v>
-      </c>
-      <c r="AC7" s="41">
-        <v>61140.9</v>
-      </c>
-      <c r="AD7" s="41">
-        <v>60846</v>
-      </c>
-      <c r="AE7" s="41">
-        <v>64382.3</v>
-      </c>
-      <c r="AF7" s="41">
-        <v>64562.400000000001</v>
-      </c>
-      <c r="AG7" s="41">
-        <v>68816.7</v>
-      </c>
-      <c r="AH7" s="41">
-        <v>68439.899999999994</v>
-      </c>
-      <c r="AI7" s="41">
-        <v>73961.100000000006</v>
-      </c>
-      <c r="AJ7" s="41">
-        <v>75494.7</v>
-      </c>
-    </row>
-    <row r="8" spans="2:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B8" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="31" t="s">
-        <v>159</v>
-      </c>
-      <c r="K8" s="32"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="32"/>
-      <c r="N8" s="33"/>
-      <c r="P8" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q8" s="42"/>
-      <c r="R8" s="40">
-        <f t="shared" ref="R8:AJ8" si="3">R6/R7-1</f>
-        <v>1.633951091128405E-2</v>
-      </c>
-      <c r="S8" s="40">
-        <f t="shared" si="3"/>
-        <v>4.2737977966760266E-2</v>
-      </c>
-      <c r="T8" s="40">
-        <f t="shared" si="3"/>
-        <v>2.9655683248583253E-2</v>
-      </c>
-      <c r="U8" s="40">
-        <f t="shared" si="3"/>
-        <v>1.9361322678858262E-2</v>
-      </c>
-      <c r="V8" s="40">
-        <f t="shared" si="3"/>
-        <v>6.8825398897651713E-3</v>
-      </c>
-      <c r="W8" s="40">
-        <f t="shared" si="3"/>
-        <v>-9.9132755424813368E-3</v>
-      </c>
-      <c r="X8" s="40">
-        <f t="shared" si="3"/>
-        <v>1.0336792369157299E-2</v>
-      </c>
-      <c r="Y8" s="40">
-        <f t="shared" si="3"/>
-        <v>-4.5237767213280877E-3</v>
-      </c>
-      <c r="Z8" s="40">
-        <f t="shared" si="3"/>
-        <v>3.6033917042020081E-2</v>
-      </c>
-      <c r="AA8" s="40">
-        <f t="shared" si="3"/>
-        <v>1.2680813331074514E-2</v>
-      </c>
-      <c r="AB8" s="40">
-        <f t="shared" si="3"/>
-        <v>3.6564117424812137E-2</v>
-      </c>
-      <c r="AC8" s="40">
-        <f t="shared" si="3"/>
-        <v>1.4378263977141259E-2</v>
-      </c>
-      <c r="AD8" s="40">
-        <f t="shared" si="3"/>
-        <v>1.6632153305065289E-2</v>
-      </c>
-      <c r="AE8" s="40">
-        <f t="shared" si="3"/>
-        <v>5.353955978584235E-3</v>
-      </c>
-      <c r="AF8" s="40">
-        <f t="shared" si="3"/>
-        <v>1.5838940312008276E-2</v>
-      </c>
-      <c r="AG8" s="40">
-        <f t="shared" si="3"/>
-        <v>1.184741494433772E-2</v>
-      </c>
-      <c r="AH8" s="40">
-        <f t="shared" si="3"/>
-        <v>2.3759532085815493E-2</v>
-      </c>
-      <c r="AI8" s="40">
-        <f t="shared" si="3"/>
-        <v>3.3529787956101176E-2</v>
-      </c>
-      <c r="AJ8" s="40">
-        <f t="shared" si="3"/>
-        <v>2.8853681119336949E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B9" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E9" s="49" t="s">
-        <v>243</v>
-      </c>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="J9" s="34" t="s">
-        <v>300</v>
-      </c>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="M9" s="6"/>
-      <c r="N9" s="35"/>
-    </row>
-    <row r="10" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B10" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="J10" s="36" t="s">
-        <v>164</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="N10" s="37"/>
-      <c r="P10" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="S10" s="40">
-        <f>AVERAGE(R5:AJ5)</f>
-        <v>6.1289325986018314E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B11" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="J11" s="36" t="s">
-        <v>160</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="N11" s="38"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="S11" s="40">
-        <f>MAX(R5:AJ5)</f>
-        <v>0.13137506386794717</v>
-      </c>
-      <c r="T11" s="8"/>
-      <c r="U11" s="8"/>
-      <c r="V11" s="8"/>
-    </row>
-    <row r="12" spans="2:37" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="E12" s="49" t="s">
-        <v>244</v>
-      </c>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="J12" s="34" t="s">
-        <v>174</v>
-      </c>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="M12" s="6"/>
-      <c r="N12" s="35"/>
-      <c r="P12" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="S12" s="40">
-        <f>MIN(R5:AJ5)</f>
-        <v>-2.7152479670540686E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="2:37" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="E13" s="49" t="s">
-        <v>211</v>
-      </c>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="J13" s="36" t="s">
-        <v>175</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="N13" s="37"/>
-      <c r="P13" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="12"/>
-      <c r="S13" s="40">
-        <f>AVERAGE(R8:AJ8)</f>
-        <v>1.8228913277731369E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="2:37" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="E14" s="49" t="s">
-        <v>245</v>
-      </c>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="J14" s="36" t="s">
-        <v>176</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="N14" s="37"/>
-      <c r="P14" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="S14" s="40">
-        <f>MAX(R8:AJ8)</f>
-        <v>4.2737977966760266E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B15" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E15" s="49" t="s">
-        <v>246</v>
-      </c>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="J15" s="34" t="s">
-        <v>184</v>
-      </c>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="M15" s="6"/>
-      <c r="N15" s="35"/>
-      <c r="P15" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="S15" s="40">
-        <f>MIN(R8:AJ8)</f>
-        <v>-9.9132755424813368E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="2:37" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E16" s="49" t="s">
-        <v>248</v>
-      </c>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="J16" s="36" t="s">
-        <v>177</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="N16" s="37"/>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B17" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E17" s="49" t="s">
-        <v>113</v>
-      </c>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-      <c r="J17" s="36" t="s">
-        <v>178</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="N17" s="37"/>
-    </row>
-    <row r="18" spans="2:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E18" s="49" t="s">
-        <v>247</v>
-      </c>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
-      <c r="J18" s="36" t="s">
-        <v>161</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="N18" s="37"/>
-      <c r="P18" s="8"/>
-    </row>
-    <row r="19" spans="2:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="J19" s="36" t="s">
-        <v>162</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="N19" s="37"/>
-    </row>
-    <row r="20" spans="2:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E20" s="49" t="s">
-        <v>249</v>
-      </c>
-      <c r="F20" s="49"/>
-      <c r="G20" s="49"/>
-      <c r="J20" s="34" t="s">
-        <v>163</v>
-      </c>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="M20" s="6"/>
-      <c r="N20" s="35"/>
-    </row>
-    <row r="21" spans="2:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E21" s="49" t="s">
-        <v>250</v>
-      </c>
-      <c r="F21" s="49"/>
-      <c r="G21" s="49"/>
-    </row>
-    <row r="22" spans="2:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="2:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="F23" s="50"/>
-      <c r="G23" s="50"/>
-    </row>
-    <row r="24" spans="2:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="E24" s="49" t="s">
-        <v>251</v>
-      </c>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-    </row>
-    <row r="25" spans="2:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="E25" s="49" t="s">
-        <v>252</v>
-      </c>
-      <c r="F25" s="49"/>
-      <c r="G25" s="49"/>
-    </row>
-    <row r="26" spans="2:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="E26" s="49" t="s">
-        <v>253</v>
-      </c>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49"/>
-    </row>
-    <row r="27" spans="2:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="E27" s="49" t="s">
-        <v>254</v>
-      </c>
-      <c r="F27" s="49"/>
-      <c r="G27" s="49"/>
-    </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B28" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="E28" s="49" t="s">
-        <v>257</v>
-      </c>
-      <c r="F28" s="49"/>
-      <c r="G28" s="49"/>
-    </row>
-    <row r="29" spans="2:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E29" s="49" t="s">
-        <v>255</v>
-      </c>
-      <c r="F29" s="49"/>
-      <c r="G29" s="49"/>
-    </row>
-    <row r="30" spans="2:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="31" spans="2:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="32" spans="2:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E32" s="49" t="s">
-        <v>259</v>
-      </c>
-      <c r="F32" s="49"/>
-      <c r="G32" s="49"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B33" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E33" s="49" t="s">
-        <v>156</v>
-      </c>
-      <c r="F33" s="49"/>
-      <c r="G33" s="49"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B34" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E34" s="49" t="s">
-        <v>260</v>
-      </c>
-      <c r="F34" s="49"/>
-      <c r="G34" s="49"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B35" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E35" s="49" t="s">
-        <v>125</v>
-      </c>
-      <c r="F35" s="49"/>
-      <c r="G35" s="49"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B36" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E36" s="49" t="s">
-        <v>155</v>
-      </c>
-      <c r="F36" s="49"/>
-      <c r="G36" s="49"/>
-    </row>
-    <row r="37" spans="2:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E37" s="49" t="s">
-        <v>261</v>
-      </c>
-      <c r="F37" s="49"/>
-      <c r="G37" s="49"/>
-    </row>
-    <row r="38" spans="2:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E38" s="49" t="s">
-        <v>262</v>
-      </c>
-      <c r="F38" s="49"/>
-      <c r="G38" s="49"/>
-    </row>
-    <row r="39" spans="2:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="E39" s="49" t="s">
-        <v>263</v>
-      </c>
-      <c r="F39" s="49"/>
-      <c r="G39" s="49"/>
-    </row>
-    <row r="40" spans="2:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="E40" s="49" t="s">
-        <v>264</v>
-      </c>
-      <c r="F40" s="49"/>
-      <c r="G40" s="49"/>
-    </row>
-    <row r="41" spans="2:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="E41" s="49" t="s">
-        <v>265</v>
-      </c>
-      <c r="F41" s="49"/>
-      <c r="G41" s="49"/>
-    </row>
-    <row r="42" spans="2:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="E42" s="49" t="s">
-        <v>266</v>
-      </c>
-      <c r="F42" s="49"/>
-      <c r="G42" s="49"/>
-    </row>
-    <row r="43" spans="2:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="E43" s="49" t="s">
-        <v>267</v>
-      </c>
-      <c r="F43" s="49"/>
-      <c r="G43" s="49"/>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B44" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B45" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="46" spans="2:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E46" s="49" t="s">
-        <v>270</v>
-      </c>
-      <c r="F46" s="49"/>
-      <c r="G46" s="49"/>
-    </row>
-    <row r="47" spans="2:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E47" s="49" t="s">
-        <v>271</v>
-      </c>
-      <c r="F47" s="49"/>
-      <c r="G47" s="49"/>
-    </row>
-    <row r="48" spans="2:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E48" s="49" t="s">
-        <v>272</v>
-      </c>
-      <c r="F48" s="49"/>
-      <c r="G48" s="49"/>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B49" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="E49" s="49" t="s">
-        <v>273</v>
-      </c>
-      <c r="F49" s="49"/>
-      <c r="G49" s="49"/>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B50" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E50" s="49" t="s">
-        <v>144</v>
-      </c>
-      <c r="F50" s="49"/>
-      <c r="G50" s="49"/>
-    </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B51" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E51" s="17"/>
-      <c r="F51" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="G51" s="17"/>
-    </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B53" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="F53" s="50"/>
-      <c r="G53" s="50"/>
-    </row>
-    <row r="54" spans="2:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="55" spans="2:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="E55" s="49" t="s">
-        <v>275</v>
-      </c>
-      <c r="F55" s="49"/>
-      <c r="G55" s="49"/>
-    </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B56" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="57" spans="2:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E57" s="49" t="s">
-        <v>276</v>
-      </c>
-      <c r="F57" s="49"/>
-      <c r="G57" s="49"/>
-    </row>
-    <row r="58" spans="2:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E58" s="49" t="s">
-        <v>277</v>
-      </c>
-      <c r="F58" s="49"/>
-      <c r="G58" s="49"/>
-    </row>
-    <row r="59" spans="2:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E59" s="49" t="s">
-        <v>278</v>
-      </c>
-      <c r="F59" s="49"/>
-      <c r="G59" s="49"/>
-    </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B60" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E60" s="49" t="s">
-        <v>280</v>
-      </c>
-      <c r="F60" s="49"/>
-      <c r="G60" s="49"/>
-    </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B61" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="E61" s="49" t="s">
-        <v>209</v>
-      </c>
-      <c r="F61" s="49"/>
-      <c r="G61" s="49"/>
-    </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B62" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="63" spans="2:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="E63" s="49" t="s">
-        <v>281</v>
-      </c>
-      <c r="F63" s="49"/>
-      <c r="G63" s="49"/>
-    </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B64" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="E64" s="49" t="s">
-        <v>282</v>
-      </c>
-      <c r="F64" s="49"/>
-      <c r="G64" s="49"/>
-    </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B65" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="E65" s="49" t="s">
-        <v>283</v>
-      </c>
-      <c r="F65" s="49"/>
-      <c r="G65" s="49"/>
-    </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B66" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="E66" s="17"/>
-      <c r="F66" s="17" t="s">
-        <v>284</v>
-      </c>
-      <c r="G66" s="17"/>
-    </row>
-    <row r="67" spans="2:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="D67" s="49" t="s">
-        <v>285</v>
-      </c>
-      <c r="E67" s="49"/>
-      <c r="F67" s="49"/>
-      <c r="G67" s="49"/>
-      <c r="H67" s="49"/>
-    </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B68" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="E68" s="17"/>
-      <c r="F68" s="17" t="s">
-        <v>286</v>
-      </c>
-      <c r="G68" s="17"/>
-    </row>
-    <row r="69" spans="2:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="E69" s="49" t="s">
-        <v>287</v>
-      </c>
-      <c r="F69" s="49"/>
-      <c r="G69" s="49"/>
-    </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B71" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
-      <c r="E71" s="29" t="s">
-        <v>171</v>
-      </c>
-      <c r="F71" s="29" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B72" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E72" s="44" t="s">
-        <v>147</v>
-      </c>
-      <c r="F72" s="30">
-        <v>45212</v>
-      </c>
-    </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B73" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="E73" s="44" t="s">
-        <v>289</v>
-      </c>
-      <c r="F73" s="30">
-        <v>44949</v>
-      </c>
-    </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B74" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E74" s="44" t="s">
-        <v>153</v>
-      </c>
-      <c r="F74" s="30">
-        <v>44677</v>
-      </c>
-    </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B75" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E75" s="44" t="s">
-        <v>154</v>
-      </c>
-      <c r="F75" s="30">
-        <v>44624</v>
-      </c>
-    </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B76" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="E76" s="44" t="s">
-        <v>151</v>
-      </c>
-      <c r="F76" s="30">
-        <v>44264</v>
-      </c>
-    </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B77" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="E77" s="44" t="s">
-        <v>293</v>
-      </c>
-      <c r="F77" s="30">
-        <v>43668</v>
-      </c>
-    </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B78" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="E78" s="44" t="s">
-        <v>291</v>
-      </c>
-      <c r="F78" s="30">
-        <v>43399</v>
-      </c>
-    </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B79" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="E79" s="44" t="s">
-        <v>295</v>
-      </c>
-      <c r="F79" s="30">
-        <v>41897</v>
-      </c>
-    </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B80" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="E80" s="17"/>
-      <c r="F80" s="1">
-        <v>2014</v>
-      </c>
-    </row>
+    <row r="12" ht="15.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" ht="15.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" ht="15.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="15.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" ht="15.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" ht="15.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" ht="15.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" ht="15.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" ht="15.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" ht="15.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" ht="15.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" ht="15.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" ht="15.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" ht="15.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" ht="15.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" ht="15.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" ht="15.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" ht="15.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" ht="15.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" ht="15.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" ht="15.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" ht="15.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" ht="15.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" ht="15.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" ht="15.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" ht="15.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="54" ht="15.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" ht="15.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" ht="15.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" ht="15.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" ht="15.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="63" ht="15.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="67" ht="15.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="69" ht="15.6" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B72:F80">
     <sortCondition descending="1" ref="F72:F80"/>
   </sortState>
-  <mergeCells count="47">
-    <mergeCell ref="E69:G69"/>
-    <mergeCell ref="E60:G60"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="E65:G65"/>
-    <mergeCell ref="D67:H67"/>
-    <mergeCell ref="E64:G64"/>
-    <mergeCell ref="E61:G61"/>
-    <mergeCell ref="E55:G55"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="E59:G59"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="E20:G20"/>
-  </mergeCells>
   <conditionalFormatting sqref="R5:AJ5">
     <cfRule type="colorScale" priority="3">
       <colorScale>

--- a/META Model.xlsx
+++ b/META Model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kerem\OneDrive\Masaüstü\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A9A9E24-F609-417E-933D-EAF755F29C68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD860A47-D094-440B-9E6C-F18C4015A372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33324" yWindow="780" windowWidth="22800" windowHeight="15120" xr2:uid="{64BEE0EA-45A1-4490-9445-11F5F6D37C44}"/>
+    <workbookView xWindow="25260" yWindow="360" windowWidth="27216" windowHeight="16248" xr2:uid="{64BEE0EA-45A1-4490-9445-11F5F6D37C44}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,37 +37,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={0AEE88EF-F5A5-4222-8D90-AB39EF908C53}</author>
-    <author>tc={6E9EEE48-010B-419D-88AA-8E2878DCB24F}</author>
-  </authors>
-  <commentList>
-    <comment ref="L49" authorId="0" shapeId="0" xr:uid="{0AEE88EF-F5A5-4222-8D90-AB39EF908C53}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Q1 2026
-Expected to recognize 40% over NTM</t>
-      </text>
-    </comment>
-    <comment ref="L50" authorId="1" shapeId="0" xr:uid="{6E9EEE48-010B-419D-88AA-8E2878DCB24F}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    SemiAnalysis expects growth over 40%. Up to 53% in December 2026
-Q1 2026 Growth: %40</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -89,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="81">
   <si>
     <t>Ticker</t>
   </si>
@@ -292,96 +263,6 @@
     <t>Last Updated</t>
   </si>
   <si>
-    <t>Industry Metrics</t>
-  </si>
-  <si>
-    <t>Intelligent Cloud</t>
-  </si>
-  <si>
-    <t>Productivity and Business Processes</t>
-  </si>
-  <si>
-    <t>Product Segments</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>- Microsoft 365 Commercial Products and Cloud Services</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>- Microsoft 365 Consumer Products and Cloud Services</t>
-  </si>
-  <si>
-    <t>- Dynamics Products and Cloud Services</t>
-  </si>
-  <si>
-    <t>- LinkedIn</t>
-  </si>
-  <si>
-    <t>- Server Products and Cloud Services</t>
-  </si>
-  <si>
-    <t>- Enterprise and partner services</t>
-  </si>
-  <si>
-    <t>More Personal Computing</t>
-  </si>
-  <si>
-    <t>- Windows and Devices</t>
-  </si>
-  <si>
-    <t>- Search and News Advertising</t>
-  </si>
-  <si>
-    <t>- Gaming</t>
-  </si>
-  <si>
-    <t>Operating Income by Segment</t>
-  </si>
-  <si>
-    <t>% of Sales</t>
-  </si>
-  <si>
-    <t>Notes:</t>
-  </si>
-  <si>
-    <t>Segments were reorganized in FY25, Metrics before 2023 may be unreliable</t>
-  </si>
-  <si>
-    <t>United States</t>
-  </si>
-  <si>
-    <t>Other Countries</t>
-  </si>
-  <si>
-    <t>Revenue Segments by Country</t>
-  </si>
-  <si>
-    <t>Billings</t>
-  </si>
-  <si>
-    <t>Azure Revenue YoY Growth %</t>
-  </si>
-  <si>
-    <t>Azure Constant Currency Revenue Yoy Growth %</t>
-  </si>
-  <si>
-    <t>Capex Including Finance Leases</t>
-  </si>
-  <si>
-    <t>Total Commercial RPO</t>
-  </si>
-  <si>
-    <t>Total Sales</t>
-  </si>
-  <si>
-    <t>Total Operating Income</t>
-  </si>
-  <si>
     <t>% of fcf</t>
   </si>
   <si>
@@ -401,18 +282,6 @@
   </si>
   <si>
     <t>Stock Based Compensation</t>
-  </si>
-  <si>
-    <t>Recurring Revenue</t>
-  </si>
-  <si>
-    <t>Non Recurring Revenue</t>
-  </si>
-  <si>
-    <t>Recurring % of Revenue</t>
-  </si>
-  <si>
-    <t>OpenAI Profit Share (Loss)</t>
   </si>
   <si>
     <t>META</t>
@@ -557,14 +426,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -592,14 +460,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="8" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -882,9 +748,7 @@
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="Kerem Odabasi" id="{F4B24668-1B18-43C7-A98C-6E4C7C705157}" userId="fe4885f5b5840770" providerId="Windows Live"/>
-</personList>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1202,25 +1066,12 @@
 </a:theme>
 </file>
 
-<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="L49" dT="2026-01-03T08:36:22.51" personId="{F4B24668-1B18-43C7-A98C-6E4C7C705157}" id="{0AEE88EF-F5A5-4222-8D90-AB39EF908C53}">
-    <text>Q1 2026
-Expected to recognize 40% over NTM</text>
-  </threadedComment>
-  <threadedComment ref="L50" dT="2026-01-03T08:44:52.88" personId="{F4B24668-1B18-43C7-A98C-6E4C7C705157}" id="{6E9EEE48-010B-419D-88AA-8E2878DCB24F}">
-    <text>SemiAnalysis expects growth over 40%. Up to 53% in December 2026
-Q1 2026 Growth: %40</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF806BA9-FD26-46A5-A630-9D65D6C233D8}">
   <dimension ref="B2:X105"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1243,12 +1094,12 @@
     <row r="2" spans="2:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2"/>
       <c r="C2"/>
-      <c r="R2" s="5" t="s">
+      <c r="R2" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="3" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B3" s="5"/>
+      <c r="B3" s="4"/>
     </row>
     <row r="4" spans="2:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
@@ -1274,76 +1125,76 @@
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
     </row>
-    <row r="5" spans="2:24" s="23" customFormat="1" ht="1.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="25"/>
+    <row r="5" spans="2:24" s="21" customFormat="1" ht="1.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
     </row>
     <row r="6" spans="2:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="G6" s="16" t="s">
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="G6" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="M6" s="19" t="s">
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="M6" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="6"/>
-      <c r="R6" s="19" t="s">
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="5"/>
+      <c r="R6" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="S6" s="19"/>
-      <c r="T6" s="19"/>
-      <c r="U6" s="6"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="5"/>
     </row>
     <row r="7" spans="2:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="17" t="s">
-        <v>108</v>
+      <c r="E7" s="16" t="s">
+        <v>74</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I7" s="30">
+      <c r="I7" s="27">
         <v>78450</v>
       </c>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
       <c r="M7" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="P7" s="8">
+      <c r="P7" s="7">
         <f>SUM(I97:N97)</f>
         <v>202961.30489800117</v>
       </c>
       <c r="R7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="U7" s="10">
+      <c r="U7" s="9">
         <v>9.8799999999999999E-2</v>
       </c>
     </row>
@@ -1351,149 +1202,149 @@
       <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="19">
         <f>P12/P11</f>
         <v>765.86325797510392</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I8" s="34">
+      <c r="I8" s="31">
         <v>2004</v>
       </c>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
       <c r="M8" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="P8" s="8">
+      <c r="P8" s="7">
         <f>N51*U8</f>
         <v>2837230.9711144376</v>
       </c>
       <c r="R8" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="U8" s="8">
+      <c r="U8" s="7">
         <v>20</v>
       </c>
-      <c r="X8" s="21"/>
+      <c r="X8" s="20"/>
     </row>
     <row r="9" spans="2:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="19">
         <v>660.62</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I9" s="34" t="s">
-        <v>112</v>
-      </c>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
+      <c r="I9" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
       <c r="M9" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="P9" s="8">
+      <c r="P9" s="7">
         <f>P8/(1+U7)^5</f>
         <v>1771337.994613966</v>
       </c>
-      <c r="U9" s="8"/>
+      <c r="U9" s="7"/>
     </row>
     <row r="10" spans="2:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="14">
         <f>E8/E9-1</f>
         <v>0.159309827094402</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I10" s="34" t="s">
-        <v>114</v>
-      </c>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
+      <c r="I10" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
       <c r="M10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="P10" s="8">
+      <c r="P10" s="7">
         <f>-44448+28834+20113</f>
         <v>4499</v>
       </c>
-      <c r="R10" s="19" t="s">
+      <c r="R10" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="S10" s="19"/>
-      <c r="T10" s="19"/>
-      <c r="U10" s="8"/>
-      <c r="V10" s="8"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="18"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
     </row>
     <row r="11" spans="2:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G11" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I11" s="34" t="s">
-        <v>113</v>
-      </c>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
+      <c r="I11" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
       <c r="M11" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="P11" s="8">
+      <c r="P11" s="7">
         <v>2572</v>
       </c>
       <c r="R11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="T11" s="32"/>
-      <c r="U11" s="32"/>
+      <c r="T11" s="29"/>
+      <c r="U11" s="29"/>
     </row>
     <row r="12" spans="2:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="17">
         <v>46028</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I12" s="31">
+      <c r="I12" s="28">
         <v>46022</v>
       </c>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
       <c r="M12" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="P12" s="8">
+      <c r="P12" s="7">
         <f>P9+P7-P10</f>
         <v>1969800.2995119672</v>
       </c>
       <c r="R12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="U12" s="10"/>
+      <c r="U12" s="9"/>
     </row>
     <row r="13" spans="2:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I13" s="10"/>
-      <c r="P13" s="8"/>
+      <c r="I13" s="9"/>
+      <c r="P13" s="7"/>
       <c r="R13" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="U13" s="10"/>
+      <c r="U13" s="9"/>
     </row>
     <row r="14" spans="2:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="R14" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="U14" s="10"/>
+      <c r="U14" s="9"/>
     </row>
     <row r="15" spans="2:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
@@ -1526,34 +1377,34 @@
       <c r="K15" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M15" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="N15" s="19"/>
-      <c r="O15" s="19"/>
-      <c r="P15" s="6"/>
+      <c r="M15" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="N15" s="18"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="5"/>
       <c r="R15" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="2:24" s="23" customFormat="1" ht="1.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
+    <row r="16" spans="2:24" s="21" customFormat="1" ht="1.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1" t="s">
         <v>46</v>
       </c>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
-      <c r="P16" s="8">
+      <c r="P16" s="7">
         <f>SUM(J106:N106)</f>
         <v>0</v>
       </c>
@@ -1562,131 +1413,131 @@
       <c r="B17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
       <c r="M17" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="P17" s="8"/>
+      <c r="P17" s="7"/>
       <c r="R17" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="U17" s="10"/>
+      <c r="U17" s="9"/>
     </row>
     <row r="18" spans="2:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
       <c r="M18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="P18" s="8"/>
+      <c r="P18" s="7"/>
       <c r="R18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="U18" s="8"/>
+      <c r="U18" s="7"/>
     </row>
     <row r="19" spans="2:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M19" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="P19" s="28"/>
+        <v>68</v>
+      </c>
+      <c r="P19" s="25"/>
       <c r="R19" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="U19" s="10"/>
+      <c r="U19" s="9"/>
     </row>
     <row r="20" spans="2:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
       <c r="M20" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="P20" s="28"/>
+        <v>72</v>
+      </c>
+      <c r="P20" s="25"/>
       <c r="R20" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="U20" s="10"/>
+      <c r="U20" s="9"/>
     </row>
     <row r="21" spans="2:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
       <c r="M21" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="P21" s="28"/>
+        <v>70</v>
+      </c>
+      <c r="P21" s="25"/>
       <c r="R21" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="U21" s="10"/>
+      <c r="U21" s="9"/>
     </row>
     <row r="22" spans="2:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
       <c r="M22" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="P22" s="28"/>
-      <c r="R22" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="P22" s="25"/>
+      <c r="R22" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="S22" s="6"/>
-      <c r="T22" s="33"/>
-      <c r="U22" s="33"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="30"/>
+      <c r="U22" s="30"/>
     </row>
     <row r="23" spans="2:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
       <c r="R23" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="U23" s="10"/>
+      <c r="U23" s="9"/>
     </row>
     <row r="25" spans="2:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="2" t="s">
@@ -1729,497 +1580,497 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="2:21" s="23" customFormat="1" ht="1.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="25"/>
-      <c r="M26" s="25"/>
-      <c r="N26" s="25"/>
-      <c r="O26" s="25"/>
-      <c r="P26" s="25"/>
+    <row r="26" spans="2:21" s="21" customFormat="1" ht="1.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="23"/>
+      <c r="N26" s="23"/>
+      <c r="O26" s="23"/>
+      <c r="P26" s="23"/>
     </row>
     <row r="27" spans="2:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E27" s="12">
+        <v>75</v>
+      </c>
+      <c r="E27" s="11">
         <v>2912</v>
       </c>
-      <c r="F27" s="12">
+      <c r="F27" s="11">
         <v>2963</v>
       </c>
-      <c r="G27" s="12">
+      <c r="G27" s="11">
         <v>3065</v>
       </c>
-      <c r="H27" s="12">
+      <c r="H27" s="11">
         <v>3139</v>
       </c>
-      <c r="I27" s="8">
+      <c r="I27" s="7">
         <f>H27*1.0268</f>
         <v>3223.1251999999999</v>
       </c>
-      <c r="J27" s="8">
+      <c r="J27" s="7">
         <f>I27*1.023</f>
         <v>3297.2570795999995</v>
       </c>
-      <c r="K27" s="8">
+      <c r="K27" s="7">
         <f>J27*1.019</f>
         <v>3359.9049641123993</v>
       </c>
-      <c r="L27" s="8">
+      <c r="L27" s="7">
         <f>K27*1.018</f>
         <v>3420.3832534664225</v>
       </c>
-      <c r="M27" s="8">
+      <c r="M27" s="7">
         <f>L27*1.016</f>
         <v>3475.1093855218851</v>
       </c>
-      <c r="N27" s="8">
+      <c r="N27" s="7">
         <f>M27*1.014</f>
         <v>3523.7609169191915</v>
       </c>
     </row>
     <row r="28" spans="2:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="11">
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="10">
         <f>(E27-2797)/2797</f>
         <v>4.1115480872363247E-2</v>
       </c>
-      <c r="F28" s="11">
+      <c r="F28" s="10">
         <f>(F27-E27)/E27</f>
         <v>1.7513736263736264E-2</v>
       </c>
-      <c r="G28" s="11">
+      <c r="G28" s="10">
         <f t="shared" ref="G28:K28" si="0">(G27-F27)/F27</f>
         <v>3.442456969287884E-2</v>
       </c>
-      <c r="H28" s="11">
+      <c r="H28" s="10">
         <f t="shared" si="0"/>
         <v>2.4143556280587276E-2</v>
       </c>
-      <c r="I28" s="11">
+      <c r="I28" s="10">
         <f t="shared" si="0"/>
         <v>2.6799999999999984E-2</v>
       </c>
-      <c r="J28" s="11">
+      <c r="J28" s="10">
         <f t="shared" si="0"/>
         <v>2.2999999999999875E-2</v>
       </c>
-      <c r="K28" s="11">
+      <c r="K28" s="10">
         <f t="shared" si="0"/>
         <v>1.8999999999999923E-2</v>
       </c>
-      <c r="L28" s="11">
+      <c r="L28" s="10">
         <f t="shared" ref="L28" si="1">(L27-K27)/K27</f>
         <v>1.8000000000000009E-2</v>
       </c>
-      <c r="M28" s="11">
+      <c r="M28" s="10">
         <f t="shared" ref="M28" si="2">(M27-L27)/L27</f>
         <v>1.5999999999999948E-2</v>
       </c>
-      <c r="N28" s="11">
+      <c r="N28" s="10">
         <f t="shared" ref="N28" si="3">(N27-M27)/M27</f>
         <v>1.3999999999999995E-2</v>
       </c>
       <c r="T28"/>
     </row>
     <row r="29" spans="2:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="26"/>
-      <c r="K29" s="26"/>
-      <c r="L29" s="26"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
     </row>
     <row r="30" spans="2:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E30" s="12">
+        <v>76</v>
+      </c>
+      <c r="E30" s="11">
         <v>1929</v>
       </c>
-      <c r="F30" s="12">
+      <c r="F30" s="11">
         <v>2000</v>
       </c>
-      <c r="G30" s="12">
+      <c r="G30" s="11">
         <v>2110</v>
       </c>
-      <c r="H30" s="12">
+      <c r="H30" s="11">
         <v>2156</v>
       </c>
-      <c r="I30" s="8">
+      <c r="I30" s="7">
         <v>2192.5500000000002</v>
       </c>
-      <c r="J30" s="8">
+      <c r="J30" s="7">
         <f>I30*1.03</f>
         <v>2258.3265000000001</v>
       </c>
-      <c r="K30" s="8">
+      <c r="K30" s="7">
         <f>J30*1.02</f>
         <v>2303.4930300000001</v>
       </c>
-      <c r="L30" s="26"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
     </row>
     <row r="31" spans="2:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="11">
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="10">
         <f>(E30-1845)/1845</f>
         <v>4.5528455284552849E-2</v>
       </c>
-      <c r="F31" s="11">
+      <c r="F31" s="10">
         <f>(F30-E30)/E30</f>
         <v>3.6806635562467598E-2</v>
       </c>
-      <c r="G31" s="11">
+      <c r="G31" s="10">
         <f>(G30-F30)/F30</f>
         <v>5.5E-2</v>
       </c>
-      <c r="H31" s="11">
+      <c r="H31" s="10">
         <f>(H30-G30)/G30</f>
         <v>2.1800947867298578E-2</v>
       </c>
-      <c r="I31" s="11">
+      <c r="I31" s="10">
         <f>(I30-H30)/H30</f>
         <v>1.6952690166975967E-2</v>
       </c>
-      <c r="J31" s="11">
+      <c r="J31" s="10">
         <f>(J30-I30)/I30</f>
         <v>2.9999999999999971E-2</v>
       </c>
-      <c r="K31" s="11">
+      <c r="K31" s="10">
         <f t="shared" ref="K31" si="4">(K30-J30)/J30</f>
         <v>1.9999999999999983E-2</v>
       </c>
-      <c r="L31" s="11"/>
-      <c r="M31" s="11"/>
-      <c r="N31" s="11"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
       <c r="T31"/>
     </row>
     <row r="32" spans="2:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="26"/>
-      <c r="K32" s="26"/>
-      <c r="L32" s="26"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="24"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="24"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
     </row>
     <row r="33" spans="2:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E33" s="12">
+        <v>77</v>
+      </c>
+      <c r="E33" s="11">
         <f t="shared" ref="E33:H33" si="5">E36/E27</f>
         <v>40.497596153846153</v>
       </c>
-      <c r="F33" s="12">
+      <c r="F33" s="11">
         <f t="shared" si="5"/>
         <v>39.355045561930474</v>
       </c>
-      <c r="G33" s="12">
+      <c r="G33" s="11">
         <f t="shared" si="5"/>
         <v>44.0137030995106</v>
       </c>
-      <c r="H33" s="12">
+      <c r="H33" s="11">
         <f t="shared" si="5"/>
         <v>52.405543166613569</v>
       </c>
-      <c r="I33" s="8">
+      <c r="I33" s="7">
         <f>H33*1.18</f>
         <v>61.838540936604005</v>
       </c>
-      <c r="J33" s="8">
+      <c r="J33" s="7">
         <f>I33*(1+I34-0.02)</f>
         <v>71.73270748646064</v>
       </c>
-      <c r="K33" s="8">
+      <c r="K33" s="7">
         <f t="shared" ref="K33:N33" si="6">J33*(1+J34-0.02)</f>
         <v>81.775286534565126</v>
       </c>
-      <c r="L33" s="8">
+      <c r="L33" s="7">
         <f t="shared" si="6"/>
         <v>91.588320918712938</v>
       </c>
-      <c r="M33" s="8">
+      <c r="M33" s="7">
         <f t="shared" si="6"/>
         <v>100.74715301058421</v>
       </c>
-      <c r="N33" s="8">
+      <c r="N33" s="7">
         <f t="shared" si="6"/>
         <v>108.80692525143094</v>
       </c>
     </row>
     <row r="34" spans="2:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="11">
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="10">
         <f>(E33-32.14)/32.14</f>
         <v>0.26003721698338994</v>
       </c>
-      <c r="F34" s="11">
+      <c r="F34" s="10">
         <f>(F33-E33)/E33</f>
         <v>-2.8212800275237284E-2</v>
       </c>
-      <c r="G34" s="11">
+      <c r="G34" s="10">
         <f>(G33-F33)/F33</f>
         <v>0.11837510212633599</v>
       </c>
-      <c r="H34" s="11">
+      <c r="H34" s="10">
         <f>(H33-G33)/G33</f>
         <v>0.19066425854079702</v>
       </c>
-      <c r="I34" s="11">
+      <c r="I34" s="10">
         <f>(I33-H33)/H33</f>
         <v>0.17999999999999988</v>
       </c>
-      <c r="J34" s="11">
+      <c r="J34" s="10">
         <f>(J33-I33)/I33</f>
         <v>0.15999999999999992</v>
       </c>
-      <c r="K34" s="11">
+      <c r="K34" s="10">
         <f t="shared" ref="K34:N34" si="7">(K33-J33)/J33</f>
         <v>0.13999999999999996</v>
       </c>
-      <c r="L34" s="11">
+      <c r="L34" s="10">
         <f t="shared" si="7"/>
         <v>0.11999999999999997</v>
       </c>
-      <c r="M34" s="11">
+      <c r="M34" s="10">
         <f t="shared" si="7"/>
         <v>9.9999999999999797E-2</v>
       </c>
-      <c r="N34" s="11">
+      <c r="N34" s="10">
         <f t="shared" si="7"/>
         <v>7.9999999999999891E-2</v>
       </c>
       <c r="T34"/>
     </row>
     <row r="35" spans="2:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="26"/>
-      <c r="K35" s="26"/>
-      <c r="L35" s="26"/>
-      <c r="M35" s="8"/>
-      <c r="N35" s="8"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="24"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="24"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
     </row>
     <row r="36" spans="2:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E36" s="12">
+      <c r="E36" s="11">
         <v>117929</v>
       </c>
-      <c r="F36" s="12">
+      <c r="F36" s="11">
         <v>116609</v>
       </c>
-      <c r="G36" s="12">
+      <c r="G36" s="11">
         <v>134902</v>
       </c>
-      <c r="H36" s="12">
+      <c r="H36" s="11">
         <v>164501</v>
       </c>
-      <c r="I36" s="8">
+      <c r="I36" s="7">
         <f>I27*I33</f>
         <v>199313.35962399998</v>
       </c>
-      <c r="J36" s="8">
+      <c r="J36" s="7">
         <f t="shared" ref="J36:N36" si="8">J27*J33</f>
         <v>236521.17759860822</v>
       </c>
-      <c r="K36" s="8">
+      <c r="K36" s="7">
         <f t="shared" si="8"/>
         <v>274757.19116919918</v>
       </c>
-      <c r="L36" s="8">
+      <c r="L36" s="7">
         <f t="shared" si="8"/>
         <v>313267.15908347414</v>
       </c>
-      <c r="M36" s="8">
+      <c r="M36" s="7">
         <f t="shared" si="8"/>
         <v>350107.37699169066</v>
       </c>
-      <c r="N36" s="8">
+      <c r="N36" s="7">
         <f t="shared" si="8"/>
         <v>383409.59069114021</v>
       </c>
     </row>
     <row r="37" spans="2:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="11">
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="10">
         <f>(E36-85965)/85965</f>
         <v>0.37182574303495608</v>
       </c>
-      <c r="F37" s="11">
+      <c r="F37" s="10">
         <f>(F36-E36)/E36</f>
         <v>-1.1193175554782962E-2</v>
       </c>
-      <c r="G37" s="11">
+      <c r="G37" s="10">
         <f>(G36-F36)/F36</f>
         <v>0.15687468377226457</v>
       </c>
-      <c r="H37" s="11">
+      <c r="H37" s="10">
         <f>(H36-G36)/G36</f>
         <v>0.21941112807816043</v>
       </c>
-      <c r="I37" s="11">
+      <c r="I37" s="10">
         <f>(I36-H36)/H36</f>
         <v>0.21162399999999984</v>
       </c>
-      <c r="J37" s="11">
+      <c r="J37" s="10">
         <f>(J36-I36)/I36</f>
         <v>0.18667999999999965</v>
       </c>
-      <c r="K37" s="11">
+      <c r="K37" s="10">
         <f t="shared" ref="K37" si="9">(K36-J36)/J36</f>
         <v>0.16165999999999983</v>
       </c>
-      <c r="L37" s="11">
+      <c r="L37" s="10">
         <f t="shared" ref="L37" si="10">(L36-K36)/K36</f>
         <v>0.14015999999999998</v>
       </c>
-      <c r="M37" s="11">
+      <c r="M37" s="10">
         <f t="shared" ref="M37" si="11">(M36-L36)/L36</f>
         <v>0.11759999999999989</v>
       </c>
-      <c r="N37" s="11">
+      <c r="N37" s="10">
         <f t="shared" ref="N37" si="12">(N36-M36)/M36</f>
         <v>9.5119999999999816E-2</v>
       </c>
       <c r="T37"/>
     </row>
     <row r="38" spans="2:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="11"/>
-      <c r="K38" s="11"/>
-      <c r="L38" s="11"/>
-      <c r="M38" s="11"/>
-      <c r="N38" s="11"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10"/>
       <c r="T38"/>
     </row>
     <row r="39" spans="2:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E39" s="12">
+      <c r="E39" s="11">
         <v>22649</v>
       </c>
-      <c r="F39" s="12">
+      <c r="F39" s="11">
         <v>25249</v>
       </c>
-      <c r="G39" s="12">
+      <c r="G39" s="11">
         <v>25958</v>
       </c>
-      <c r="H39" s="12">
+      <c r="H39" s="11">
         <v>30162</v>
       </c>
-      <c r="I39" s="12">
+      <c r="I39" s="11">
         <v>36095.300000000003</v>
       </c>
-      <c r="J39" s="8">
+      <c r="J39" s="7">
         <f>J36*0.198</f>
         <v>46831.193164524433</v>
       </c>
-      <c r="K39" s="8">
+      <c r="K39" s="7">
         <f>K36*0.21</f>
         <v>57699.010145531829</v>
       </c>
-      <c r="L39" s="8">
+      <c r="L39" s="7">
         <f>L36*0.225</f>
         <v>70485.110793781685</v>
       </c>
-      <c r="M39" s="8">
+      <c r="M39" s="7">
         <f>M36*0.244</f>
         <v>85426.199985972518</v>
       </c>
-      <c r="N39" s="8">
+      <c r="N39" s="7">
         <f>N36*0.25</f>
         <v>95852.397672785053</v>
       </c>
     </row>
     <row r="40" spans="2:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E40" s="11">
+      <c r="E40" s="10">
         <f>E39/E36</f>
         <v>0.19205623722748433</v>
       </c>
-      <c r="F40" s="11">
+      <c r="F40" s="10">
         <f t="shared" ref="F40:N40" si="13">F39/F36</f>
         <v>0.21652702621581524</v>
       </c>
-      <c r="G40" s="11">
+      <c r="G40" s="10">
         <f t="shared" si="13"/>
         <v>0.1924211649938474</v>
       </c>
-      <c r="H40" s="11">
+      <c r="H40" s="10">
         <f t="shared" si="13"/>
         <v>0.18335450848323109</v>
       </c>
-      <c r="I40" s="11">
+      <c r="I40" s="10">
         <f t="shared" si="13"/>
         <v>0.18109824684152104</v>
       </c>
-      <c r="J40" s="11">
+      <c r="J40" s="10">
         <f t="shared" si="13"/>
         <v>0.19800000000000001</v>
       </c>
-      <c r="K40" s="11">
+      <c r="K40" s="10">
         <f t="shared" si="13"/>
         <v>0.21</v>
       </c>
-      <c r="L40" s="11">
+      <c r="L40" s="10">
         <f t="shared" si="13"/>
         <v>0.22500000000000001</v>
       </c>
-      <c r="M40" s="11">
+      <c r="M40" s="10">
         <f t="shared" si="13"/>
         <v>0.24399999999999999</v>
       </c>
-      <c r="N40" s="11">
+      <c r="N40" s="10">
         <f t="shared" si="13"/>
         <v>0.25</v>
       </c>
@@ -2228,88 +2079,88 @@
       <c r="B42" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E42" s="8">
+      <c r="E42" s="7">
         <f>E36-E39</f>
         <v>95280</v>
       </c>
-      <c r="F42" s="8">
+      <c r="F42" s="7">
         <f t="shared" ref="F42:N42" si="14">F36-F39</f>
         <v>91360</v>
       </c>
-      <c r="G42" s="8">
+      <c r="G42" s="7">
         <f t="shared" si="14"/>
         <v>108944</v>
       </c>
-      <c r="H42" s="8">
+      <c r="H42" s="7">
         <f t="shared" si="14"/>
         <v>134339</v>
       </c>
-      <c r="I42" s="8">
+      <c r="I42" s="7">
         <f t="shared" si="14"/>
         <v>163218.05962399999</v>
       </c>
-      <c r="J42" s="8">
+      <c r="J42" s="7">
         <f t="shared" si="14"/>
         <v>189689.9844340838</v>
       </c>
-      <c r="K42" s="8">
+      <c r="K42" s="7">
         <f t="shared" si="14"/>
         <v>217058.18102366736</v>
       </c>
-      <c r="L42" s="8">
+      <c r="L42" s="7">
         <f t="shared" si="14"/>
         <v>242782.04828969244</v>
       </c>
-      <c r="M42" s="8">
+      <c r="M42" s="7">
         <f t="shared" si="14"/>
         <v>264681.17700571811</v>
       </c>
-      <c r="N42" s="8">
+      <c r="N42" s="7">
         <f t="shared" si="14"/>
         <v>287557.19301835517</v>
       </c>
     </row>
     <row r="43" spans="2:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E43" s="11">
+      <c r="E43" s="10">
         <f>E42/E36</f>
         <v>0.80794376277251567</v>
       </c>
-      <c r="F43" s="11">
+      <c r="F43" s="10">
         <f t="shared" ref="F43:N43" si="15">F42/F36</f>
         <v>0.78347297378418479</v>
       </c>
-      <c r="G43" s="11">
+      <c r="G43" s="10">
         <f t="shared" si="15"/>
         <v>0.80757883500615257</v>
       </c>
-      <c r="H43" s="11">
+      <c r="H43" s="10">
         <f t="shared" si="15"/>
         <v>0.81664549151676891</v>
       </c>
-      <c r="I43" s="11">
+      <c r="I43" s="10">
         <f t="shared" si="15"/>
         <v>0.81890175315847902</v>
       </c>
-      <c r="J43" s="11">
+      <c r="J43" s="10">
         <f t="shared" si="15"/>
         <v>0.80200000000000005</v>
       </c>
-      <c r="K43" s="11">
+      <c r="K43" s="10">
         <f t="shared" si="15"/>
         <v>0.79</v>
       </c>
-      <c r="L43" s="11">
+      <c r="L43" s="10">
         <f t="shared" si="15"/>
         <v>0.77499999999999991</v>
       </c>
-      <c r="M43" s="11">
+      <c r="M43" s="10">
         <f t="shared" si="15"/>
         <v>0.75599999999999989</v>
       </c>
-      <c r="N43" s="11">
+      <c r="N43" s="10">
         <f t="shared" si="15"/>
         <v>0.75</v>
       </c>
@@ -2318,84 +2169,84 @@
       <c r="B45" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E45" s="12">
+      <c r="E45" s="11">
         <v>35459.5</v>
       </c>
-      <c r="F45" s="12">
+      <c r="F45" s="11">
         <v>27078</v>
       </c>
-      <c r="G45" s="12">
+      <c r="G45" s="11">
         <v>23709</v>
       </c>
-      <c r="H45" s="12">
+      <c r="H45" s="11">
         <v>21086</v>
       </c>
-      <c r="I45" s="12">
+      <c r="I45" s="11">
         <f>I36*0.12</f>
         <v>23917.603154879995</v>
       </c>
-      <c r="J45" s="12">
+      <c r="J45" s="11">
         <f>J36*0.12</f>
         <v>28382.541311832985</v>
       </c>
-      <c r="K45" s="12">
+      <c r="K45" s="11">
         <f>K36*0.115</f>
         <v>31597.076984457908</v>
       </c>
-      <c r="L45" s="12">
+      <c r="L45" s="11">
         <f>L36*0.113</f>
         <v>35399.188976432575</v>
       </c>
-      <c r="M45" s="8">
+      <c r="M45" s="7">
         <f>M36*0.112</f>
         <v>39212.026223069355</v>
       </c>
-      <c r="N45" s="8">
+      <c r="N45" s="7">
         <f>N36*0.11</f>
         <v>42175.054976025422</v>
       </c>
     </row>
     <row r="46" spans="2:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E46" s="11">
+      <c r="E46" s="10">
         <f>E45/E36</f>
         <v>0.30068515801880791</v>
       </c>
-      <c r="F46" s="11">
+      <c r="F46" s="10">
         <f t="shared" ref="F46:N46" si="16">F45/F36</f>
         <v>0.2322119218928213</v>
       </c>
-      <c r="G46" s="11">
+      <c r="G46" s="10">
         <f t="shared" si="16"/>
         <v>0.17574980356110362</v>
       </c>
-      <c r="H46" s="11">
+      <c r="H46" s="10">
         <f t="shared" si="16"/>
         <v>0.12818159160126685</v>
       </c>
-      <c r="I46" s="11">
+      <c r="I46" s="10">
         <f t="shared" si="16"/>
         <v>0.11999999999999998</v>
       </c>
-      <c r="J46" s="11">
+      <c r="J46" s="10">
         <f t="shared" si="16"/>
         <v>0.12</v>
       </c>
-      <c r="K46" s="11">
+      <c r="K46" s="10">
         <f t="shared" si="16"/>
         <v>0.115</v>
       </c>
-      <c r="L46" s="11">
+      <c r="L46" s="10">
         <f t="shared" si="16"/>
         <v>0.11299999999999999</v>
       </c>
-      <c r="M46" s="11">
+      <c r="M46" s="10">
         <f t="shared" si="16"/>
         <v>0.112</v>
       </c>
-      <c r="N46" s="11">
+      <c r="N46" s="10">
         <f t="shared" si="16"/>
         <v>0.11</v>
       </c>
@@ -2404,84 +2255,84 @@
       <c r="B48" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E48" s="12">
+      <c r="E48" s="11">
         <v>24655</v>
       </c>
-      <c r="F48" s="12">
+      <c r="F48" s="11">
         <v>35338</v>
       </c>
-      <c r="G48" s="12">
+      <c r="G48" s="11">
         <v>38483</v>
       </c>
-      <c r="H48" s="12">
+      <c r="H48" s="11">
         <v>43872</v>
       </c>
-      <c r="I48" s="12">
+      <c r="I48" s="11">
         <v>56529.9</v>
       </c>
-      <c r="J48" s="8">
+      <c r="J48" s="7">
         <f>J36*0.298</f>
         <v>70483.310924385252</v>
       </c>
-      <c r="K48" s="8">
+      <c r="K48" s="7">
         <f>K36*0.296</f>
         <v>81328.128586082952</v>
       </c>
-      <c r="L48" s="8">
+      <c r="L48" s="7">
         <f>L36*0.313</f>
         <v>98052.620793127411</v>
       </c>
-      <c r="M48" s="8">
+      <c r="M48" s="7">
         <f>M36*0.305</f>
         <v>106782.74998246566</v>
       </c>
-      <c r="N48" s="8">
+      <c r="N48" s="7">
         <f>N36*0.3</f>
         <v>115022.87720734206</v>
       </c>
-      <c r="P48" s="8"/>
+      <c r="P48" s="7"/>
     </row>
     <row r="49" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E49" s="11">
+      <c r="E49" s="10">
         <f>E48/E36</f>
         <v>0.20906647219937419</v>
       </c>
-      <c r="F49" s="11">
+      <c r="F49" s="10">
         <f t="shared" ref="F49:N49" si="17">F48/F36</f>
         <v>0.30304693462768739</v>
       </c>
-      <c r="G49" s="11">
+      <c r="G49" s="10">
         <f t="shared" si="17"/>
         <v>0.28526634149234259</v>
       </c>
-      <c r="H49" s="11">
+      <c r="H49" s="10">
         <f t="shared" si="17"/>
         <v>0.26669746688469981</v>
       </c>
-      <c r="I49" s="11">
+      <c r="I49" s="10">
         <f t="shared" si="17"/>
         <v>0.2836232358264511</v>
       </c>
-      <c r="J49" s="11">
+      <c r="J49" s="10">
         <f t="shared" si="17"/>
         <v>0.29799999999999999</v>
       </c>
-      <c r="K49" s="11">
+      <c r="K49" s="10">
         <f t="shared" si="17"/>
         <v>0.29599999999999999</v>
       </c>
-      <c r="L49" s="11">
+      <c r="L49" s="10">
         <f t="shared" si="17"/>
         <v>0.313</v>
       </c>
-      <c r="M49" s="11">
+      <c r="M49" s="10">
         <f t="shared" si="17"/>
         <v>0.30499999999999999</v>
       </c>
-      <c r="N49" s="11">
+      <c r="N49" s="10">
         <f t="shared" si="17"/>
         <v>0.3</v>
       </c>
@@ -2490,80 +2341,80 @@
       <c r="B51" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E51" s="12">
+      <c r="E51" s="11">
         <v>46753</v>
       </c>
-      <c r="F51" s="12">
+      <c r="F51" s="11">
         <v>28945</v>
       </c>
-      <c r="G51" s="12">
+      <c r="G51" s="11">
         <v>46751</v>
       </c>
-      <c r="H51" s="12">
+      <c r="H51" s="11">
         <f>H42-H45-H48</f>
         <v>69381</v>
       </c>
-      <c r="I51" s="12">
+      <c r="I51" s="11">
         <v>82408</v>
       </c>
-      <c r="J51" s="8">
+      <c r="J51" s="7">
         <v>86385.2</v>
       </c>
-      <c r="K51" s="8">
+      <c r="K51" s="7">
         <v>98057</v>
       </c>
-      <c r="L51" s="8">
+      <c r="L51" s="7">
         <v>107730</v>
       </c>
-      <c r="M51" s="8">
+      <c r="M51" s="7">
         <v>127075</v>
       </c>
-      <c r="N51" s="8">
+      <c r="N51" s="7">
         <f>N36*0.37</f>
         <v>141861.54855572188</v>
       </c>
     </row>
     <row r="52" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E52" s="11">
+      <c r="E52" s="10">
         <f>E51/E36</f>
         <v>0.39645040660058173</v>
       </c>
-      <c r="F52" s="11">
+      <c r="F52" s="10">
         <f t="shared" ref="F52:N52" si="18">F51/F36</f>
         <v>0.24822269293107735</v>
       </c>
-      <c r="G52" s="11">
+      <c r="G52" s="10">
         <f t="shared" si="18"/>
         <v>0.34655527716416362</v>
       </c>
-      <c r="H52" s="11">
+      <c r="H52" s="10">
         <f t="shared" si="18"/>
         <v>0.42176643303080225</v>
       </c>
-      <c r="I52" s="11">
+      <c r="I52" s="10">
         <f t="shared" si="18"/>
         <v>0.41345948989802178</v>
       </c>
-      <c r="J52" s="11">
+      <c r="J52" s="10">
         <f t="shared" si="18"/>
         <v>0.36523241122450895</v>
       </c>
-      <c r="K52" s="11">
+      <c r="K52" s="10">
         <f t="shared" si="18"/>
         <v>0.35688601846135187</v>
       </c>
-      <c r="L52" s="11">
+      <c r="L52" s="10">
         <f t="shared" si="18"/>
         <v>0.34389177695863721</v>
       </c>
-      <c r="M52" s="11">
+      <c r="M52" s="10">
         <f t="shared" si="18"/>
         <v>0.3629600755399563</v>
       </c>
-      <c r="N52" s="11">
+      <c r="N52" s="10">
         <f t="shared" si="18"/>
         <v>0.37</v>
       </c>
@@ -2572,79 +2423,79 @@
       <c r="B54" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="12">
+      <c r="E54" s="11">
         <v>7913</v>
       </c>
-      <c r="F54" s="12">
+      <c r="F54" s="11">
         <v>5620</v>
       </c>
-      <c r="G54" s="12">
+      <c r="G54" s="11">
         <v>8331</v>
       </c>
-      <c r="H54" s="12">
+      <c r="H54" s="11">
         <v>8304</v>
       </c>
-      <c r="I54" s="12">
+      <c r="I54" s="11">
         <v>25617.9</v>
       </c>
-      <c r="J54" s="8">
+      <c r="J54" s="7">
         <v>11625.9</v>
       </c>
-      <c r="K54" s="8">
+      <c r="K54" s="7">
         <v>13516.5</v>
       </c>
-      <c r="L54" s="8">
+      <c r="L54" s="7">
         <v>16348.6</v>
       </c>
-      <c r="M54" s="8">
+      <c r="M54" s="7">
         <v>20821.7</v>
       </c>
-      <c r="N54" s="8">
+      <c r="N54" s="7">
         <f>N51*0.17</f>
         <v>24116.463254472721</v>
       </c>
     </row>
     <row r="55" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="11">
+      <c r="E55" s="10">
         <f>E54/E51</f>
         <v>0.1692511710478472</v>
       </c>
-      <c r="F55" s="11">
+      <c r="F55" s="10">
         <f t="shared" ref="F55:N55" si="19">F54/F51</f>
         <v>0.19416134047331146</v>
       </c>
-      <c r="G55" s="11">
+      <c r="G55" s="10">
         <f t="shared" si="19"/>
         <v>0.17819939680434643</v>
       </c>
-      <c r="H55" s="11">
+      <c r="H55" s="10">
         <f t="shared" si="19"/>
         <v>0.11968694599386</v>
       </c>
-      <c r="I55" s="11">
+      <c r="I55" s="10">
         <f t="shared" si="19"/>
         <v>0.31086666343073488</v>
       </c>
-      <c r="J55" s="11">
+      <c r="J55" s="10">
         <f t="shared" si="19"/>
         <v>0.13458208118983345</v>
       </c>
-      <c r="K55" s="11">
+      <c r="K55" s="10">
         <f t="shared" si="19"/>
         <v>0.13784329522624597</v>
       </c>
-      <c r="L55" s="11">
+      <c r="L55" s="10">
         <f t="shared" si="19"/>
         <v>0.15175531421145458</v>
       </c>
-      <c r="M55" s="11">
+      <c r="M55" s="10">
         <f t="shared" si="19"/>
         <v>0.16385362974621287</v>
       </c>
-      <c r="N55" s="11">
+      <c r="N55" s="10">
         <f t="shared" si="19"/>
         <v>0.17</v>
       </c>
@@ -2690,55 +2541,55 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="2:16" s="23" customFormat="1" ht="1.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="24"/>
-      <c r="C58" s="24"/>
-      <c r="D58" s="24"/>
-      <c r="E58" s="24"/>
-      <c r="F58" s="24"/>
-      <c r="G58" s="24"/>
-      <c r="H58" s="24"/>
-      <c r="I58" s="24"/>
-      <c r="J58" s="24"/>
-      <c r="K58" s="24"/>
-      <c r="L58" s="25"/>
-      <c r="M58" s="25"/>
-      <c r="N58" s="25"/>
-      <c r="O58" s="25"/>
-      <c r="P58" s="25"/>
+    <row r="58" spans="2:16" s="21" customFormat="1" ht="1.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="22"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="22"/>
+      <c r="E58" s="22"/>
+      <c r="F58" s="22"/>
+      <c r="G58" s="22"/>
+      <c r="H58" s="22"/>
+      <c r="I58" s="22"/>
+      <c r="J58" s="22"/>
+      <c r="K58" s="22"/>
+      <c r="L58" s="23"/>
+      <c r="M58" s="23"/>
+      <c r="N58" s="23"/>
+      <c r="O58" s="23"/>
+      <c r="P58" s="23"/>
     </row>
     <row r="59" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B59" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E59" s="12">
+      <c r="E59" s="11">
         <v>7966</v>
       </c>
-      <c r="F59" s="12">
+      <c r="F59" s="11">
         <v>8686</v>
       </c>
-      <c r="G59" s="12">
+      <c r="G59" s="11">
         <v>11177</v>
       </c>
-      <c r="H59" s="12">
+      <c r="H59" s="11">
         <v>15498</v>
       </c>
-      <c r="I59" s="12">
+      <c r="I59" s="11">
         <v>18902.8</v>
       </c>
-      <c r="J59" s="8">
+      <c r="J59" s="7">
         <v>28883.8</v>
       </c>
-      <c r="K59" s="8">
+      <c r="K59" s="7">
         <v>41757.199999999997</v>
       </c>
-      <c r="L59" s="8">
+      <c r="L59" s="7">
         <v>54019.5</v>
       </c>
-      <c r="M59" s="8">
+      <c r="M59" s="7">
         <v>62011.8</v>
       </c>
-      <c r="N59" s="8">
+      <c r="N59" s="7">
         <f>N63*0.45</f>
         <v>60937.707211698253</v>
       </c>
@@ -2747,43 +2598,43 @@
       <c r="B60" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E60" s="11">
+      <c r="E60" s="10">
         <f>E59/E63</f>
         <v>0.42904077126083912</v>
       </c>
-      <c r="F60" s="11">
+      <c r="F60" s="10">
         <f t="shared" ref="F60:M60" si="20">F59/F63</f>
         <v>0.27635137284846173</v>
       </c>
-      <c r="G60" s="11">
+      <c r="G60" s="10">
         <f t="shared" si="20"/>
         <v>0.4099244480305142</v>
       </c>
-      <c r="H60" s="11">
+      <c r="H60" s="10">
         <f t="shared" si="20"/>
         <v>0.41598668670818123</v>
       </c>
-      <c r="I60" s="11">
+      <c r="I60" s="10">
         <f t="shared" si="20"/>
         <v>0.26966093377309613</v>
       </c>
-      <c r="J60" s="11">
+      <c r="J60" s="10">
         <f t="shared" si="20"/>
         <v>0.26078892065937836</v>
       </c>
-      <c r="K60" s="11">
+      <c r="K60" s="10">
         <f t="shared" si="20"/>
         <v>0.34274686589833597</v>
       </c>
-      <c r="L60" s="11">
+      <c r="L60" s="10">
         <f t="shared" si="20"/>
         <v>0.4143896550336959</v>
       </c>
-      <c r="M60" s="11">
+      <c r="M60" s="10">
         <f t="shared" si="20"/>
         <v>0.44877310045478941</v>
       </c>
-      <c r="N60" s="11">
+      <c r="N60" s="10">
         <f t="shared" ref="N60" si="21">N59/N63</f>
         <v>0.45</v>
       </c>
@@ -2792,43 +2643,43 @@
       <c r="B61" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E61" s="11">
+      <c r="E61" s="10">
         <f>E59/E36</f>
         <v>6.7549118537425054E-2</v>
       </c>
-      <c r="F61" s="11">
+      <c r="F61" s="10">
         <f t="shared" ref="F61:N61" si="22">F59/F36</f>
         <v>7.44882470478265E-2</v>
       </c>
-      <c r="G61" s="11">
+      <c r="G61" s="10">
         <f t="shared" si="22"/>
         <v>8.2852737542808849E-2</v>
       </c>
-      <c r="H61" s="11">
+      <c r="H61" s="10">
         <f t="shared" si="22"/>
         <v>9.4212193238946876E-2</v>
       </c>
-      <c r="I61" s="11">
+      <c r="I61" s="10">
         <f t="shared" si="22"/>
         <v>9.4839603505052009E-2</v>
       </c>
-      <c r="J61" s="11">
+      <c r="J61" s="10">
         <f t="shared" si="22"/>
         <v>0.12211929727923848</v>
       </c>
-      <c r="K61" s="11">
+      <c r="K61" s="10">
         <f t="shared" si="22"/>
         <v>0.15197855176167291</v>
       </c>
-      <c r="L61" s="11">
+      <c r="L61" s="10">
         <f t="shared" si="22"/>
         <v>0.17243907774451964</v>
       </c>
-      <c r="M61" s="11">
+      <c r="M61" s="10">
         <f t="shared" si="22"/>
         <v>0.1771222318502354</v>
       </c>
-      <c r="N61" s="11">
+      <c r="N61" s="10">
         <f t="shared" si="22"/>
         <v>0.1589363142999396</v>
       </c>
@@ -2837,98 +2688,98 @@
       <c r="B63" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E63" s="12">
+      <c r="E63" s="11">
         <v>18567</v>
       </c>
-      <c r="F63" s="12">
+      <c r="F63" s="11">
         <v>31431</v>
       </c>
-      <c r="G63" s="12">
+      <c r="G63" s="11">
         <v>27266</v>
       </c>
-      <c r="H63" s="12">
+      <c r="H63" s="11">
         <v>37256</v>
       </c>
-      <c r="I63" s="12">
+      <c r="I63" s="11">
         <v>70098.399999999994</v>
       </c>
-      <c r="J63" s="12">
+      <c r="J63" s="11">
         <f>I63*1.58</f>
         <v>110755.47199999999</v>
       </c>
-      <c r="K63" s="12">
+      <c r="K63" s="11">
         <f>J63*1.1</f>
         <v>121831.01920000001</v>
       </c>
-      <c r="L63" s="8">
+      <c r="L63" s="7">
         <f>K63*1.07</f>
         <v>130359.19054400001</v>
       </c>
-      <c r="M63" s="8">
+      <c r="M63" s="7">
         <f>L63*1.06</f>
         <v>138180.74197664001</v>
       </c>
-      <c r="N63" s="8">
+      <c r="N63" s="7">
         <f>M63*0.98</f>
         <v>135417.12713710722</v>
       </c>
     </row>
     <row r="64" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E64" s="12"/>
-      <c r="F64" s="12"/>
-      <c r="G64" s="12"/>
-      <c r="H64" s="12"/>
-      <c r="I64" s="12"/>
-      <c r="J64" s="12"/>
-      <c r="K64" s="12"/>
-      <c r="L64" s="8"/>
-      <c r="M64" s="8"/>
-      <c r="N64" s="8"/>
+        <v>67</v>
+      </c>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="11"/>
+      <c r="I64" s="11"/>
+      <c r="J64" s="11"/>
+      <c r="K64" s="11"/>
+      <c r="L64" s="7"/>
+      <c r="M64" s="7"/>
+      <c r="N64" s="7"/>
     </row>
     <row r="66" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B66" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E66" s="13">
+      <c r="E66" s="12">
         <f>0.7*1000</f>
         <v>700</v>
       </c>
-      <c r="F66" s="13">
+      <c r="F66" s="12">
         <f>5.68*1000</f>
         <v>5680</v>
       </c>
-      <c r="G66" s="13">
+      <c r="G66" s="12">
         <f>3.84*1000</f>
         <v>3840</v>
       </c>
-      <c r="H66" s="13">
+      <c r="H66" s="12">
         <f>1.05*1000</f>
         <v>1050</v>
       </c>
-      <c r="I66" s="13">
+      <c r="I66" s="12">
         <f>-3.05*1000</f>
         <v>-3050</v>
       </c>
-      <c r="J66" s="13">
+      <c r="J66" s="12">
         <f>I66*0.5</f>
         <v>-1525</v>
       </c>
-      <c r="K66" s="13">
+      <c r="K66" s="12">
         <f>J66*0.33</f>
         <v>-503.25</v>
       </c>
-      <c r="L66" s="13">
+      <c r="L66" s="12">
         <f>K66*-1</f>
         <v>503.25</v>
       </c>
-      <c r="M66" s="13">
+      <c r="M66" s="12">
         <f>L66*2.4</f>
         <v>1207.8</v>
       </c>
-      <c r="N66" s="13">
+      <c r="N66" s="12">
         <f>M66*1.25</f>
         <v>1509.75</v>
       </c>
@@ -2937,43 +2788,43 @@
       <c r="B67" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E67" s="11">
+      <c r="E67" s="10">
         <f>E66/E59</f>
         <v>8.7873462214411252E-2</v>
       </c>
-      <c r="F67" s="11">
+      <c r="F67" s="10">
         <f t="shared" ref="F67:N67" si="23">F66/F59</f>
         <v>0.65392585770204925</v>
       </c>
-      <c r="G67" s="11">
+      <c r="G67" s="10">
         <f t="shared" si="23"/>
         <v>0.34356267334705198</v>
       </c>
-      <c r="H67" s="11">
+      <c r="H67" s="10">
         <f t="shared" si="23"/>
         <v>6.7750677506775062E-2</v>
       </c>
-      <c r="I67" s="11">
+      <c r="I67" s="10">
         <f t="shared" si="23"/>
         <v>-0.1613517574116004</v>
       </c>
-      <c r="J67" s="11">
+      <c r="J67" s="10">
         <f t="shared" si="23"/>
         <v>-5.279776206731801E-2</v>
       </c>
-      <c r="K67" s="11">
+      <c r="K67" s="10">
         <f t="shared" si="23"/>
         <v>-1.2051813818934221E-2</v>
       </c>
-      <c r="L67" s="11">
+      <c r="L67" s="10">
         <f t="shared" si="23"/>
         <v>9.3160803043345463E-3</v>
       </c>
-      <c r="M67" s="11">
+      <c r="M67" s="10">
         <f t="shared" si="23"/>
         <v>1.9476938260137584E-2</v>
       </c>
-      <c r="N67" s="11">
+      <c r="N67" s="10">
         <f t="shared" si="23"/>
         <v>2.4775300369525098E-2</v>
       </c>
@@ -2982,16 +2833,16 @@
       <c r="B68" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
-      <c r="G68" s="14"/>
-      <c r="H68" s="14"/>
-      <c r="I68" s="14"/>
-      <c r="J68" s="14"/>
-      <c r="K68" s="14"/>
-      <c r="L68" s="14"/>
-      <c r="M68" s="14"/>
-      <c r="N68" s="14"/>
+      <c r="E68" s="13"/>
+      <c r="F68" s="13"/>
+      <c r="G68" s="13"/>
+      <c r="H68" s="13"/>
+      <c r="I68" s="13"/>
+      <c r="J68" s="13"/>
+      <c r="K68" s="13"/>
+      <c r="L68" s="13"/>
+      <c r="M68" s="13"/>
+      <c r="N68" s="13"/>
     </row>
     <row r="70" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B70" s="2" t="s">
@@ -3038,276 +2889,276 @@
       <c r="B71" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E71" s="8">
+      <c r="E71" s="7">
         <f>E36</f>
         <v>117929</v>
       </c>
-      <c r="F71" s="8">
+      <c r="F71" s="7">
         <f t="shared" ref="F71:N71" si="24">F36</f>
         <v>116609</v>
       </c>
-      <c r="G71" s="8">
+      <c r="G71" s="7">
         <f t="shared" si="24"/>
         <v>134902</v>
       </c>
-      <c r="H71" s="8">
+      <c r="H71" s="7">
         <f t="shared" si="24"/>
         <v>164501</v>
       </c>
-      <c r="I71" s="8">
+      <c r="I71" s="7">
         <f t="shared" si="24"/>
         <v>199313.35962399998</v>
       </c>
-      <c r="J71" s="8">
+      <c r="J71" s="7">
         <f t="shared" si="24"/>
         <v>236521.17759860822</v>
       </c>
-      <c r="K71" s="8">
+      <c r="K71" s="7">
         <f t="shared" si="24"/>
         <v>274757.19116919918</v>
       </c>
-      <c r="L71" s="8">
+      <c r="L71" s="7">
         <f t="shared" si="24"/>
         <v>313267.15908347414</v>
       </c>
-      <c r="M71" s="8">
+      <c r="M71" s="7">
         <f t="shared" si="24"/>
         <v>350107.37699169066</v>
       </c>
-      <c r="N71" s="8">
+      <c r="N71" s="7">
         <f t="shared" si="24"/>
         <v>383409.59069114021</v>
       </c>
     </row>
     <row r="72" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="5" t="s">
+      <c r="B72" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C72" s="5"/>
-      <c r="D72" s="5"/>
-      <c r="E72" s="11">
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="10">
         <f>E37</f>
         <v>0.37182574303495608</v>
       </c>
-      <c r="F72" s="11">
+      <c r="F72" s="10">
         <f t="shared" ref="F72:N72" si="25">F37</f>
         <v>-1.1193175554782962E-2</v>
       </c>
-      <c r="G72" s="11">
+      <c r="G72" s="10">
         <f t="shared" si="25"/>
         <v>0.15687468377226457</v>
       </c>
-      <c r="H72" s="11">
+      <c r="H72" s="10">
         <f t="shared" si="25"/>
         <v>0.21941112807816043</v>
       </c>
-      <c r="I72" s="11">
+      <c r="I72" s="10">
         <f t="shared" si="25"/>
         <v>0.21162399999999984</v>
       </c>
-      <c r="J72" s="11">
+      <c r="J72" s="10">
         <f t="shared" si="25"/>
         <v>0.18667999999999965</v>
       </c>
-      <c r="K72" s="11">
+      <c r="K72" s="10">
         <f t="shared" si="25"/>
         <v>0.16165999999999983</v>
       </c>
-      <c r="L72" s="11">
+      <c r="L72" s="10">
         <f t="shared" si="25"/>
         <v>0.14015999999999998</v>
       </c>
-      <c r="M72" s="11">
+      <c r="M72" s="10">
         <f t="shared" si="25"/>
         <v>0.11759999999999989</v>
       </c>
-      <c r="N72" s="11">
+      <c r="N72" s="10">
         <f t="shared" si="25"/>
         <v>9.5119999999999816E-2</v>
       </c>
     </row>
     <row r="73" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E73" s="8"/>
-      <c r="F73" s="8"/>
-      <c r="G73" s="8"/>
-      <c r="H73" s="8"/>
-      <c r="I73" s="8"/>
-      <c r="J73" s="8"/>
-      <c r="K73" s="8"/>
-      <c r="L73" s="8"/>
-      <c r="M73" s="8"/>
-      <c r="N73" s="8"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
+      <c r="I73" s="7"/>
+      <c r="J73" s="7"/>
+      <c r="K73" s="7"/>
+      <c r="L73" s="7"/>
+      <c r="M73" s="7"/>
+      <c r="N73" s="7"/>
     </row>
     <row r="74" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B74" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E74" s="8" cm="1">
+      <c r="E74" s="7" cm="1">
         <f t="array" ref="E74:N74">E51:N51</f>
         <v>46753</v>
       </c>
-      <c r="F74" s="8">
+      <c r="F74" s="7">
         <v>28945</v>
       </c>
-      <c r="G74" s="8">
+      <c r="G74" s="7">
         <v>46751</v>
       </c>
-      <c r="H74" s="8">
+      <c r="H74" s="7">
         <v>69381</v>
       </c>
-      <c r="I74" s="8">
+      <c r="I74" s="7">
         <v>82408</v>
       </c>
-      <c r="J74" s="8">
+      <c r="J74" s="7">
         <v>86385.2</v>
       </c>
-      <c r="K74" s="8">
+      <c r="K74" s="7">
         <v>98057</v>
       </c>
-      <c r="L74" s="8">
+      <c r="L74" s="7">
         <v>107730</v>
       </c>
-      <c r="M74" s="8">
+      <c r="M74" s="7">
         <v>127075</v>
       </c>
-      <c r="N74" s="8">
+      <c r="N74" s="7">
         <v>141861.54855572188</v>
       </c>
     </row>
     <row r="75" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="5" t="s">
+      <c r="B75" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C75" s="5"/>
-      <c r="D75" s="5"/>
-      <c r="E75" s="11">
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="10">
         <f>E74/E71</f>
         <v>0.39645040660058173</v>
       </c>
-      <c r="F75" s="11">
+      <c r="F75" s="10">
         <f t="shared" ref="F75:N75" si="26">F74/F71</f>
         <v>0.24822269293107735</v>
       </c>
-      <c r="G75" s="11">
+      <c r="G75" s="10">
         <f t="shared" si="26"/>
         <v>0.34655527716416362</v>
       </c>
-      <c r="H75" s="11">
+      <c r="H75" s="10">
         <f t="shared" si="26"/>
         <v>0.42176643303080225</v>
       </c>
-      <c r="I75" s="11">
+      <c r="I75" s="10">
         <f t="shared" si="26"/>
         <v>0.41345948989802178</v>
       </c>
-      <c r="J75" s="11">
+      <c r="J75" s="10">
         <f t="shared" si="26"/>
         <v>0.36523241122450895</v>
       </c>
-      <c r="K75" s="11">
+      <c r="K75" s="10">
         <f t="shared" si="26"/>
         <v>0.35688601846135187</v>
       </c>
-      <c r="L75" s="11">
+      <c r="L75" s="10">
         <f t="shared" si="26"/>
         <v>0.34389177695863721</v>
       </c>
-      <c r="M75" s="11">
+      <c r="M75" s="10">
         <f t="shared" si="26"/>
         <v>0.3629600755399563</v>
       </c>
-      <c r="N75" s="11">
+      <c r="N75" s="10">
         <f t="shared" si="26"/>
         <v>0.37</v>
       </c>
     </row>
     <row r="76" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J76" s="8"/>
-      <c r="K76" s="8"/>
-      <c r="L76" s="8"/>
-      <c r="M76" s="8"/>
-      <c r="N76" s="8"/>
+      <c r="J76" s="7"/>
+      <c r="K76" s="7"/>
+      <c r="L76" s="7"/>
+      <c r="M76" s="7"/>
+      <c r="N76" s="7"/>
     </row>
     <row r="77" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B77" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E77" s="8" cm="1">
+      <c r="E77" s="7" cm="1">
         <f t="array" ref="E77:M77">E54:M54</f>
         <v>7913</v>
       </c>
-      <c r="F77" s="8">
+      <c r="F77" s="7">
         <v>5620</v>
       </c>
-      <c r="G77" s="8">
+      <c r="G77" s="7">
         <v>8331</v>
       </c>
-      <c r="H77" s="8">
+      <c r="H77" s="7">
         <v>8304</v>
       </c>
-      <c r="I77" s="8">
+      <c r="I77" s="7">
         <v>25617.9</v>
       </c>
-      <c r="J77" s="8">
+      <c r="J77" s="7">
         <v>11625.9</v>
       </c>
-      <c r="K77" s="8">
+      <c r="K77" s="7">
         <v>13516.5</v>
       </c>
-      <c r="L77" s="8">
+      <c r="L77" s="7">
         <v>16348.6</v>
       </c>
-      <c r="M77" s="8">
+      <c r="M77" s="7">
         <v>20821.7</v>
       </c>
-      <c r="N77" s="8">
+      <c r="N77" s="7">
         <f>N54</f>
         <v>24116.463254472721</v>
       </c>
     </row>
     <row r="78" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="5" t="s">
+      <c r="B78" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C78" s="5"/>
-      <c r="D78" s="5"/>
-      <c r="E78" s="11">
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="10">
         <f>E55</f>
         <v>0.1692511710478472</v>
       </c>
-      <c r="F78" s="11">
+      <c r="F78" s="10">
         <f t="shared" ref="F78:N78" si="27">F55</f>
         <v>0.19416134047331146</v>
       </c>
-      <c r="G78" s="11">
+      <c r="G78" s="10">
         <f t="shared" si="27"/>
         <v>0.17819939680434643</v>
       </c>
-      <c r="H78" s="11">
+      <c r="H78" s="10">
         <f t="shared" si="27"/>
         <v>0.11968694599386</v>
       </c>
-      <c r="I78" s="11">
+      <c r="I78" s="10">
         <f t="shared" si="27"/>
         <v>0.31086666343073488</v>
       </c>
-      <c r="J78" s="11">
+      <c r="J78" s="10">
         <f t="shared" si="27"/>
         <v>0.13458208118983345</v>
       </c>
-      <c r="K78" s="11">
+      <c r="K78" s="10">
         <f t="shared" si="27"/>
         <v>0.13784329522624597</v>
       </c>
-      <c r="L78" s="11">
+      <c r="L78" s="10">
         <f t="shared" si="27"/>
         <v>0.15175531421145458</v>
       </c>
-      <c r="M78" s="11">
+      <c r="M78" s="10">
         <f t="shared" si="27"/>
         <v>0.16385362974621287</v>
       </c>
-      <c r="N78" s="11">
+      <c r="N78" s="10">
         <f t="shared" si="27"/>
         <v>0.17</v>
       </c>
@@ -3316,43 +3167,43 @@
       <c r="B80" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E80" s="8">
+      <c r="E80" s="7">
         <f>E74-E77</f>
         <v>38840</v>
       </c>
-      <c r="F80" s="8">
+      <c r="F80" s="7">
         <f t="shared" ref="F80:N80" si="28">F74-F77</f>
         <v>23325</v>
       </c>
-      <c r="G80" s="8">
+      <c r="G80" s="7">
         <f t="shared" si="28"/>
         <v>38420</v>
       </c>
-      <c r="H80" s="8">
+      <c r="H80" s="7">
         <f t="shared" si="28"/>
         <v>61077</v>
       </c>
-      <c r="I80" s="8">
+      <c r="I80" s="7">
         <f t="shared" si="28"/>
         <v>56790.1</v>
       </c>
-      <c r="J80" s="8">
+      <c r="J80" s="7">
         <f t="shared" si="28"/>
         <v>74759.3</v>
       </c>
-      <c r="K80" s="8">
+      <c r="K80" s="7">
         <f t="shared" si="28"/>
         <v>84540.5</v>
       </c>
-      <c r="L80" s="8">
+      <c r="L80" s="7">
         <f t="shared" si="28"/>
         <v>91381.4</v>
       </c>
-      <c r="M80" s="8">
+      <c r="M80" s="7">
         <f t="shared" si="28"/>
         <v>106253.3</v>
       </c>
-      <c r="N80" s="8">
+      <c r="N80" s="7">
         <f t="shared" si="28"/>
         <v>117745.08530124916</v>
       </c>
@@ -3361,90 +3212,90 @@
       <c r="B82" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E82" s="8">
+      <c r="E82" s="7">
         <f>E59</f>
         <v>7966</v>
       </c>
-      <c r="F82" s="8">
+      <c r="F82" s="7">
         <f t="shared" ref="F82:N82" si="29">F59</f>
         <v>8686</v>
       </c>
-      <c r="G82" s="8">
+      <c r="G82" s="7">
         <f t="shared" si="29"/>
         <v>11177</v>
       </c>
-      <c r="H82" s="8">
+      <c r="H82" s="7">
         <f t="shared" si="29"/>
         <v>15498</v>
       </c>
-      <c r="I82" s="8">
+      <c r="I82" s="7">
         <f t="shared" si="29"/>
         <v>18902.8</v>
       </c>
-      <c r="J82" s="8">
+      <c r="J82" s="7">
         <f t="shared" si="29"/>
         <v>28883.8</v>
       </c>
-      <c r="K82" s="8">
+      <c r="K82" s="7">
         <f t="shared" si="29"/>
         <v>41757.199999999997</v>
       </c>
-      <c r="L82" s="8">
+      <c r="L82" s="7">
         <f t="shared" si="29"/>
         <v>54019.5</v>
       </c>
-      <c r="M82" s="8">
+      <c r="M82" s="7">
         <f t="shared" si="29"/>
         <v>62011.8</v>
       </c>
-      <c r="N82" s="8">
+      <c r="N82" s="7">
         <f t="shared" si="29"/>
         <v>60937.707211698253</v>
       </c>
     </row>
     <row r="83" spans="2:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="5" t="s">
+      <c r="B83" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C83" s="5"/>
-      <c r="D83" s="5"/>
-      <c r="E83" s="11">
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="10">
         <f>E82/E71</f>
         <v>6.7549118537425054E-2</v>
       </c>
-      <c r="F83" s="11">
+      <c r="F83" s="10">
         <f t="shared" ref="F83:N83" si="30">F82/F71</f>
         <v>7.44882470478265E-2</v>
       </c>
-      <c r="G83" s="11">
+      <c r="G83" s="10">
         <f t="shared" si="30"/>
         <v>8.2852737542808849E-2</v>
       </c>
-      <c r="H83" s="11">
+      <c r="H83" s="10">
         <f t="shared" si="30"/>
         <v>9.4212193238946876E-2</v>
       </c>
-      <c r="I83" s="11">
+      <c r="I83" s="10">
         <f t="shared" si="30"/>
         <v>9.4839603505052009E-2</v>
       </c>
-      <c r="J83" s="11">
+      <c r="J83" s="10">
         <f t="shared" si="30"/>
         <v>0.12211929727923848</v>
       </c>
-      <c r="K83" s="11">
+      <c r="K83" s="10">
         <f t="shared" si="30"/>
         <v>0.15197855176167291</v>
       </c>
-      <c r="L83" s="11">
+      <c r="L83" s="10">
         <f t="shared" si="30"/>
         <v>0.17243907774451964</v>
       </c>
-      <c r="M83" s="11">
+      <c r="M83" s="10">
         <f t="shared" si="30"/>
         <v>0.1771222318502354</v>
       </c>
-      <c r="N83" s="11">
+      <c r="N83" s="10">
         <f t="shared" si="30"/>
         <v>0.1589363142999396</v>
       </c>
@@ -3453,91 +3304,91 @@
       <c r="B85" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E85" s="8">
+      <c r="E85" s="7">
         <f>E63</f>
         <v>18567</v>
       </c>
-      <c r="F85" s="8">
+      <c r="F85" s="7">
         <f t="shared" ref="F85:N85" si="31">F63</f>
         <v>31431</v>
       </c>
-      <c r="G85" s="8">
+      <c r="G85" s="7">
         <f t="shared" si="31"/>
         <v>27266</v>
       </c>
-      <c r="H85" s="8">
+      <c r="H85" s="7">
         <f t="shared" si="31"/>
         <v>37256</v>
       </c>
-      <c r="I85" s="8">
+      <c r="I85" s="7">
         <f t="shared" si="31"/>
         <v>70098.399999999994</v>
       </c>
-      <c r="J85" s="8">
+      <c r="J85" s="7">
         <f t="shared" si="31"/>
         <v>110755.47199999999</v>
       </c>
-      <c r="K85" s="8">
+      <c r="K85" s="7">
         <f t="shared" si="31"/>
         <v>121831.01920000001</v>
       </c>
-      <c r="L85" s="8">
+      <c r="L85" s="7">
         <f t="shared" si="31"/>
         <v>130359.19054400001</v>
       </c>
-      <c r="M85" s="8">
+      <c r="M85" s="7">
         <f t="shared" si="31"/>
         <v>138180.74197664001</v>
       </c>
-      <c r="N85" s="8">
+      <c r="N85" s="7">
         <f t="shared" si="31"/>
         <v>135417.12713710722</v>
       </c>
-      <c r="Q85" s="8"/>
+      <c r="Q85" s="7"/>
     </row>
     <row r="86" spans="2:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="5" t="s">
+      <c r="B86" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C86" s="5"/>
-      <c r="D86" s="5"/>
-      <c r="E86" s="11">
+      <c r="C86" s="4"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="10">
         <f>E85/E71</f>
         <v>0.15744218979216307</v>
       </c>
-      <c r="F86" s="11">
+      <c r="F86" s="10">
         <f t="shared" ref="F86:N86" si="32">F85/F71</f>
         <v>0.26954180209074774</v>
       </c>
-      <c r="G86" s="11">
+      <c r="G86" s="10">
         <f t="shared" si="32"/>
         <v>0.20211709240782197</v>
       </c>
-      <c r="H86" s="11">
+      <c r="H86" s="10">
         <f t="shared" si="32"/>
         <v>0.22647886638986997</v>
       </c>
-      <c r="I86" s="11">
+      <c r="I86" s="10">
         <f t="shared" si="32"/>
         <v>0.35169945523089369</v>
       </c>
-      <c r="J86" s="11">
+      <c r="J86" s="10">
         <f t="shared" si="32"/>
         <v>0.46826873231605171</v>
       </c>
-      <c r="K86" s="11">
+      <c r="K86" s="10">
         <f t="shared" si="32"/>
         <v>0.4434133959572138</v>
       </c>
-      <c r="L86" s="11">
+      <c r="L86" s="10">
         <f t="shared" si="32"/>
         <v>0.4161278536996727</v>
       </c>
-      <c r="M86" s="11">
+      <c r="M86" s="10">
         <f t="shared" si="32"/>
         <v>0.39468103518401315</v>
       </c>
-      <c r="N86" s="11">
+      <c r="N86" s="10">
         <f t="shared" si="32"/>
         <v>0.35319180955542129</v>
       </c>
@@ -3546,192 +3397,192 @@
       <c r="B88" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E88" s="13">
+      <c r="E88" s="12">
         <f>0.7*1000</f>
         <v>700</v>
       </c>
-      <c r="F88" s="13">
+      <c r="F88" s="12">
         <f>5.68*1000</f>
         <v>5680</v>
       </c>
-      <c r="G88" s="13">
+      <c r="G88" s="12">
         <f>3.84*1000</f>
         <v>3840</v>
       </c>
-      <c r="H88" s="13">
+      <c r="H88" s="12">
         <f>1.05*1000</f>
         <v>1050</v>
       </c>
-      <c r="I88" s="13">
+      <c r="I88" s="12">
         <f>-3.05*1000</f>
         <v>-3050</v>
       </c>
-      <c r="J88" s="13">
+      <c r="J88" s="12">
         <f>I88*0.5</f>
         <v>-1525</v>
       </c>
-      <c r="K88" s="13">
+      <c r="K88" s="12">
         <f>J88*0.33</f>
         <v>-503.25</v>
       </c>
-      <c r="L88" s="13">
+      <c r="L88" s="12">
         <f>K88*-1</f>
         <v>503.25</v>
       </c>
-      <c r="M88" s="13">
+      <c r="M88" s="12">
         <f>L88*2.4</f>
         <v>1207.8</v>
       </c>
-      <c r="N88" s="13">
+      <c r="N88" s="12">
         <f>M88*1.25</f>
         <v>1509.75</v>
       </c>
     </row>
     <row r="89" spans="2:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="5" t="s">
+      <c r="B89" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C89" s="5"/>
-      <c r="D89" s="5"/>
-      <c r="E89" s="11">
+      <c r="C89" s="4"/>
+      <c r="D89" s="4"/>
+      <c r="E89" s="10">
         <f>E88/E71</f>
         <v>5.9357749154152076E-3</v>
       </c>
-      <c r="F89" s="11">
+      <c r="F89" s="10">
         <f t="shared" ref="F89:N89" si="33">F88/F71</f>
         <v>4.8709790839472085E-2</v>
       </c>
-      <c r="G89" s="11">
+      <c r="G89" s="10">
         <f t="shared" si="33"/>
         <v>2.8465108004329068E-2</v>
       </c>
-      <c r="H89" s="11">
+      <c r="H89" s="10">
         <f t="shared" si="33"/>
         <v>6.3829399213378643E-3</v>
       </c>
-      <c r="I89" s="11">
+      <c r="I89" s="10">
         <f t="shared" si="33"/>
         <v>-1.5302536697759519E-2</v>
       </c>
-      <c r="J89" s="11">
+      <c r="J89" s="10">
         <f t="shared" si="33"/>
         <v>-6.4476256015773099E-3</v>
       </c>
-      <c r="K89" s="11">
+      <c r="K89" s="10">
         <f t="shared" si="33"/>
         <v>-1.8316172103029394E-3</v>
       </c>
-      <c r="L89" s="11">
+      <c r="L89" s="10">
         <f t="shared" si="33"/>
         <v>1.606456295873333E-3</v>
       </c>
-      <c r="M89" s="11">
+      <c r="M89" s="10">
         <f t="shared" si="33"/>
         <v>3.4497987742448098E-3</v>
       </c>
-      <c r="N89" s="11">
+      <c r="N89" s="10">
         <f t="shared" si="33"/>
         <v>3.9376949264062506E-3</v>
       </c>
     </row>
     <row r="90" spans="2:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="5"/>
-      <c r="C90" s="5"/>
-      <c r="D90" s="5"/>
-      <c r="E90" s="11"/>
-      <c r="F90" s="11"/>
-      <c r="G90" s="11"/>
-      <c r="H90" s="11"/>
-      <c r="I90" s="11"/>
-      <c r="J90" s="11"/>
-      <c r="K90" s="11"/>
-      <c r="L90" s="11"/>
-      <c r="M90" s="11"/>
-      <c r="N90" s="11"/>
+      <c r="B90" s="4"/>
+      <c r="C90" s="4"/>
+      <c r="D90" s="4"/>
+      <c r="E90" s="10"/>
+      <c r="F90" s="10"/>
+      <c r="G90" s="10"/>
+      <c r="H90" s="10"/>
+      <c r="I90" s="10"/>
+      <c r="J90" s="10"/>
+      <c r="K90" s="10"/>
+      <c r="L90" s="10"/>
+      <c r="M90" s="10"/>
+      <c r="N90" s="10"/>
     </row>
     <row r="91" spans="2:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B91" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E91" s="13">
+        <v>73</v>
+      </c>
+      <c r="E91" s="12">
         <v>9160</v>
       </c>
-      <c r="F91" s="13">
+      <c r="F91" s="12">
         <v>11992</v>
       </c>
-      <c r="G91" s="13">
+      <c r="G91" s="12">
         <v>14030</v>
       </c>
-      <c r="H91" s="13">
+      <c r="H91" s="12">
         <v>15140</v>
       </c>
-      <c r="I91" s="13">
+      <c r="I91" s="12">
         <v>20000</v>
       </c>
-      <c r="J91" s="13">
+      <c r="J91" s="12">
         <f>J71*0.11</f>
         <v>26017.329535846904</v>
       </c>
-      <c r="K91" s="13">
+      <c r="K91" s="12">
         <f>K71*0.11</f>
         <v>30223.291028611911</v>
       </c>
-      <c r="L91" s="13">
+      <c r="L91" s="12">
         <f>L71*0.105</f>
         <v>32893.051703764781</v>
       </c>
-      <c r="M91" s="13">
+      <c r="M91" s="12">
         <f t="shared" ref="M91:N91" si="34">M71*0.105</f>
         <v>36761.274584127517</v>
       </c>
-      <c r="N91" s="13">
+      <c r="N91" s="12">
         <f t="shared" si="34"/>
         <v>40258.00702256972</v>
       </c>
     </row>
     <row r="92" spans="2:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="5" t="s">
+      <c r="B92" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C92" s="5"/>
-      <c r="D92" s="5"/>
-      <c r="E92" s="11">
+      <c r="C92" s="4"/>
+      <c r="D92" s="4"/>
+      <c r="E92" s="10">
         <f>E91/E71</f>
         <v>7.7673854607433285E-2</v>
       </c>
-      <c r="F92" s="11">
+      <c r="F92" s="10">
         <f t="shared" ref="F92:J92" si="35">F91/F71</f>
         <v>0.10283940347657557</v>
       </c>
-      <c r="G92" s="11">
+      <c r="G92" s="10">
         <f t="shared" si="35"/>
         <v>0.10400142325540021</v>
       </c>
-      <c r="H92" s="11">
+      <c r="H92" s="10">
         <f t="shared" si="35"/>
         <v>9.2035914675290723E-2</v>
       </c>
-      <c r="I92" s="11">
+      <c r="I92" s="10">
         <f t="shared" si="35"/>
         <v>0.100344502936128</v>
       </c>
-      <c r="J92" s="11">
+      <c r="J92" s="10">
         <f t="shared" si="35"/>
         <v>0.11</v>
       </c>
-      <c r="K92" s="11">
+      <c r="K92" s="10">
         <f t="shared" ref="K92" si="36">K91/K71</f>
         <v>0.11</v>
       </c>
-      <c r="L92" s="11">
+      <c r="L92" s="10">
         <f t="shared" ref="L92" si="37">L91/L71</f>
         <v>0.10499999999999998</v>
       </c>
-      <c r="M92" s="11">
+      <c r="M92" s="10">
         <f t="shared" ref="M92" si="38">M91/M71</f>
         <v>0.105</v>
       </c>
-      <c r="N92" s="11">
+      <c r="N92" s="10">
         <f t="shared" ref="N92" si="39">N91/N71</f>
         <v>0.105</v>
       </c>
@@ -3740,140 +3591,140 @@
       <c r="B94" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E94" s="12">
+      <c r="E94" s="11">
         <v>39116</v>
       </c>
-      <c r="F94" s="12">
+      <c r="F94" s="11">
         <v>18439</v>
       </c>
-      <c r="G94" s="12">
+      <c r="G94" s="11">
         <v>43010</v>
       </c>
-      <c r="H94" s="12">
+      <c r="H94" s="11">
         <v>52103</v>
       </c>
-      <c r="I94" s="8">
+      <c r="I94" s="7">
         <f>I80+I82-I85+I88+I91</f>
         <v>22544.5</v>
       </c>
-      <c r="J94" s="8">
+      <c r="J94" s="7">
         <f t="shared" ref="J94:N94" si="40">J80+J82-J85+J88+J91</f>
         <v>17379.957535846916</v>
       </c>
-      <c r="K94" s="8">
+      <c r="K94" s="7">
         <f t="shared" si="40"/>
         <v>34186.721828611902</v>
       </c>
-      <c r="L94" s="8">
+      <c r="L94" s="7">
         <f t="shared" si="40"/>
         <v>48438.011159764763</v>
       </c>
-      <c r="M94" s="8">
+      <c r="M94" s="7">
         <f t="shared" si="40"/>
         <v>68053.432607487513</v>
       </c>
-      <c r="N94" s="8">
+      <c r="N94" s="7">
         <f t="shared" si="40"/>
         <v>85033.422398409894</v>
       </c>
-      <c r="O94" s="8"/>
-      <c r="P94" s="8"/>
-      <c r="Q94" s="8"/>
-      <c r="R94" s="8"/>
-      <c r="S94" s="8"/>
-      <c r="T94" s="8"/>
-      <c r="U94" s="8"/>
-      <c r="V94" s="8"/>
-      <c r="W94" s="8"/>
-      <c r="X94" s="8"/>
+      <c r="O94" s="7"/>
+      <c r="P94" s="7"/>
+      <c r="Q94" s="7"/>
+      <c r="R94" s="7"/>
+      <c r="S94" s="7"/>
+      <c r="T94" s="7"/>
+      <c r="U94" s="7"/>
+      <c r="V94" s="7"/>
+      <c r="W94" s="7"/>
+      <c r="X94" s="7"/>
     </row>
     <row r="95" spans="2:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="5" t="s">
+      <c r="B95" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C95" s="5"/>
-      <c r="D95" s="5"/>
-      <c r="E95" s="11">
+      <c r="C95" s="4"/>
+      <c r="D95" s="4"/>
+      <c r="E95" s="10">
         <f>E94/E71</f>
         <v>0.33169110227340182</v>
       </c>
-      <c r="F95" s="11">
+      <c r="F95" s="10">
         <f t="shared" ref="F95:N95" si="41">F94/F71</f>
         <v>0.15812673121285664</v>
       </c>
-      <c r="G95" s="11">
+      <c r="G95" s="10">
         <f t="shared" si="41"/>
         <v>0.31882403522557118</v>
       </c>
-      <c r="H95" s="11">
+      <c r="H95" s="10">
         <f t="shared" si="41"/>
         <v>0.31673363687758738</v>
       </c>
-      <c r="I95" s="11">
+      <c r="I95" s="10">
         <f t="shared" si="41"/>
         <v>0.11311083232217688</v>
       </c>
-      <c r="J95" s="11">
+      <c r="J95" s="10">
         <f t="shared" si="41"/>
         <v>7.3481612565542989E-2</v>
       </c>
-      <c r="K95" s="11">
+      <c r="K95" s="10">
         <f t="shared" si="41"/>
         <v>0.12442521225062043</v>
       </c>
-      <c r="L95" s="11">
+      <c r="L95" s="10">
         <f t="shared" si="41"/>
         <v>0.15462205263226403</v>
       </c>
-      <c r="M95" s="11">
+      <c r="M95" s="10">
         <f t="shared" si="41"/>
         <v>0.19437874515024192</v>
       </c>
-      <c r="N95" s="11">
+      <c r="N95" s="10">
         <f t="shared" si="41"/>
         <v>0.2217821996709245</v>
       </c>
     </row>
     <row r="96" spans="2:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="V96" s="29"/>
+      <c r="V96" s="26"/>
     </row>
     <row r="97" spans="2:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B97" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I97" s="8">
+      <c r="I97" s="7">
         <f>I94</f>
         <v>22544.5</v>
       </c>
-      <c r="J97" s="8">
+      <c r="J97" s="7">
         <f>J94/(1+$U$7)^1</f>
         <v>15817.216541542515</v>
       </c>
-      <c r="K97" s="8">
+      <c r="K97" s="7">
         <f>K94/(1+$U$7)^2</f>
         <v>28315.234109689562</v>
       </c>
-      <c r="L97" s="8">
+      <c r="L97" s="7">
         <f>L94/(1+$U$7)^3</f>
         <v>36511.556770270668</v>
       </c>
-      <c r="M97" s="8">
+      <c r="M97" s="7">
         <f>M94/(1+$U$7)^4</f>
         <v>46684.792502691751</v>
       </c>
-      <c r="N97" s="8">
+      <c r="N97" s="7">
         <f>N94/(1+$U$7)^5</f>
         <v>53088.004973806703</v>
       </c>
-      <c r="V97" s="8"/>
+      <c r="V97" s="7"/>
     </row>
     <row r="99" spans="2:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H99" s="28"/>
-      <c r="J99" s="8"/>
-      <c r="K99" s="8"/>
+      <c r="H99" s="25"/>
+      <c r="J99" s="7"/>
+      <c r="K99" s="7"/>
     </row>
     <row r="105" spans="2:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J105" s="13"/>
+      <c r="J105" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3893,11 +3744,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50D755C1-F80B-4C2F-AFEE-9D4756B0A66A}">
-  <dimension ref="A2:T56"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50D755C1-F80B-4C2F-AFEE-9D4756B0A66A}">
+  <dimension ref="A5:A47"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3910,1385 +3761,12 @@
     <col min="15" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2">
-        <v>2021</v>
-      </c>
-      <c r="H4" s="2">
-        <f>G4+1</f>
-        <v>2022</v>
-      </c>
-      <c r="I4" s="2">
-        <f>H4+1</f>
-        <v>2023</v>
-      </c>
-      <c r="J4" s="2">
-        <f>I4+1</f>
-        <v>2024</v>
-      </c>
-      <c r="K4" s="2">
-        <f>J4+1</f>
-        <v>2025</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="S4" s="12"/>
-    </row>
-    <row r="5" spans="1:20" s="23" customFormat="1" ht="1.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="25"/>
-    </row>
-    <row r="6" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G6" s="12">
-        <v>53915</v>
-      </c>
-      <c r="H6" s="12">
-        <v>63364</v>
-      </c>
-      <c r="I6" s="12">
-        <v>94151</v>
-      </c>
-      <c r="J6" s="12">
-        <v>106820</v>
-      </c>
-      <c r="K6" s="12">
-        <v>120810</v>
-      </c>
-      <c r="L6" s="8">
-        <f>K6*1.132</f>
-        <v>136756.91999999998</v>
-      </c>
-      <c r="M6" s="8">
-        <f>M8+M9+M10+M11</f>
-        <v>153673.59200000003</v>
-      </c>
-      <c r="N6" s="8">
-        <f>M6*1.11</f>
-        <v>170577.68712000005</v>
-      </c>
-      <c r="O6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-    </row>
-    <row r="7" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="11">
-        <f>(G6-46398)/46398</f>
-        <v>0.16201129359024097</v>
-      </c>
-      <c r="H7" s="11">
-        <f>(H6-G6)/G6</f>
-        <v>0.17525734953167021</v>
-      </c>
-      <c r="I7" s="11">
-        <f>(I6-H6)/H6</f>
-        <v>0.48587526040022727</v>
-      </c>
-      <c r="J7" s="11">
-        <f>(J6-I6)/I6</f>
-        <v>0.13456044014402396</v>
-      </c>
-      <c r="K7" s="11">
-        <f>(K6-J6)/J6</f>
-        <v>0.13096798352368472</v>
-      </c>
-      <c r="L7" s="11">
-        <f t="shared" ref="L7:N7" si="0">(L6-K6)/K6</f>
-        <v>0.13199999999999987</v>
-      </c>
-      <c r="M7" s="11">
-        <f t="shared" si="0"/>
-        <v>0.12369883732391788</v>
-      </c>
-      <c r="N7" s="11">
-        <f t="shared" si="0"/>
-        <v>0.11000000000000006</v>
-      </c>
-      <c r="O7" s="11"/>
-      <c r="S7" s="8"/>
-    </row>
-    <row r="8" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="G8" s="12">
-        <f>(39872)*0.91</f>
-        <v>36283.520000000004</v>
-      </c>
-      <c r="H8" s="12">
-        <f>(44862)*0.91</f>
-        <v>40824.42</v>
-      </c>
-      <c r="I8" s="12">
-        <v>66949</v>
-      </c>
-      <c r="J8" s="12">
-        <v>79969</v>
-      </c>
-      <c r="K8" s="12">
-        <v>87767</v>
-      </c>
-      <c r="L8" s="8">
-        <f>K8*1.1</f>
-        <v>96543.700000000012</v>
-      </c>
-      <c r="M8" s="8">
-        <f>L8*1.16</f>
-        <v>111990.69200000001</v>
-      </c>
-      <c r="N8" s="8">
-        <f>M8*1.125</f>
-        <v>125989.52850000001</v>
-      </c>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
-    </row>
-    <row r="9" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="G9" s="12">
-        <f>(39872)*0.09</f>
-        <v>3588.48</v>
-      </c>
-      <c r="H9" s="12">
-        <f>(44862)*0.09</f>
-        <v>4037.58</v>
-      </c>
-      <c r="I9" s="12">
-        <v>6417</v>
-      </c>
-      <c r="J9" s="12">
-        <v>6648</v>
-      </c>
-      <c r="K9" s="12">
-        <v>7404</v>
-      </c>
-      <c r="L9" s="8">
-        <v>8284.33</v>
-      </c>
-      <c r="M9" s="8">
-        <v>10179</v>
-      </c>
-      <c r="N9" s="8"/>
-    </row>
-    <row r="10" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="G10" s="12">
-        <v>3754</v>
-      </c>
-      <c r="H10" s="12">
-        <v>4687</v>
-      </c>
-      <c r="I10" s="12">
-        <v>5796</v>
-      </c>
-      <c r="J10" s="12">
-        <v>6831</v>
-      </c>
-      <c r="K10" s="12">
-        <v>7827</v>
-      </c>
-      <c r="L10" s="8">
-        <v>8992.5</v>
-      </c>
-      <c r="M10" s="8">
-        <v>10489.7</v>
-      </c>
-      <c r="N10" s="8"/>
-    </row>
-    <row r="11" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="G11" s="12">
-        <v>10289</v>
-      </c>
-      <c r="H11" s="12">
-        <v>13816</v>
-      </c>
-      <c r="I11" s="12">
-        <v>14989</v>
-      </c>
-      <c r="J11" s="12">
-        <v>16372</v>
-      </c>
-      <c r="K11" s="12">
-        <v>17812</v>
-      </c>
-      <c r="L11" s="8">
-        <v>19492.400000000001</v>
-      </c>
-      <c r="M11" s="8">
-        <v>21014.2</v>
-      </c>
-      <c r="N11" s="8">
-        <f>M11*1.01</f>
-        <v>21224.342000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="P12" s="8"/>
-    </row>
-    <row r="13" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="G13" s="12">
-        <v>60080</v>
-      </c>
-      <c r="H13" s="12">
-        <v>74965</v>
-      </c>
-      <c r="I13" s="12">
-        <v>72944</v>
-      </c>
-      <c r="J13" s="8">
-        <f>J15+J16+42</f>
-        <v>87464</v>
-      </c>
-      <c r="K13" s="8">
-        <f>K15+K16+70</f>
-        <v>106265</v>
-      </c>
-      <c r="L13" s="8">
-        <f>134294+495</f>
-        <v>134789</v>
-      </c>
-      <c r="M13" s="8">
-        <v>168062</v>
-      </c>
-      <c r="N13" s="8">
-        <f>M13*1.25</f>
-        <v>210077.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="11">
-        <f>(G13-51700)/51700</f>
-        <v>0.16208897485493229</v>
-      </c>
-      <c r="H14" s="11">
-        <f>(H13-G13)/G13</f>
-        <v>0.24775299600532624</v>
-      </c>
-      <c r="I14" s="11">
-        <f>(I13-H13)/H13</f>
-        <v>-2.6959247648902823E-2</v>
-      </c>
-      <c r="J14" s="11">
-        <f>(J13-I13)/I13</f>
-        <v>0.19905681070410178</v>
-      </c>
-      <c r="K14" s="11">
-        <f>(K13-J13)/J13</f>
-        <v>0.21495701088447819</v>
-      </c>
-      <c r="L14" s="11">
-        <f t="shared" ref="L14:N14" si="1">(L13-K13)/K13</f>
-        <v>0.26842328141909377</v>
-      </c>
-      <c r="M14" s="11">
-        <f t="shared" si="1"/>
-        <v>0.24685248796266757</v>
-      </c>
-      <c r="N14" s="11">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="G15" s="12">
-        <v>52589</v>
-      </c>
-      <c r="H15" s="12">
-        <v>67350</v>
-      </c>
-      <c r="I15" s="12">
-        <v>65007</v>
-      </c>
-      <c r="J15" s="12">
-        <v>79828</v>
-      </c>
-      <c r="K15" s="12">
-        <v>98435</v>
-      </c>
-      <c r="L15" s="8">
-        <v>126629</v>
-      </c>
-      <c r="M15" s="8">
-        <v>162267</v>
-      </c>
-      <c r="N15" s="8">
-        <v>208714</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="G16" s="12">
-        <v>6943</v>
-      </c>
-      <c r="H16" s="12">
-        <v>7407</v>
-      </c>
-      <c r="I16" s="12">
-        <v>7722</v>
-      </c>
-      <c r="J16" s="12">
-        <v>7594</v>
-      </c>
-      <c r="K16" s="12">
-        <v>7760</v>
-      </c>
-      <c r="L16" s="8">
-        <v>8096</v>
-      </c>
-      <c r="M16" s="8">
-        <v>8358.33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J17" s="8"/>
-    </row>
-    <row r="18" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="G18" s="12">
-        <v>54093</v>
-      </c>
-      <c r="H18" s="12">
-        <v>59941</v>
-      </c>
-      <c r="I18" s="12">
-        <v>44820</v>
-      </c>
-      <c r="J18" s="8">
-        <f>J20+J21+J22+3</f>
-        <v>50838</v>
-      </c>
-      <c r="K18" s="8">
-        <f>K20+K21+K22+2</f>
-        <v>54649</v>
-      </c>
-      <c r="L18" s="8">
-        <f>SUM(L20:L22)</f>
-        <v>54804.42</v>
-      </c>
-      <c r="M18" s="8">
-        <f>SUM(M20:M22)</f>
-        <v>55742.869200000001</v>
-      </c>
-      <c r="N18" s="8">
-        <f>M18*1.026</f>
-        <v>57192.1837992</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="11">
-        <f>(G18-48251)/48251</f>
-        <v>0.12107521087645852</v>
-      </c>
-      <c r="H19" s="11">
-        <f>(H18-G18)/G18</f>
-        <v>0.10811010666814561</v>
-      </c>
-      <c r="I19" s="11">
-        <f>(I18-H18)/H18</f>
-        <v>-0.25226472698153185</v>
-      </c>
-      <c r="J19" s="11">
-        <f>(J18-I18)/I18</f>
-        <v>0.13427041499330655</v>
-      </c>
-      <c r="K19" s="11">
-        <f>(K18-J18)/J18</f>
-        <v>7.4963609898107714E-2</v>
-      </c>
-      <c r="L19" s="11">
-        <f t="shared" ref="L19" si="2">(L18-K18)/K18</f>
-        <v>2.8439678676645181E-3</v>
-      </c>
-      <c r="M19" s="11">
-        <f t="shared" ref="M19:N19" si="3">(M18-L18)/L18</f>
-        <v>1.712360426403569E-2</v>
-      </c>
-      <c r="N19" s="11">
-        <f t="shared" si="3"/>
-        <v>2.5999999999999981E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="G20" s="12">
-        <f>22488+7143</f>
-        <v>29631</v>
-      </c>
-      <c r="H20" s="12">
-        <f>24732+4687</f>
-        <v>29419</v>
-      </c>
-      <c r="I20" s="12">
-        <v>17147</v>
-      </c>
-      <c r="J20" s="12">
-        <v>17026</v>
-      </c>
-      <c r="K20" s="12">
-        <v>17314</v>
-      </c>
-      <c r="L20" s="8">
-        <f>K20*0.94</f>
-        <v>16275.16</v>
-      </c>
-      <c r="M20" s="8">
-        <f>L20*0.99</f>
-        <v>16112.4084</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="G21" s="12">
-        <v>7407</v>
-      </c>
-      <c r="H21" s="12">
-        <v>7722</v>
-      </c>
-      <c r="I21" s="12">
-        <v>12125</v>
-      </c>
-      <c r="J21" s="12">
-        <v>12306</v>
-      </c>
-      <c r="K21" s="12">
-        <v>13878</v>
-      </c>
-      <c r="L21" s="8">
-        <f>K21*1.12</f>
-        <v>15543.36</v>
-      </c>
-      <c r="M21" s="8">
-        <f>L21*1.13</f>
-        <v>17563.996800000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="G22" s="12">
-        <v>15370</v>
-      </c>
-      <c r="H22" s="12">
-        <v>16230</v>
-      </c>
-      <c r="I22" s="12">
-        <v>15466</v>
-      </c>
-      <c r="J22" s="12">
-        <v>21503</v>
-      </c>
-      <c r="K22" s="12">
-        <v>23455</v>
-      </c>
-      <c r="L22" s="8">
-        <f>K22*0.98</f>
-        <v>22985.899999999998</v>
-      </c>
-      <c r="M22" s="8">
-        <f>L22*0.96</f>
-        <v>22066.463999999996</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="22"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-    </row>
-    <row r="24" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="27">
-        <f>G18+G13+G6</f>
-        <v>168088</v>
-      </c>
-      <c r="H24" s="27">
-        <f t="shared" ref="H24:N24" si="4">H18+H13+H6</f>
-        <v>198270</v>
-      </c>
-      <c r="I24" s="27">
-        <f t="shared" si="4"/>
-        <v>211915</v>
-      </c>
-      <c r="J24" s="27">
-        <f t="shared" si="4"/>
-        <v>245122</v>
-      </c>
-      <c r="K24" s="27">
-        <f t="shared" si="4"/>
-        <v>281724</v>
-      </c>
-      <c r="L24" s="27">
-        <f t="shared" si="4"/>
-        <v>326350.33999999997</v>
-      </c>
-      <c r="M24" s="27">
-        <f t="shared" si="4"/>
-        <v>377478.46120000002</v>
-      </c>
-      <c r="N24" s="27">
-        <f t="shared" si="4"/>
-        <v>437847.37091920001</v>
-      </c>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
-    </row>
-    <row r="25" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L25" s="8"/>
-    </row>
-    <row r="26" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2">
-        <v>2021</v>
-      </c>
-      <c r="H26" s="2">
-        <f>G26+1</f>
-        <v>2022</v>
-      </c>
-      <c r="I26" s="2">
-        <f>H26+1</f>
-        <v>2023</v>
-      </c>
-      <c r="J26" s="2">
-        <f>I26+1</f>
-        <v>2024</v>
-      </c>
-      <c r="K26" s="2">
-        <f>J26+1</f>
-        <v>2025</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="O26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P26" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" s="23" customFormat="1" ht="1.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="25"/>
-      <c r="M27" s="25"/>
-      <c r="N27" s="25"/>
-      <c r="O27" s="25"/>
-      <c r="P27" s="25"/>
-    </row>
-    <row r="28" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G28" s="12">
-        <v>24351</v>
-      </c>
-      <c r="H28" s="12">
-        <v>29690</v>
-      </c>
-      <c r="I28" s="12">
-        <v>50074</v>
-      </c>
-      <c r="J28" s="12">
-        <v>59661</v>
-      </c>
-      <c r="K28" s="12">
-        <v>69773</v>
-      </c>
-      <c r="L28" s="8">
-        <f>L6*0.5758</f>
-        <v>78744.634535999983</v>
-      </c>
-      <c r="M28" s="8">
-        <f>M6*0.5555</f>
-        <v>85365.680356000012</v>
-      </c>
-      <c r="N28" s="8">
-        <f>N6*0.58</f>
-        <v>98935.058529600021</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="G29" s="11">
-        <f t="shared" ref="G29:N29" si="5">G28/G6</f>
-        <v>0.45165538347398682</v>
-      </c>
-      <c r="H29" s="11">
-        <f t="shared" si="5"/>
-        <v>0.46856259074553375</v>
-      </c>
-      <c r="I29" s="11">
-        <f t="shared" si="5"/>
-        <v>0.53184777644422254</v>
-      </c>
-      <c r="J29" s="11">
-        <f t="shared" si="5"/>
-        <v>0.55851900393184795</v>
-      </c>
-      <c r="K29" s="11">
-        <f t="shared" si="5"/>
-        <v>0.57754324973098259</v>
-      </c>
-      <c r="L29" s="11">
-        <f t="shared" si="5"/>
-        <v>0.57579999999999998</v>
-      </c>
-      <c r="M29" s="11">
-        <f t="shared" si="5"/>
-        <v>0.55549999999999999</v>
-      </c>
-      <c r="N29" s="11">
-        <f t="shared" si="5"/>
-        <v>0.57999999999999996</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G31" s="12">
-        <v>26126</v>
-      </c>
-      <c r="H31" s="12">
-        <v>33203</v>
-      </c>
-      <c r="I31" s="12">
-        <v>28411</v>
-      </c>
-      <c r="J31" s="12">
-        <v>37813</v>
-      </c>
-      <c r="K31" s="12">
-        <v>44589</v>
-      </c>
-      <c r="L31" s="8">
-        <f>L13*0.435</f>
-        <v>58633.214999999997</v>
-      </c>
-      <c r="M31" s="8">
-        <f>M13*0.44925</f>
-        <v>75501.853499999997</v>
-      </c>
-      <c r="N31" s="8">
-        <f>N13*0.447</f>
-        <v>93904.642500000002</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="G32" s="11">
-        <f t="shared" ref="G32:N32" si="6">G31/G13</f>
-        <v>0.43485352862849536</v>
-      </c>
-      <c r="H32" s="11">
-        <f t="shared" si="6"/>
-        <v>0.44291335956779831</v>
-      </c>
-      <c r="I32" s="11">
-        <f t="shared" si="6"/>
-        <v>0.38949056810704102</v>
-      </c>
-      <c r="J32" s="11">
-        <f t="shared" si="6"/>
-        <v>0.43232644287935607</v>
-      </c>
-      <c r="K32" s="11">
-        <f t="shared" si="6"/>
-        <v>0.41960193854985178</v>
-      </c>
-      <c r="L32" s="11">
-        <f t="shared" si="6"/>
-        <v>0.435</v>
-      </c>
-      <c r="M32" s="11">
-        <f t="shared" si="6"/>
-        <v>0.44924999999999998</v>
-      </c>
-      <c r="N32" s="11">
-        <f t="shared" si="6"/>
-        <v>0.44700000000000001</v>
-      </c>
-    </row>
-    <row r="34" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G34" s="12">
-        <v>19439</v>
-      </c>
-      <c r="H34" s="12">
-        <v>20490</v>
-      </c>
-      <c r="I34" s="12">
-        <v>10038</v>
-      </c>
-      <c r="J34" s="12">
-        <v>11959</v>
-      </c>
-      <c r="K34" s="12">
-        <v>14166</v>
-      </c>
-      <c r="L34" s="8">
-        <f>L18*0.2623</f>
-        <v>14375.199365999999</v>
-      </c>
-      <c r="M34" s="8">
-        <f>M18*0.263</f>
-        <v>14660.374599600002</v>
-      </c>
-      <c r="N34" s="8">
-        <f>N18*0.265</f>
-        <v>15155.928706788001</v>
-      </c>
-    </row>
-    <row r="35" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="G35" s="11">
-        <f>G34/G18</f>
-        <v>0.359362579261642</v>
-      </c>
-      <c r="H35" s="11">
-        <f t="shared" ref="H35:N35" si="7">H34/H18</f>
-        <v>0.34183613886988873</v>
-      </c>
-      <c r="I35" s="11">
-        <f t="shared" si="7"/>
-        <v>0.22396251673360107</v>
-      </c>
-      <c r="J35" s="11">
-        <f t="shared" si="7"/>
-        <v>0.23523742082694049</v>
-      </c>
-      <c r="K35" s="11">
-        <f t="shared" si="7"/>
-        <v>0.25921791798569049</v>
-      </c>
-      <c r="L35" s="11">
-        <f t="shared" si="7"/>
-        <v>0.26229999999999998</v>
-      </c>
-      <c r="M35" s="11">
-        <f t="shared" si="7"/>
-        <v>0.26300000000000001</v>
-      </c>
-      <c r="N35" s="11">
-        <f t="shared" si="7"/>
-        <v>0.26500000000000001</v>
-      </c>
-    </row>
-    <row r="36" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="5"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="11"/>
-      <c r="L36" s="11"/>
-      <c r="M36" s="11"/>
-      <c r="N36" s="11"/>
-    </row>
-    <row r="37" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="27">
-        <f>G28+G31+G34</f>
-        <v>69916</v>
-      </c>
-      <c r="H37" s="27">
-        <f t="shared" ref="H37:N37" si="8">H28+H31+H34</f>
-        <v>83383</v>
-      </c>
-      <c r="I37" s="27">
-        <f t="shared" si="8"/>
-        <v>88523</v>
-      </c>
-      <c r="J37" s="27">
-        <f t="shared" si="8"/>
-        <v>109433</v>
-      </c>
-      <c r="K37" s="27">
-        <f t="shared" si="8"/>
-        <v>128528</v>
-      </c>
-      <c r="L37" s="27">
-        <f t="shared" si="8"/>
-        <v>151753.04890199998</v>
-      </c>
-      <c r="M37" s="27">
-        <f t="shared" si="8"/>
-        <v>175527.9084556</v>
-      </c>
-      <c r="N37" s="27">
-        <f t="shared" si="8"/>
-        <v>207995.62973638801</v>
-      </c>
-      <c r="O37" s="4"/>
-      <c r="P37" s="4"/>
-    </row>
-    <row r="39" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2">
-        <v>2021</v>
-      </c>
-      <c r="H39" s="2">
-        <f>G39+1</f>
-        <v>2022</v>
-      </c>
-      <c r="I39" s="2">
-        <f>H39+1</f>
-        <v>2023</v>
-      </c>
-      <c r="J39" s="2">
-        <f>I39+1</f>
-        <v>2024</v>
-      </c>
-      <c r="K39" s="2">
-        <f>J39+1</f>
-        <v>2025</v>
-      </c>
-      <c r="L39" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M39" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="N39" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="O39" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P39" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" spans="2:16" s="23" customFormat="1" ht="1.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="24"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="24"/>
-      <c r="I40" s="24"/>
-      <c r="J40" s="24"/>
-      <c r="K40" s="24"/>
-      <c r="L40" s="25"/>
-      <c r="M40" s="25"/>
-      <c r="N40" s="25"/>
-      <c r="O40" s="25"/>
-      <c r="P40" s="25"/>
-    </row>
-    <row r="41" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G41" s="12">
-        <v>83953</v>
-      </c>
-      <c r="H41" s="12">
-        <v>100218</v>
-      </c>
-      <c r="I41" s="12">
-        <v>106744</v>
-      </c>
-      <c r="J41" s="12">
-        <v>124704</v>
-      </c>
-      <c r="K41" s="12">
-        <v>144546</v>
-      </c>
-    </row>
-    <row r="42" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G42" s="11">
-        <f>(G41-73160)/73160</f>
-        <v>0.14752597047566976</v>
-      </c>
-      <c r="H42" s="11">
-        <f>(H41-G41)/G41</f>
-        <v>0.19373935416244803</v>
-      </c>
-      <c r="I42" s="11">
-        <f t="shared" ref="I42:K42" si="9">(I41-H41)/H41</f>
-        <v>6.5118042666985967E-2</v>
-      </c>
-      <c r="J42" s="11">
-        <f t="shared" si="9"/>
-        <v>0.16825301656299183</v>
-      </c>
-      <c r="K42" s="11">
-        <f t="shared" si="9"/>
-        <v>0.159112779060816</v>
-      </c>
-      <c r="L42" s="11"/>
-      <c r="M42" s="11"/>
-    </row>
-    <row r="43" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G43" s="12">
-        <v>84135</v>
-      </c>
-      <c r="H43" s="12">
-        <v>98052</v>
-      </c>
-      <c r="I43" s="12">
-        <v>105171</v>
-      </c>
-      <c r="J43" s="12">
-        <v>120518</v>
-      </c>
-      <c r="K43" s="12">
-        <v>137178</v>
-      </c>
-    </row>
-    <row r="44" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G44" s="11">
-        <f>(G43-69855)/69855</f>
-        <v>0.20442344857204209</v>
-      </c>
-      <c r="H44" s="11">
-        <f t="shared" ref="H44:K44" si="10">(H43-G43)/G43</f>
-        <v>0.1654127295418078</v>
-      </c>
-      <c r="I44" s="11">
-        <f t="shared" si="10"/>
-        <v>7.260433239505569E-2</v>
-      </c>
-      <c r="J44" s="11">
-        <f t="shared" si="10"/>
-        <v>0.14592425668672923</v>
-      </c>
-      <c r="K44" s="11">
-        <f t="shared" si="10"/>
-        <v>0.13823661195837966</v>
-      </c>
-      <c r="L44" s="11"/>
-      <c r="M44" s="11"/>
-    </row>
-    <row r="46" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2">
-        <v>2021</v>
-      </c>
-      <c r="H46" s="2">
-        <f>G46+1</f>
-        <v>2022</v>
-      </c>
-      <c r="I46" s="2">
-        <f>H46+1</f>
-        <v>2023</v>
-      </c>
-      <c r="J46" s="2">
-        <f>I46+1</f>
-        <v>2024</v>
-      </c>
-      <c r="K46" s="2">
-        <f>J46+1</f>
-        <v>2025</v>
-      </c>
-      <c r="L46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M46" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="N46" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="O46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P46" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="47" spans="2:16" s="23" customFormat="1" ht="1.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="24"/>
-      <c r="C47" s="24"/>
-      <c r="D47" s="24"/>
-      <c r="E47" s="24"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="24"/>
-      <c r="H47" s="24"/>
-      <c r="I47" s="24"/>
-      <c r="J47" s="24"/>
-      <c r="K47" s="24"/>
-      <c r="L47" s="25"/>
-      <c r="M47" s="25"/>
-      <c r="N47" s="25"/>
-      <c r="O47" s="25"/>
-      <c r="P47" s="25"/>
-    </row>
-    <row r="48" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C48" s="24"/>
-      <c r="D48" s="24"/>
-      <c r="E48" s="24"/>
-      <c r="F48" s="24"/>
-      <c r="G48" s="12">
-        <v>173049</v>
-      </c>
-      <c r="H48" s="12">
-        <v>202537</v>
-      </c>
-      <c r="I48" s="12">
-        <v>217320</v>
-      </c>
-      <c r="J48" s="12">
-        <v>268695</v>
-      </c>
-      <c r="K48" s="12">
-        <v>288805</v>
-      </c>
-      <c r="L48" s="25">
-        <v>333705</v>
-      </c>
-      <c r="M48" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="N48" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="O48" s="25"/>
-      <c r="P48" s="25"/>
-    </row>
-    <row r="49" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G49" s="12">
-        <v>141000</v>
-      </c>
-      <c r="H49" s="12">
-        <v>189000</v>
-      </c>
-      <c r="I49" s="12">
-        <v>224000</v>
-      </c>
-      <c r="J49" s="12">
-        <v>269000</v>
-      </c>
-      <c r="K49" s="12">
-        <v>368000</v>
-      </c>
-      <c r="L49" s="12">
-        <v>392000</v>
-      </c>
-    </row>
-    <row r="50" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="G50" s="11">
-        <v>0.498</v>
-      </c>
-      <c r="H50" s="11">
-        <v>0.45</v>
-      </c>
-      <c r="I50" s="11">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="J50" s="11">
-        <v>0.3</v>
-      </c>
-      <c r="K50" s="11">
-        <v>0.34200000000000003</v>
-      </c>
-      <c r="L50" s="11">
-        <v>0.38</v>
-      </c>
-      <c r="M50" s="11">
-        <v>0.34300000000000003</v>
-      </c>
-      <c r="N50" s="11">
-        <v>0.28100000000000003</v>
-      </c>
-    </row>
-    <row r="51" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="G51" s="11"/>
-      <c r="H51" s="11">
-        <v>0.47</v>
-      </c>
-      <c r="I51" s="11">
-        <v>0.34</v>
-      </c>
-      <c r="J51" s="11">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="K51" s="11">
-        <v>0.34699999999999998</v>
-      </c>
-      <c r="L51" s="11">
-        <v>0.375</v>
-      </c>
-      <c r="M51" s="11">
-        <v>0.34499999999999997</v>
-      </c>
-      <c r="N51" s="11">
-        <v>0.29699999999999999</v>
-      </c>
-    </row>
-    <row r="52" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G52" s="12"/>
-      <c r="H52" s="12"/>
-      <c r="I52" s="12">
-        <v>31900</v>
-      </c>
-      <c r="J52" s="12">
-        <v>55700</v>
-      </c>
-      <c r="K52" s="12">
-        <v>88200</v>
-      </c>
-      <c r="L52" s="8">
-        <f>K52*1.62</f>
-        <v>142884</v>
-      </c>
-      <c r="M52" s="8">
-        <f>L52*1.116</f>
-        <v>159458.54400000002</v>
-      </c>
-      <c r="N52" s="8">
-        <f>M52*1.045</f>
-        <v>166634.17848</v>
-      </c>
-    </row>
-    <row r="53" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="L53" s="8">
-        <f>Main!J36*L55</f>
-        <v>178951.92297110698</v>
-      </c>
-      <c r="M53" s="8">
-        <f>Main!K36*M55</f>
-        <v>209859.54261503436</v>
-      </c>
-      <c r="N53" s="8">
-        <f>Main!L36*N55</f>
-        <v>240714.48503974153</v>
-      </c>
-    </row>
-    <row r="54" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="L54" s="8">
-        <f>Main!J36-L53</f>
-        <v>57569.254627501243</v>
-      </c>
-      <c r="M54" s="8">
-        <f>Main!K36-M53</f>
-        <v>64897.648554164829</v>
-      </c>
-      <c r="N54" s="8">
-        <f>Main!L36-N53</f>
-        <v>72552.674043732608</v>
-      </c>
-    </row>
-    <row r="55" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="5"/>
-      <c r="H55" s="5"/>
-      <c r="I55" s="5"/>
-      <c r="J55" s="5"/>
-      <c r="K55" s="5"/>
-      <c r="L55" s="11">
-        <v>0.75660000000000005</v>
-      </c>
-      <c r="M55" s="11">
-        <v>0.76380000000000003</v>
-      </c>
-      <c r="N55" s="11">
-        <v>0.76839999999999997</v>
-      </c>
-    </row>
-    <row r="56" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="L56" s="13">
-        <f>-40000*0.27</f>
-        <v>-10800</v>
-      </c>
-      <c r="M56" s="13">
-        <f>-27500*0.27</f>
-        <v>-7425.0000000000009</v>
-      </c>
-      <c r="N56" s="13">
-        <f>-12500*0.27</f>
-        <v>-3375</v>
-      </c>
-      <c r="O56" s="13"/>
-      <c r="P56" s="13"/>
-    </row>
+    <row r="5" ht="1.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" ht="1.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" ht="1.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" ht="1.95" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5296,7 +3774,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3582438-1AC1-43DF-96FD-76E4B45DFDBC}">
   <dimension ref="A12:A69"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A66" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A81" sqref="A1:AK81"/>
     </sheetView>
   </sheetViews>

--- a/META Model.xlsx
+++ b/META Model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kerem\OneDrive\Masaüstü\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD860A47-D094-440B-9E6C-F18C4015A372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F05DD5-C41E-4FC8-981C-61170F58E239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25260" yWindow="360" windowWidth="27216" windowHeight="16248" xr2:uid="{64BEE0EA-45A1-4490-9445-11F5F6D37C44}"/>
+    <workbookView xWindow="6960" yWindow="528" windowWidth="26064" windowHeight="15744" xr2:uid="{64BEE0EA-45A1-4490-9445-11F5F6D37C44}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="82">
   <si>
     <t>Ticker</t>
   </si>
@@ -269,9 +269,6 @@
     <t>P/E (LTM)</t>
   </si>
   <si>
-    <t>EV/EBITDA (LTM)</t>
-  </si>
-  <si>
     <t>P/S (LTM)</t>
   </si>
   <si>
@@ -303,6 +300,12 @@
   </si>
   <si>
     <t>Menlo Park, California</t>
+  </si>
+  <si>
+    <t>EV/EBIT (LTM)</t>
+  </si>
+  <si>
+    <t>IRR</t>
   </si>
 </sst>
 </file>
@@ -316,7 +319,7 @@
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -374,8 +377,18 @@
       <name val="calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="calibri"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -394,8 +407,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -421,12 +440,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -468,6 +524,12 @@
     <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="8" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -483,6 +545,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -745,10 +808,6 @@
     <xdr:clientData/>
   </xdr:oneCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1066,28 +1125,50 @@
 </a:theme>
 </file>
 
+<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
+<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
+  <wetp:taskpane dockstate="right" visibility="0" width="438" row="6">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </wetp:taskpane>
+</wetp:taskpanes>
+</file>
+
+<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{9AC10E40-B346-48F7-91A5-193FCE6F1F7B}">
+  <we:reference id="wa200009404" version="1.0.0.5" store="en-US" storeType="OMEX"/>
+  <we:alternateReferences>
+    <we:reference id="WA200009404" version="1.0.0.5" store="" storeType="OMEX"/>
+  </we:alternateReferences>
+  <we:properties>
+    <we:property name="Office.AutoShowTaskpaneWithDocument" value="true"/>
+  </we:properties>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF806BA9-FD26-46A5-A630-9D65D6C233D8}">
   <dimension ref="B2:X105"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+      <selection activeCell="P49" sqref="P49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="3" width="8.69921875" style="1"/>
-    <col min="4" max="4" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.69921875" style="1" customWidth="1"/>
     <col min="6" max="7" width="8.69921875" style="1"/>
-    <col min="8" max="8" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.69921875" style="1" customWidth="1"/>
     <col min="9" max="15" width="8.69921875" style="1"/>
-    <col min="16" max="16" width="8.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="21" width="8.69921875" style="1"/>
-    <col min="22" max="22" width="10.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="8.69921875" style="1" customWidth="1"/>
+    <col min="18" max="19" width="8.69921875" style="1"/>
+    <col min="20" max="20" width="8.69921875" style="1" customWidth="1"/>
+    <col min="21" max="21" width="8.69921875" style="1"/>
+    <col min="22" max="22" width="8.69921875" style="1" customWidth="1"/>
     <col min="23" max="23" width="8.69921875" style="1"/>
-    <col min="24" max="24" width="11.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.69921875" style="1" customWidth="1"/>
     <col min="25" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
@@ -1174,28 +1255,29 @@
         <v>0</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I7" s="27">
+      <c r="I7" s="33">
         <v>78450</v>
       </c>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
       <c r="M7" s="1" t="s">
         <v>46</v>
       </c>
       <c r="P7" s="7">
-        <f>SUM(I97:N97)</f>
-        <v>202961.30489800117</v>
+        <f>SUM(J97:N97)</f>
+        <v>148959.44055637275</v>
       </c>
       <c r="R7" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="T7" s="31"/>
       <c r="U7" s="9">
-        <v>9.8799999999999999E-2</v>
+        <v>9.6299999999999997E-2</v>
       </c>
     </row>
     <row r="8" spans="2:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1204,22 +1286,22 @@
       </c>
       <c r="E8" s="19">
         <f>P12/P11</f>
-        <v>765.86325797510392</v>
+        <v>854.90126963033322</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I8" s="31">
+      <c r="I8" s="37">
         <v>2004</v>
       </c>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
       <c r="M8" s="1" t="s">
         <v>47</v>
       </c>
       <c r="P8" s="7">
         <f>N51*U8</f>
-        <v>2837230.9711144376</v>
+        <v>3112886.4230582123</v>
       </c>
       <c r="R8" s="1" t="s">
         <v>51</v>
@@ -1234,23 +1316,24 @@
         <v>2</v>
       </c>
       <c r="E9" s="19">
-        <v>660.62</v>
+        <v>713</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I9" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
+      <c r="I9" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
       <c r="M9" s="1" t="s">
         <v>52</v>
       </c>
       <c r="P9" s="7">
-        <f>P8/(1+U7)^5</f>
-        <v>1771337.994613966</v>
-      </c>
+        <f>P8/(1+U7)^4.5</f>
+        <v>2058168.427472105</v>
+      </c>
+      <c r="R9" s="32"/>
       <c r="U9" s="7"/>
     </row>
     <row r="10" spans="2:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1259,22 +1342,22 @@
       </c>
       <c r="E10" s="14">
         <f>E8/E9-1</f>
-        <v>0.159309827094402</v>
+        <v>0.19902001350677878</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I10" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
+      <c r="I10" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
       <c r="M10" s="1" t="s">
         <v>32</v>
       </c>
       <c r="P10" s="7">
-        <f>-44448+28834+20113</f>
-        <v>4499</v>
+        <f>51060-44448</f>
+        <v>6612</v>
       </c>
       <c r="R10" s="18" t="s">
         <v>34</v>
@@ -1285,52 +1368,64 @@
       <c r="V10" s="7"/>
     </row>
     <row r="11" spans="2:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E11" s="14">
+        <f>(K17/E9)^(1/2)-1</f>
+        <v>0.18636369610411307</v>
+      </c>
       <c r="G11" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I11" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
+      <c r="I11" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
       <c r="M11" s="1" t="s">
         <v>48</v>
       </c>
       <c r="P11" s="7">
-        <v>2572</v>
+        <v>2574</v>
       </c>
       <c r="R11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="T11" s="29"/>
-      <c r="U11" s="29"/>
+      <c r="T11" s="35">
+        <f>P17</f>
+        <v>1835262</v>
+      </c>
+      <c r="U11" s="35"/>
     </row>
     <row r="12" spans="2:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>66</v>
       </c>
       <c r="E12" s="17">
-        <v>46028</v>
+        <v>46051</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I12" s="28">
+      <c r="I12" s="34">
         <v>46022</v>
       </c>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
       <c r="M12" s="1" t="s">
         <v>49</v>
       </c>
       <c r="P12" s="7">
         <f>P9+P7-P10</f>
-        <v>1969800.2995119672</v>
+        <v>2200515.8680284778</v>
       </c>
       <c r="R12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="U12" s="9"/>
+      <c r="U12" s="9">
+        <v>0.98370000000000002</v>
+      </c>
     </row>
     <row r="13" spans="2:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I13" s="9"/>
@@ -1338,13 +1433,18 @@
       <c r="R13" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="U13" s="9"/>
+      <c r="U13" s="9">
+        <f>U14+U15*U17</f>
+        <v>9.8049999999999998E-2</v>
+      </c>
     </row>
     <row r="14" spans="2:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="R14" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="U14" s="9"/>
+      <c r="U14" s="9">
+        <v>4.2299999999999997E-2</v>
+      </c>
     </row>
     <row r="15" spans="2:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
@@ -1378,13 +1478,16 @@
         <v>6</v>
       </c>
       <c r="M15" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N15" s="18"/>
       <c r="O15" s="18"/>
       <c r="P15" s="5"/>
       <c r="R15" s="1" t="s">
         <v>38</v>
+      </c>
+      <c r="U15" s="1">
+        <v>1.25</v>
       </c>
     </row>
     <row r="16" spans="2:24" s="21" customFormat="1" ht="1.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1405,99 +1508,193 @@
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="7">
-        <f>SUM(J106:N106)</f>
-        <v>0</v>
+        <f>SUM(J97:N97)</f>
+        <v>148959.44055637275</v>
       </c>
     </row>
     <row r="17" spans="2:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
+      <c r="E17" s="6">
+        <v>334</v>
+      </c>
+      <c r="F17" s="6">
+        <v>120</v>
+      </c>
+      <c r="G17" s="6">
+        <v>353</v>
+      </c>
+      <c r="H17" s="6">
+        <v>593</v>
+      </c>
+      <c r="I17" s="6">
+        <v>713</v>
+      </c>
+      <c r="J17" s="6">
+        <f>((SUM(K97:N97)+P9)*(1+$U$7)^0.5+J21-J22)/J18</f>
+        <v>906.30029592324615</v>
+      </c>
+      <c r="K17" s="6">
+        <f>((SUM(L97:N97)+P9)*(1+$U$7)^1.5+K21-K22)/K18</f>
+        <v>1003.5181382563081</v>
+      </c>
       <c r="M17" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="P17" s="7"/>
+      <c r="P17" s="7">
+        <f>E9*P11</f>
+        <v>1835262</v>
+      </c>
       <c r="R17" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="U17" s="9"/>
+      <c r="U17" s="9">
+        <v>4.4600000000000001E-2</v>
+      </c>
     </row>
     <row r="18" spans="2:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
+      <c r="E18" s="11">
+        <v>2810</v>
+      </c>
+      <c r="F18" s="11">
+        <v>2690</v>
+      </c>
+      <c r="G18" s="11">
+        <v>2630</v>
+      </c>
+      <c r="H18" s="11">
+        <v>2610</v>
+      </c>
+      <c r="I18" s="11">
+        <v>2574</v>
+      </c>
+      <c r="J18" s="11">
+        <f>I18*(1-0.01)</f>
+        <v>2548.2599999999998</v>
+      </c>
+      <c r="K18" s="11">
+        <f>J18*(1-0.01)</f>
+        <v>2522.7773999999999</v>
+      </c>
       <c r="M18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="P18" s="7"/>
+      <c r="P18" s="7">
+        <f>P17+P10</f>
+        <v>1841874</v>
+      </c>
       <c r="R18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="U18" s="7"/>
+      <c r="U18" s="1">
+        <v>51060</v>
+      </c>
     </row>
     <row r="19" spans="2:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M19" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="P19" s="25"/>
+      <c r="P19" s="25">
+        <f>P17/60458</f>
+        <v>30.355982665652189</v>
+      </c>
       <c r="R19" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="U19" s="9"/>
+      <c r="U19" s="9">
+        <v>1.6299999999999999E-2</v>
+      </c>
     </row>
     <row r="20" spans="2:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
+      <c r="E20" s="7">
+        <f>E17*E18</f>
+        <v>938540</v>
+      </c>
+      <c r="F20" s="7">
+        <f>F17*F18</f>
+        <v>322800</v>
+      </c>
+      <c r="G20" s="7">
+        <f>G17*G18</f>
+        <v>928390</v>
+      </c>
+      <c r="H20" s="7">
+        <f>H17*H18</f>
+        <v>1547730</v>
+      </c>
+      <c r="I20" s="7">
+        <f>I17*I18</f>
+        <v>1835262</v>
+      </c>
+      <c r="J20" s="7">
+        <f>J17*J18</f>
+        <v>2309488.792089371</v>
+      </c>
+      <c r="K20" s="7">
+        <f>K17*K18</f>
+        <v>2531652.8796830894</v>
+      </c>
       <c r="M20" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="P20" s="25"/>
+        <v>71</v>
+      </c>
+      <c r="P20" s="25">
+        <f>P17/76769</f>
+        <v>23.906290299469838</v>
+      </c>
       <c r="R20" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="U20" s="9"/>
+      <c r="U20" s="9">
+        <v>4.1000000000000002E-2</v>
+      </c>
     </row>
     <row r="21" spans="2:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
+      <c r="E21" s="11">
+        <v>48000</v>
+      </c>
+      <c r="F21" s="11">
+        <v>40740</v>
+      </c>
+      <c r="G21" s="11">
+        <v>65400</v>
+      </c>
+      <c r="H21" s="11">
+        <v>70938</v>
+      </c>
+      <c r="I21" s="11">
+        <v>82430</v>
+      </c>
+      <c r="J21" s="11">
+        <f>I21+J94</f>
+        <v>86388.920918877004</v>
+      </c>
+      <c r="K21" s="11">
+        <f>J21+K94</f>
+        <v>106670.20530446302</v>
+      </c>
       <c r="M21" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="P21" s="25"/>
+        <v>69</v>
+      </c>
+      <c r="P21" s="25">
+        <f>P17/I36</f>
+        <v>9.1322014669148022</v>
+      </c>
       <c r="R21" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="U21" s="9"/>
+      <c r="U21" s="9">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="22" spans="2:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="5" t="s">
@@ -1505,39 +1702,85 @@
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
+      <c r="E22" s="38">
+        <v>14450</v>
+      </c>
+      <c r="F22" s="38">
+        <v>27280</v>
+      </c>
+      <c r="G22" s="38">
+        <v>37920</v>
+      </c>
+      <c r="H22" s="38">
+        <v>49770</v>
+      </c>
+      <c r="I22" s="38">
+        <v>83900</v>
+      </c>
+      <c r="J22" s="8">
+        <f>I22</f>
+        <v>83900</v>
+      </c>
+      <c r="K22" s="8">
+        <f>I22</f>
+        <v>83900</v>
+      </c>
       <c r="M22" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="P22" s="25"/>
+        <v>80</v>
+      </c>
+      <c r="P22" s="25">
+        <f>P17/I51</f>
+        <v>22.038041716200151</v>
+      </c>
       <c r="R22" s="5" t="s">
         <v>43</v>
       </c>
       <c r="S22" s="5"/>
-      <c r="T22" s="30"/>
-      <c r="U22" s="30"/>
+      <c r="T22" s="36">
+        <f>U12+U19</f>
+        <v>1</v>
+      </c>
+      <c r="U22" s="36"/>
     </row>
     <row r="23" spans="2:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
+      <c r="E23" s="7">
+        <f>E20+E22-E21</f>
+        <v>904990</v>
+      </c>
+      <c r="F23" s="7">
+        <f>F20+F22-F21</f>
+        <v>309340</v>
+      </c>
+      <c r="G23" s="7">
+        <f>G20+G22-G21</f>
+        <v>900910</v>
+      </c>
+      <c r="H23" s="7">
+        <f>H20+H22-H21</f>
+        <v>1526562</v>
+      </c>
+      <c r="I23" s="7">
+        <f>I20+I22-I21</f>
+        <v>1836732</v>
+      </c>
+      <c r="J23" s="7">
+        <f>J20+J22-J21</f>
+        <v>2306999.8711704938</v>
+      </c>
+      <c r="K23" s="7">
+        <f>K20+K22-K21</f>
+        <v>2508882.6743786265</v>
+      </c>
       <c r="R23" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="U23" s="9"/>
+      <c r="U23" s="9">
+        <f>U22</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="2:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="2" t="s">
@@ -1599,7 +1842,7 @@
     </row>
     <row r="27" spans="2:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E27" s="11">
         <v>2912</v>
@@ -1700,7 +1943,7 @@
     </row>
     <row r="30" spans="2:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E30" s="11">
         <v>1929</v>
@@ -1782,47 +2025,46 @@
     </row>
     <row r="33" spans="2:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E33" s="11">
-        <f t="shared" ref="E33:H33" si="5">E36/E27</f>
+        <v>76</v>
+      </c>
+      <c r="E33" s="7">
+        <f t="shared" ref="E33:I33" si="5">E36/E27</f>
         <v>40.497596153846153</v>
       </c>
-      <c r="F33" s="11">
+      <c r="F33" s="7">
         <f t="shared" si="5"/>
         <v>39.355045561930474</v>
       </c>
-      <c r="G33" s="11">
+      <c r="G33" s="7">
         <f t="shared" si="5"/>
         <v>44.0137030995106</v>
       </c>
-      <c r="H33" s="11">
+      <c r="H33" s="7">
         <f t="shared" si="5"/>
         <v>52.405543166613569</v>
       </c>
       <c r="I33" s="7">
-        <f>H33*1.18</f>
-        <v>61.838540936604005</v>
+        <f t="shared" si="5"/>
+        <v>62.351285640408882</v>
       </c>
       <c r="J33" s="7">
-        <f>I33*(1+I34-0.02)</f>
-        <v>71.73270748646064</v>
+        <v>73.25</v>
       </c>
       <c r="K33" s="7">
-        <f t="shared" ref="K33:N33" si="6">J33*(1+J34-0.02)</f>
-        <v>81.775286534565126</v>
+        <f>J33*1.15</f>
+        <v>84.237499999999997</v>
       </c>
       <c r="L33" s="7">
-        <f t="shared" si="6"/>
-        <v>91.588320918712938</v>
+        <f>K33*1.14</f>
+        <v>96.030749999999983</v>
       </c>
       <c r="M33" s="7">
-        <f t="shared" si="6"/>
-        <v>100.74715301058421</v>
+        <f>L33*1.125</f>
+        <v>108.03459374999998</v>
       </c>
       <c r="N33" s="7">
-        <f t="shared" si="6"/>
-        <v>108.80692525143094</v>
+        <f>M33*(1+M34-0.02)</f>
+        <v>119.37822609374999</v>
       </c>
     </row>
     <row r="34" spans="2:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1849,27 +2091,27 @@
       </c>
       <c r="I34" s="10">
         <f>(I33-H33)/H33</f>
-        <v>0.17999999999999988</v>
+        <v>0.18978416924665192</v>
       </c>
       <c r="J34" s="10">
         <f>(J33-I33)/I33</f>
-        <v>0.15999999999999992</v>
+        <v>0.17479534299334212</v>
       </c>
       <c r="K34" s="10">
-        <f t="shared" ref="K34:N34" si="7">(K33-J33)/J33</f>
-        <v>0.13999999999999996</v>
+        <f t="shared" ref="K34:N34" si="6">(K33-J33)/J33</f>
+        <v>0.14999999999999997</v>
       </c>
       <c r="L34" s="10">
-        <f t="shared" si="7"/>
-        <v>0.11999999999999997</v>
+        <f t="shared" si="6"/>
+        <v>0.13999999999999985</v>
       </c>
       <c r="M34" s="10">
-        <f t="shared" si="7"/>
-        <v>9.9999999999999797E-2</v>
+        <f t="shared" si="6"/>
+        <v>0.12500000000000003</v>
       </c>
       <c r="N34" s="10">
-        <f t="shared" si="7"/>
-        <v>7.9999999999999891E-2</v>
+        <f t="shared" si="6"/>
+        <v>0.10500000000000004</v>
       </c>
       <c r="T34"/>
     </row>
@@ -1901,29 +2143,28 @@
       <c r="H36" s="11">
         <v>164501</v>
       </c>
-      <c r="I36" s="7">
-        <f>I27*I33</f>
-        <v>199313.35962399998</v>
+      <c r="I36" s="11">
+        <v>200966</v>
       </c>
       <c r="J36" s="7">
-        <f t="shared" ref="J36:N36" si="8">J27*J33</f>
-        <v>236521.17759860822</v>
+        <f t="shared" ref="J36:N36" si="7">J27*J33</f>
+        <v>241524.08108069998</v>
       </c>
       <c r="K36" s="7">
-        <f t="shared" si="8"/>
-        <v>274757.19116919918</v>
+        <f t="shared" si="7"/>
+        <v>283029.99441441824</v>
       </c>
       <c r="L36" s="7">
-        <f t="shared" si="8"/>
-        <v>313267.15908347414</v>
+        <f t="shared" si="7"/>
+        <v>328461.96911782061</v>
       </c>
       <c r="M36" s="7">
-        <f t="shared" si="8"/>
-        <v>350107.37699169066</v>
+        <f t="shared" si="7"/>
+        <v>375432.03070166893</v>
       </c>
       <c r="N36" s="7">
-        <f t="shared" si="8"/>
-        <v>383409.59069114021</v>
+        <f t="shared" si="7"/>
+        <v>420660.32744029898</v>
       </c>
     </row>
     <row r="37" spans="2:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1950,27 +2191,27 @@
       </c>
       <c r="I37" s="10">
         <f>(I36-H36)/H36</f>
-        <v>0.21162399999999984</v>
+        <v>0.22167038498246211</v>
       </c>
       <c r="J37" s="10">
         <f>(J36-I36)/I36</f>
-        <v>0.18667999999999965</v>
+        <v>0.20181563588218893</v>
       </c>
       <c r="K37" s="10">
-        <f t="shared" ref="K37" si="9">(K36-J36)/J36</f>
-        <v>0.16165999999999983</v>
+        <f t="shared" ref="K37" si="8">(K36-J36)/J36</f>
+        <v>0.17184999999999986</v>
       </c>
       <c r="L37" s="10">
-        <f t="shared" ref="L37" si="10">(L36-K36)/K36</f>
-        <v>0.14015999999999998</v>
+        <f t="shared" ref="L37" si="9">(L36-K36)/K36</f>
+        <v>0.16051999999999986</v>
       </c>
       <c r="M37" s="10">
-        <f t="shared" ref="M37" si="11">(M36-L36)/L36</f>
-        <v>0.11759999999999989</v>
+        <f t="shared" ref="M37" si="10">(M36-L36)/L36</f>
+        <v>0.1429999999999999</v>
       </c>
       <c r="N37" s="10">
-        <f t="shared" ref="N37" si="12">(N36-M36)/M36</f>
-        <v>9.5119999999999816E-2</v>
+        <f t="shared" ref="N37" si="11">(N36-M36)/M36</f>
+        <v>0.12046999999999997</v>
       </c>
       <c r="T37"/>
     </row>
@@ -2007,27 +2248,27 @@
         <v>30162</v>
       </c>
       <c r="I39" s="11">
-        <v>36095.300000000003</v>
+        <v>36174</v>
       </c>
       <c r="J39" s="7">
         <f>J36*0.198</f>
-        <v>46831.193164524433</v>
+        <v>47821.768053978602</v>
       </c>
       <c r="K39" s="7">
         <f>K36*0.21</f>
-        <v>57699.010145531829</v>
+        <v>59436.298827027829</v>
       </c>
       <c r="L39" s="7">
         <f>L36*0.225</f>
-        <v>70485.110793781685</v>
+        <v>73903.943051509646</v>
       </c>
       <c r="M39" s="7">
         <f>M36*0.244</f>
-        <v>85426.199985972518</v>
+        <v>91605.415491207212</v>
       </c>
       <c r="N39" s="7">
         <f>N36*0.25</f>
-        <v>95852.397672785053</v>
+        <v>105165.08186007474</v>
       </c>
     </row>
     <row r="40" spans="2:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2039,39 +2280,39 @@
         <v>0.19205623722748433</v>
       </c>
       <c r="F40" s="10">
-        <f t="shared" ref="F40:N40" si="13">F39/F36</f>
+        <f t="shared" ref="F40:N40" si="12">F39/F36</f>
         <v>0.21652702621581524</v>
       </c>
       <c r="G40" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0.1924211649938474</v>
       </c>
       <c r="H40" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0.18335450848323109</v>
       </c>
       <c r="I40" s="10">
-        <f t="shared" si="13"/>
-        <v>0.18109824684152104</v>
+        <f t="shared" si="12"/>
+        <v>0.18000059711593006</v>
       </c>
       <c r="J40" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0.19800000000000001</v>
       </c>
       <c r="K40" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0.21</v>
       </c>
       <c r="L40" s="10">
-        <f t="shared" si="13"/>
-        <v>0.22500000000000001</v>
+        <f t="shared" si="12"/>
+        <v>0.22500000000000003</v>
       </c>
       <c r="M40" s="10">
-        <f t="shared" si="13"/>
-        <v>0.24399999999999999</v>
+        <f t="shared" si="12"/>
+        <v>0.24399999999999997</v>
       </c>
       <c r="N40" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0.25</v>
       </c>
     </row>
@@ -2084,40 +2325,40 @@
         <v>95280</v>
       </c>
       <c r="F42" s="7">
-        <f t="shared" ref="F42:N42" si="14">F36-F39</f>
+        <f t="shared" ref="F42:N42" si="13">F36-F39</f>
         <v>91360</v>
       </c>
       <c r="G42" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>108944</v>
       </c>
       <c r="H42" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>134339</v>
       </c>
       <c r="I42" s="7">
-        <f t="shared" si="14"/>
-        <v>163218.05962399999</v>
+        <f t="shared" si="13"/>
+        <v>164792</v>
       </c>
       <c r="J42" s="7">
-        <f t="shared" si="14"/>
-        <v>189689.9844340838</v>
+        <f t="shared" si="13"/>
+        <v>193702.31302672139</v>
       </c>
       <c r="K42" s="7">
-        <f t="shared" si="14"/>
-        <v>217058.18102366736</v>
+        <f t="shared" si="13"/>
+        <v>223593.69558739039</v>
       </c>
       <c r="L42" s="7">
-        <f t="shared" si="14"/>
-        <v>242782.04828969244</v>
+        <f t="shared" si="13"/>
+        <v>254558.02606631097</v>
       </c>
       <c r="M42" s="7">
-        <f t="shared" si="14"/>
-        <v>264681.17700571811</v>
+        <f t="shared" si="13"/>
+        <v>283826.61521046172</v>
       </c>
       <c r="N42" s="7">
-        <f t="shared" si="14"/>
-        <v>287557.19301835517</v>
+        <f t="shared" si="13"/>
+        <v>315495.2455802242</v>
       </c>
     </row>
     <row r="43" spans="2:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2129,40 +2370,40 @@
         <v>0.80794376277251567</v>
       </c>
       <c r="F43" s="10">
-        <f t="shared" ref="F43:N43" si="15">F42/F36</f>
+        <f t="shared" ref="F43:N43" si="14">F42/F36</f>
         <v>0.78347297378418479</v>
       </c>
       <c r="G43" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0.80757883500615257</v>
       </c>
       <c r="H43" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0.81664549151676891</v>
       </c>
       <c r="I43" s="10">
-        <f t="shared" si="15"/>
-        <v>0.81890175315847902</v>
+        <f t="shared" si="14"/>
+        <v>0.81999940288406992</v>
       </c>
       <c r="J43" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0.80200000000000005</v>
       </c>
       <c r="K43" s="10">
-        <f t="shared" si="15"/>
-        <v>0.79</v>
+        <f t="shared" si="14"/>
+        <v>0.78999999999999992</v>
       </c>
       <c r="L43" s="10">
-        <f t="shared" si="15"/>
-        <v>0.77499999999999991</v>
+        <f t="shared" si="14"/>
+        <v>0.77500000000000002</v>
       </c>
       <c r="M43" s="10">
-        <f t="shared" si="15"/>
-        <v>0.75599999999999989</v>
+        <f t="shared" si="14"/>
+        <v>0.75600000000000001</v>
       </c>
       <c r="N43" s="10">
-        <f t="shared" si="15"/>
-        <v>0.75</v>
+        <f t="shared" si="14"/>
+        <v>0.74999999999999989</v>
       </c>
     </row>
     <row r="45" spans="2:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2182,28 +2423,28 @@
         <v>21086</v>
       </c>
       <c r="I45" s="11">
-        <f>I36*0.12</f>
-        <v>23917.603154879995</v>
-      </c>
-      <c r="J45" s="11">
-        <f>J36*0.12</f>
-        <v>28382.541311832985</v>
-      </c>
-      <c r="K45" s="11">
-        <f>K36*0.115</f>
-        <v>31597.076984457908</v>
-      </c>
-      <c r="L45" s="11">
-        <f>L36*0.113</f>
-        <v>35399.188976432575</v>
+        <f>11991+12152</f>
+        <v>24143</v>
+      </c>
+      <c r="J45" s="7">
+        <f>J36*0.14</f>
+        <v>33813.371351298003</v>
+      </c>
+      <c r="K45" s="7">
+        <f>K36*0.13</f>
+        <v>36793.899273874369</v>
+      </c>
+      <c r="L45" s="7">
+        <f>L36*0.12</f>
+        <v>39415.436294138475</v>
       </c>
       <c r="M45" s="7">
-        <f>M36*0.112</f>
-        <v>39212.026223069355</v>
+        <f>M36*0.115</f>
+        <v>43174.683530691931</v>
       </c>
       <c r="N45" s="7">
         <f>N36*0.11</f>
-        <v>42175.054976025422</v>
+        <v>46272.636018432888</v>
       </c>
     </row>
     <row r="46" spans="2:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2215,39 +2456,39 @@
         <v>0.30068515801880791</v>
       </c>
       <c r="F46" s="10">
-        <f t="shared" ref="F46:N46" si="16">F45/F36</f>
+        <f t="shared" ref="F46:N46" si="15">F45/F36</f>
         <v>0.2322119218928213</v>
       </c>
       <c r="G46" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0.17574980356110362</v>
       </c>
       <c r="H46" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0.12818159160126685</v>
       </c>
       <c r="I46" s="10">
-        <f t="shared" si="16"/>
-        <v>0.11999999999999998</v>
+        <f t="shared" si="15"/>
+        <v>0.12013474916154972</v>
       </c>
       <c r="J46" s="10">
-        <f t="shared" si="16"/>
-        <v>0.12</v>
+        <f t="shared" si="15"/>
+        <v>0.14000000000000001</v>
       </c>
       <c r="K46" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
+        <v>0.13</v>
+      </c>
+      <c r="L46" s="10">
+        <f t="shared" si="15"/>
+        <v>0.12000000000000001</v>
+      </c>
+      <c r="M46" s="10">
+        <f t="shared" si="15"/>
         <v>0.115</v>
       </c>
-      <c r="L46" s="10">
-        <f t="shared" si="16"/>
-        <v>0.11299999999999999</v>
-      </c>
-      <c r="M46" s="10">
-        <f t="shared" si="16"/>
-        <v>0.112</v>
-      </c>
       <c r="N46" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0.11</v>
       </c>
     </row>
@@ -2268,27 +2509,27 @@
         <v>43872</v>
       </c>
       <c r="I48" s="11">
-        <v>56529.9</v>
+        <v>57372</v>
       </c>
       <c r="J48" s="7">
-        <f>J36*0.298</f>
-        <v>70483.310924385252</v>
+        <f>J36*0.301</f>
+        <v>72698.748405290695</v>
       </c>
       <c r="K48" s="7">
-        <f>K36*0.296</f>
-        <v>81328.128586082952</v>
+        <f>K36*0.302</f>
+        <v>85475.05831315431</v>
       </c>
       <c r="L48" s="7">
-        <f>L36*0.313</f>
-        <v>98052.620793127411</v>
+        <f>L36*0.315</f>
+        <v>103465.5202721135</v>
       </c>
       <c r="M48" s="7">
-        <f>M36*0.305</f>
-        <v>106782.74998246566</v>
+        <f>M36*0.3</f>
+        <v>112629.60921050068</v>
       </c>
       <c r="N48" s="7">
         <f>N36*0.3</f>
-        <v>115022.87720734206</v>
+        <v>126198.09823208969</v>
       </c>
       <c r="P48" s="7"/>
     </row>
@@ -2301,39 +2542,39 @@
         <v>0.20906647219937419</v>
       </c>
       <c r="F49" s="10">
-        <f t="shared" ref="F49:N49" si="17">F48/F36</f>
+        <f t="shared" ref="F49:N49" si="16">F48/F36</f>
         <v>0.30304693462768739</v>
       </c>
       <c r="G49" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0.28526634149234259</v>
       </c>
       <c r="H49" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0.26669746688469981</v>
       </c>
       <c r="I49" s="10">
-        <f t="shared" si="17"/>
-        <v>0.2836232358264511</v>
+        <f t="shared" si="16"/>
+        <v>0.28548112616064408</v>
       </c>
       <c r="J49" s="10">
-        <f t="shared" si="17"/>
-        <v>0.29799999999999999</v>
+        <f t="shared" si="16"/>
+        <v>0.30099999999999999</v>
       </c>
       <c r="K49" s="10">
-        <f t="shared" si="17"/>
-        <v>0.29599999999999999</v>
+        <f t="shared" si="16"/>
+        <v>0.30199999999999999</v>
       </c>
       <c r="L49" s="10">
-        <f t="shared" si="17"/>
-        <v>0.313</v>
+        <f t="shared" si="16"/>
+        <v>0.315</v>
       </c>
       <c r="M49" s="10">
-        <f t="shared" si="17"/>
-        <v>0.30499999999999999</v>
+        <f t="shared" si="16"/>
+        <v>0.3</v>
       </c>
       <c r="N49" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0.3</v>
       </c>
     </row>
@@ -2355,7 +2596,8 @@
         <v>69381</v>
       </c>
       <c r="I51" s="11">
-        <v>82408</v>
+        <f>I42-I45-I48</f>
+        <v>83277</v>
       </c>
       <c r="J51" s="7">
         <v>86385.2</v>
@@ -2371,7 +2613,7 @@
       </c>
       <c r="N51" s="7">
         <f>N36*0.37</f>
-        <v>141861.54855572188</v>
+        <v>155644.32115291062</v>
       </c>
     </row>
     <row r="52" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2383,39 +2625,39 @@
         <v>0.39645040660058173</v>
       </c>
       <c r="F52" s="10">
-        <f t="shared" ref="F52:N52" si="18">F51/F36</f>
+        <f t="shared" ref="F52:N52" si="17">F51/F36</f>
         <v>0.24822269293107735</v>
       </c>
       <c r="G52" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0.34655527716416362</v>
       </c>
       <c r="H52" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0.42176643303080225</v>
       </c>
       <c r="I52" s="10">
-        <f t="shared" si="18"/>
-        <v>0.41345948989802178</v>
+        <f t="shared" si="17"/>
+        <v>0.41438352756187613</v>
       </c>
       <c r="J52" s="10">
-        <f t="shared" si="18"/>
-        <v>0.36523241122450895</v>
+        <f t="shared" si="17"/>
+        <v>0.35766702687975976</v>
       </c>
       <c r="K52" s="10">
-        <f t="shared" si="18"/>
-        <v>0.35688601846135187</v>
+        <f t="shared" si="17"/>
+        <v>0.34645444629597438</v>
       </c>
       <c r="L52" s="10">
-        <f t="shared" si="18"/>
-        <v>0.34389177695863721</v>
+        <f t="shared" si="17"/>
+        <v>0.32798317652829034</v>
       </c>
       <c r="M52" s="10">
-        <f t="shared" si="18"/>
-        <v>0.3629600755399563</v>
+        <f t="shared" si="17"/>
+        <v>0.33847671378092437</v>
       </c>
       <c r="N52" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0.37</v>
       </c>
     </row>
@@ -2436,23 +2678,27 @@
         <v>8304</v>
       </c>
       <c r="I54" s="11">
-        <v>25617.9</v>
+        <v>25805</v>
       </c>
       <c r="J54" s="7">
-        <v>11625.9</v>
+        <f>J51*0.14</f>
+        <v>12093.928</v>
       </c>
       <c r="K54" s="7">
-        <v>13516.5</v>
+        <f>K51*0.145</f>
+        <v>14218.264999999999</v>
       </c>
       <c r="L54" s="7">
-        <v>16348.6</v>
+        <f>L51*0.15</f>
+        <v>16159.5</v>
       </c>
       <c r="M54" s="7">
-        <v>20821.7</v>
+        <f>M51*0.17</f>
+        <v>21602.75</v>
       </c>
       <c r="N54" s="7">
-        <f>N51*0.17</f>
-        <v>24116.463254472721</v>
+        <f>N51*0.175</f>
+        <v>27237.756201759355</v>
       </c>
     </row>
     <row r="55" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2464,40 +2710,40 @@
         <v>0.1692511710478472</v>
       </c>
       <c r="F55" s="10">
-        <f t="shared" ref="F55:N55" si="19">F54/F51</f>
+        <f t="shared" ref="F55:N55" si="18">F54/F51</f>
         <v>0.19416134047331146</v>
       </c>
       <c r="G55" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0.17819939680434643</v>
       </c>
       <c r="H55" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0.11968694599386</v>
       </c>
       <c r="I55" s="10">
-        <f t="shared" si="19"/>
-        <v>0.31086666343073488</v>
+        <f t="shared" si="18"/>
+        <v>0.30986947176291174</v>
       </c>
       <c r="J55" s="10">
-        <f t="shared" si="19"/>
-        <v>0.13458208118983345</v>
+        <f t="shared" si="18"/>
+        <v>0.14000000000000001</v>
       </c>
       <c r="K55" s="10">
-        <f t="shared" si="19"/>
-        <v>0.13784329522624597</v>
+        <f t="shared" si="18"/>
+        <v>0.14499999999999999</v>
       </c>
       <c r="L55" s="10">
-        <f t="shared" si="19"/>
-        <v>0.15175531421145458</v>
+        <f t="shared" si="18"/>
+        <v>0.15</v>
       </c>
       <c r="M55" s="10">
-        <f t="shared" si="19"/>
-        <v>0.16385362974621287</v>
+        <f t="shared" si="18"/>
+        <v>0.17</v>
       </c>
       <c r="N55" s="10">
-        <f t="shared" si="19"/>
-        <v>0.17</v>
+        <f t="shared" si="18"/>
+        <v>0.17499999999999999</v>
       </c>
     </row>
     <row r="57" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2575,113 +2821,117 @@
         <v>15498</v>
       </c>
       <c r="I59" s="11">
-        <v>18902.8</v>
+        <v>18618</v>
       </c>
       <c r="J59" s="7">
-        <v>28883.8</v>
+        <f>J63*0.237</f>
+        <v>29625</v>
       </c>
       <c r="K59" s="7">
-        <v>41757.199999999997</v>
+        <f>K63*0.315</f>
+        <v>43312.5</v>
       </c>
       <c r="L59" s="7">
-        <v>54019.5</v>
+        <f>L63*0.36</f>
+        <v>52965</v>
       </c>
       <c r="M59" s="7">
-        <v>62011.8</v>
+        <f>M63*0.41</f>
+        <v>63940.524999999994</v>
       </c>
       <c r="N59" s="7">
-        <f>N63*0.45</f>
-        <v>60937.707211698253</v>
+        <f>N63*0.48</f>
+        <v>73360.055999999997</v>
       </c>
     </row>
     <row r="60" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B60" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="E60" s="10">
         <f>E59/E63</f>
         <v>0.42904077126083912</v>
       </c>
       <c r="F60" s="10">
-        <f t="shared" ref="F60:M60" si="20">F59/F63</f>
+        <f t="shared" ref="F60:M60" si="19">F59/F63</f>
         <v>0.27635137284846173</v>
       </c>
       <c r="G60" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0.4099244480305142</v>
       </c>
       <c r="H60" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0.41598668670818123</v>
       </c>
       <c r="I60" s="10">
-        <f t="shared" si="20"/>
-        <v>0.26966093377309613</v>
+        <f t="shared" si="19"/>
+        <v>0.2578134736550578</v>
       </c>
       <c r="J60" s="10">
-        <f t="shared" si="20"/>
-        <v>0.26078892065937836</v>
+        <f t="shared" si="19"/>
+        <v>0.23699999999999999</v>
       </c>
       <c r="K60" s="10">
-        <f t="shared" si="20"/>
-        <v>0.34274686589833597</v>
+        <f t="shared" si="19"/>
+        <v>0.315</v>
       </c>
       <c r="L60" s="10">
-        <f t="shared" si="20"/>
-        <v>0.4143896550336959</v>
+        <f t="shared" si="19"/>
+        <v>0.36</v>
       </c>
       <c r="M60" s="10">
-        <f t="shared" si="20"/>
-        <v>0.44877310045478941</v>
+        <f t="shared" si="19"/>
+        <v>0.41</v>
       </c>
       <c r="N60" s="10">
-        <f t="shared" ref="N60" si="21">N59/N63</f>
-        <v>0.45</v>
+        <f t="shared" ref="N60" si="20">N59/N63</f>
+        <v>0.47999999999999993</v>
       </c>
     </row>
     <row r="61" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B61" s="1" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="E61" s="10">
         <f>E59/E36</f>
         <v>6.7549118537425054E-2</v>
       </c>
       <c r="F61" s="10">
-        <f t="shared" ref="F61:N61" si="22">F59/F36</f>
+        <f t="shared" ref="F61:N61" si="21">F59/F36</f>
         <v>7.44882470478265E-2</v>
       </c>
       <c r="G61" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>8.2852737542808849E-2</v>
       </c>
       <c r="H61" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>9.4212193238946876E-2</v>
       </c>
       <c r="I61" s="10">
-        <f t="shared" si="22"/>
-        <v>9.4839603505052009E-2</v>
+        <f t="shared" si="21"/>
+        <v>9.2642536548470891E-2</v>
       </c>
       <c r="J61" s="10">
-        <f t="shared" si="22"/>
-        <v>0.12211929727923848</v>
+        <f t="shared" si="21"/>
+        <v>0.12265857660007598</v>
       </c>
       <c r="K61" s="10">
-        <f t="shared" si="22"/>
-        <v>0.15197855176167291</v>
+        <f t="shared" si="21"/>
+        <v>0.15303148378182477</v>
       </c>
       <c r="L61" s="10">
-        <f t="shared" si="22"/>
-        <v>0.17243907774451964</v>
+        <f t="shared" si="21"/>
+        <v>0.16125154501829478</v>
       </c>
       <c r="M61" s="10">
-        <f t="shared" si="22"/>
-        <v>0.1771222318502354</v>
+        <f t="shared" si="21"/>
+        <v>0.17031185346784997</v>
       </c>
       <c r="N61" s="10">
-        <f t="shared" si="22"/>
-        <v>0.1589363142999396</v>
+        <f t="shared" si="21"/>
+        <v>0.17439261849671672</v>
       </c>
     </row>
     <row r="63" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2701,27 +2951,26 @@
         <v>37256</v>
       </c>
       <c r="I63" s="11">
-        <v>70098.399999999994</v>
+        <v>72215</v>
       </c>
       <c r="J63" s="11">
-        <f>I63*1.58</f>
-        <v>110755.47199999999</v>
-      </c>
-      <c r="K63" s="11">
+        <v>125000</v>
+      </c>
+      <c r="K63" s="7">
         <f>J63*1.1</f>
-        <v>121831.01920000001</v>
+        <v>137500</v>
       </c>
       <c r="L63" s="7">
         <f>K63*1.07</f>
-        <v>130359.19054400001</v>
+        <v>147125</v>
       </c>
       <c r="M63" s="7">
         <f>L63*1.06</f>
-        <v>138180.74197664001</v>
+        <v>155952.5</v>
       </c>
       <c r="N63" s="7">
         <f>M63*0.98</f>
-        <v>135417.12713710722</v>
+        <v>152833.45000000001</v>
       </c>
     </row>
     <row r="64" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2760,28 +3009,27 @@
         <v>1050</v>
       </c>
       <c r="I66" s="12">
-        <f>-3.05*1000</f>
-        <v>-3050</v>
+        <v>-890</v>
       </c>
       <c r="J66" s="12">
         <f>I66*0.5</f>
-        <v>-1525</v>
+        <v>-445</v>
       </c>
       <c r="K66" s="12">
         <f>J66*0.33</f>
-        <v>-503.25</v>
+        <v>-146.85</v>
       </c>
       <c r="L66" s="12">
         <f>K66*-1</f>
-        <v>503.25</v>
+        <v>146.85</v>
       </c>
       <c r="M66" s="12">
         <f>L66*2.4</f>
-        <v>1207.8</v>
+        <v>352.44</v>
       </c>
       <c r="N66" s="12">
         <f>M66*1.25</f>
-        <v>1509.75</v>
+        <v>440.55</v>
       </c>
     </row>
     <row r="67" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2789,44 +3037,44 @@
         <v>15</v>
       </c>
       <c r="E67" s="10">
-        <f>E66/E59</f>
-        <v>8.7873462214411252E-2</v>
+        <f>E66/E36</f>
+        <v>5.9357749154152076E-3</v>
       </c>
       <c r="F67" s="10">
-        <f t="shared" ref="F67:N67" si="23">F66/F59</f>
-        <v>0.65392585770204925</v>
+        <f t="shared" ref="F67:N67" si="22">F66/F36</f>
+        <v>4.8709790839472085E-2</v>
       </c>
       <c r="G67" s="10">
-        <f t="shared" si="23"/>
-        <v>0.34356267334705198</v>
+        <f t="shared" si="22"/>
+        <v>2.8465108004329068E-2</v>
       </c>
       <c r="H67" s="10">
-        <f t="shared" si="23"/>
-        <v>6.7750677506775062E-2</v>
+        <f t="shared" si="22"/>
+        <v>6.3829399213378643E-3</v>
       </c>
       <c r="I67" s="10">
-        <f t="shared" si="23"/>
-        <v>-0.1613517574116004</v>
+        <f t="shared" si="22"/>
+        <v>-4.4286098145955039E-3</v>
       </c>
       <c r="J67" s="10">
-        <f t="shared" si="23"/>
-        <v>-5.279776206731801E-2</v>
+        <f t="shared" si="22"/>
+        <v>-1.8424663826846857E-3</v>
       </c>
       <c r="K67" s="10">
-        <f t="shared" si="23"/>
-        <v>-1.2051813818934221E-2</v>
+        <f t="shared" si="22"/>
+        <v>-5.1884960215552015E-4</v>
       </c>
       <c r="L67" s="10">
-        <f t="shared" si="23"/>
-        <v>9.3160803043345463E-3</v>
+        <f t="shared" si="22"/>
+        <v>4.4708372294792009E-4</v>
       </c>
       <c r="M67" s="10">
-        <f t="shared" si="23"/>
-        <v>1.9476938260137584E-2</v>
+        <f t="shared" si="22"/>
+        <v>9.3875847338145961E-4</v>
       </c>
       <c r="N67" s="10">
-        <f t="shared" si="23"/>
-        <v>2.4775300369525098E-2</v>
+        <f t="shared" si="22"/>
+        <v>1.0472820260487336E-3</v>
       </c>
     </row>
     <row r="68" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2894,40 +3142,40 @@
         <v>117929</v>
       </c>
       <c r="F71" s="7">
-        <f t="shared" ref="F71:N71" si="24">F36</f>
+        <f t="shared" ref="F71:N71" si="23">F36</f>
         <v>116609</v>
       </c>
       <c r="G71" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>134902</v>
       </c>
       <c r="H71" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>164501</v>
       </c>
       <c r="I71" s="7">
-        <f t="shared" si="24"/>
-        <v>199313.35962399998</v>
+        <f t="shared" si="23"/>
+        <v>200966</v>
       </c>
       <c r="J71" s="7">
-        <f t="shared" si="24"/>
-        <v>236521.17759860822</v>
+        <f t="shared" si="23"/>
+        <v>241524.08108069998</v>
       </c>
       <c r="K71" s="7">
-        <f t="shared" si="24"/>
-        <v>274757.19116919918</v>
+        <f t="shared" si="23"/>
+        <v>283029.99441441824</v>
       </c>
       <c r="L71" s="7">
-        <f t="shared" si="24"/>
-        <v>313267.15908347414</v>
+        <f t="shared" si="23"/>
+        <v>328461.96911782061</v>
       </c>
       <c r="M71" s="7">
-        <f t="shared" si="24"/>
-        <v>350107.37699169066</v>
+        <f t="shared" si="23"/>
+        <v>375432.03070166893</v>
       </c>
       <c r="N71" s="7">
-        <f t="shared" si="24"/>
-        <v>383409.59069114021</v>
+        <f t="shared" si="23"/>
+        <v>420660.32744029898</v>
       </c>
     </row>
     <row r="72" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2941,40 +3189,40 @@
         <v>0.37182574303495608</v>
       </c>
       <c r="F72" s="10">
-        <f t="shared" ref="F72:N72" si="25">F37</f>
+        <f t="shared" ref="F72:N72" si="24">F37</f>
         <v>-1.1193175554782962E-2</v>
       </c>
       <c r="G72" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0.15687468377226457</v>
       </c>
       <c r="H72" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0.21941112807816043</v>
       </c>
       <c r="I72" s="10">
-        <f t="shared" si="25"/>
-        <v>0.21162399999999984</v>
+        <f t="shared" si="24"/>
+        <v>0.22167038498246211</v>
       </c>
       <c r="J72" s="10">
-        <f t="shared" si="25"/>
-        <v>0.18667999999999965</v>
+        <f t="shared" si="24"/>
+        <v>0.20181563588218893</v>
       </c>
       <c r="K72" s="10">
-        <f t="shared" si="25"/>
-        <v>0.16165999999999983</v>
+        <f t="shared" si="24"/>
+        <v>0.17184999999999986</v>
       </c>
       <c r="L72" s="10">
-        <f t="shared" si="25"/>
-        <v>0.14015999999999998</v>
+        <f t="shared" si="24"/>
+        <v>0.16051999999999986</v>
       </c>
       <c r="M72" s="10">
-        <f t="shared" si="25"/>
-        <v>0.11759999999999989</v>
+        <f t="shared" si="24"/>
+        <v>0.1429999999999999</v>
       </c>
       <c r="N72" s="10">
-        <f t="shared" si="25"/>
-        <v>9.5119999999999816E-2</v>
+        <f t="shared" si="24"/>
+        <v>0.12046999999999997</v>
       </c>
     </row>
     <row r="73" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3007,7 +3255,7 @@
         <v>69381</v>
       </c>
       <c r="I74" s="7">
-        <v>82408</v>
+        <v>83277</v>
       </c>
       <c r="J74" s="7">
         <v>86385.2</v>
@@ -3022,7 +3270,7 @@
         <v>127075</v>
       </c>
       <c r="N74" s="7">
-        <v>141861.54855572188</v>
+        <v>155644.32115291062</v>
       </c>
     </row>
     <row r="75" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3036,39 +3284,39 @@
         <v>0.39645040660058173</v>
       </c>
       <c r="F75" s="10">
-        <f t="shared" ref="F75:N75" si="26">F74/F71</f>
+        <f t="shared" ref="F75:N75" si="25">F74/F71</f>
         <v>0.24822269293107735</v>
       </c>
       <c r="G75" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>0.34655527716416362</v>
       </c>
       <c r="H75" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>0.42176643303080225</v>
       </c>
       <c r="I75" s="10">
-        <f t="shared" si="26"/>
-        <v>0.41345948989802178</v>
+        <f t="shared" si="25"/>
+        <v>0.41438352756187613</v>
       </c>
       <c r="J75" s="10">
-        <f t="shared" si="26"/>
-        <v>0.36523241122450895</v>
+        <f t="shared" si="25"/>
+        <v>0.35766702687975976</v>
       </c>
       <c r="K75" s="10">
-        <f t="shared" si="26"/>
-        <v>0.35688601846135187</v>
+        <f t="shared" si="25"/>
+        <v>0.34645444629597438</v>
       </c>
       <c r="L75" s="10">
-        <f t="shared" si="26"/>
-        <v>0.34389177695863721</v>
+        <f t="shared" si="25"/>
+        <v>0.32798317652829034</v>
       </c>
       <c r="M75" s="10">
-        <f t="shared" si="26"/>
-        <v>0.3629600755399563</v>
+        <f t="shared" si="25"/>
+        <v>0.33847671378092437</v>
       </c>
       <c r="N75" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>0.37</v>
       </c>
     </row>
@@ -3083,37 +3331,45 @@
       <c r="B77" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E77" s="7" cm="1">
-        <f t="array" ref="E77:M77">E54:M54</f>
+      <c r="E77" s="7">
+        <f t="shared" ref="E77:N77" si="26">E54</f>
         <v>7913</v>
       </c>
       <c r="F77" s="7">
+        <f t="shared" si="26"/>
         <v>5620</v>
       </c>
       <c r="G77" s="7">
+        <f t="shared" si="26"/>
         <v>8331</v>
       </c>
       <c r="H77" s="7">
+        <f t="shared" si="26"/>
         <v>8304</v>
       </c>
       <c r="I77" s="7">
-        <v>25617.9</v>
+        <f t="shared" si="26"/>
+        <v>25805</v>
       </c>
       <c r="J77" s="7">
-        <v>11625.9</v>
+        <f t="shared" si="26"/>
+        <v>12093.928</v>
       </c>
       <c r="K77" s="7">
-        <v>13516.5</v>
+        <f t="shared" si="26"/>
+        <v>14218.264999999999</v>
       </c>
       <c r="L77" s="7">
-        <v>16348.6</v>
+        <f t="shared" si="26"/>
+        <v>16159.5</v>
       </c>
       <c r="M77" s="7">
-        <v>20821.7</v>
+        <f t="shared" si="26"/>
+        <v>21602.75</v>
       </c>
       <c r="N77" s="7">
         <f>N54</f>
-        <v>24116.463254472721</v>
+        <v>27237.756201759355</v>
       </c>
     </row>
     <row r="78" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3140,72 +3396,74 @@
       </c>
       <c r="I78" s="10">
         <f t="shared" si="27"/>
-        <v>0.31086666343073488</v>
+        <v>0.30986947176291174</v>
       </c>
       <c r="J78" s="10">
         <f t="shared" si="27"/>
-        <v>0.13458208118983345</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="K78" s="10">
         <f t="shared" si="27"/>
-        <v>0.13784329522624597</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="L78" s="10">
         <f t="shared" si="27"/>
-        <v>0.15175531421145458</v>
+        <v>0.15</v>
       </c>
       <c r="M78" s="10">
         <f t="shared" si="27"/>
-        <v>0.16385362974621287</v>
+        <v>0.17</v>
       </c>
       <c r="N78" s="10">
         <f t="shared" si="27"/>
-        <v>0.17</v>
+        <v>0.17499999999999999</v>
       </c>
     </row>
     <row r="80" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="1" t="s">
+      <c r="B80" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="E80" s="7">
+      <c r="C80" s="28"/>
+      <c r="D80" s="28"/>
+      <c r="E80" s="29">
         <f>E74-E77</f>
         <v>38840</v>
       </c>
-      <c r="F80" s="7">
+      <c r="F80" s="29">
         <f t="shared" ref="F80:N80" si="28">F74-F77</f>
         <v>23325</v>
       </c>
-      <c r="G80" s="7">
+      <c r="G80" s="29">
         <f t="shared" si="28"/>
         <v>38420</v>
       </c>
-      <c r="H80" s="7">
+      <c r="H80" s="29">
         <f t="shared" si="28"/>
         <v>61077</v>
       </c>
-      <c r="I80" s="7">
+      <c r="I80" s="29">
         <f t="shared" si="28"/>
-        <v>56790.1</v>
-      </c>
-      <c r="J80" s="7">
+        <v>57472</v>
+      </c>
+      <c r="J80" s="29">
         <f t="shared" si="28"/>
-        <v>74759.3</v>
-      </c>
-      <c r="K80" s="7">
+        <v>74291.271999999997</v>
+      </c>
+      <c r="K80" s="29">
         <f t="shared" si="28"/>
-        <v>84540.5</v>
-      </c>
-      <c r="L80" s="7">
+        <v>83838.735000000001</v>
+      </c>
+      <c r="L80" s="29">
         <f t="shared" si="28"/>
-        <v>91381.4</v>
-      </c>
-      <c r="M80" s="7">
+        <v>91570.5</v>
+      </c>
+      <c r="M80" s="29">
         <f t="shared" si="28"/>
-        <v>106253.3</v>
-      </c>
-      <c r="N80" s="7">
+        <v>105472.25</v>
+      </c>
+      <c r="N80" s="30">
         <f t="shared" si="28"/>
-        <v>117745.08530124916</v>
+        <v>128406.56495115126</v>
       </c>
     </row>
     <row r="82" spans="2:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3230,28 +3488,29 @@
       </c>
       <c r="I82" s="7">
         <f t="shared" si="29"/>
-        <v>18902.8</v>
+        <v>18618</v>
       </c>
       <c r="J82" s="7">
         <f t="shared" si="29"/>
-        <v>28883.8</v>
+        <v>29625</v>
       </c>
       <c r="K82" s="7">
         <f t="shared" si="29"/>
-        <v>41757.199999999997</v>
+        <v>43312.5</v>
       </c>
       <c r="L82" s="7">
         <f t="shared" si="29"/>
-        <v>54019.5</v>
+        <v>52965</v>
       </c>
       <c r="M82" s="7">
         <f t="shared" si="29"/>
-        <v>62011.8</v>
+        <v>63940.524999999994</v>
       </c>
       <c r="N82" s="7">
         <f t="shared" si="29"/>
-        <v>60937.707211698253</v>
-      </c>
+        <v>73360.055999999997</v>
+      </c>
+      <c r="P82" s="7"/>
     </row>
     <row r="83" spans="2:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B83" s="4" t="s">
@@ -3277,27 +3536,27 @@
       </c>
       <c r="I83" s="10">
         <f t="shared" si="30"/>
-        <v>9.4839603505052009E-2</v>
+        <v>9.2642536548470891E-2</v>
       </c>
       <c r="J83" s="10">
         <f t="shared" si="30"/>
-        <v>0.12211929727923848</v>
+        <v>0.12265857660007598</v>
       </c>
       <c r="K83" s="10">
         <f t="shared" si="30"/>
-        <v>0.15197855176167291</v>
+        <v>0.15303148378182477</v>
       </c>
       <c r="L83" s="10">
         <f t="shared" si="30"/>
-        <v>0.17243907774451964</v>
+        <v>0.16125154501829478</v>
       </c>
       <c r="M83" s="10">
         <f t="shared" si="30"/>
-        <v>0.1771222318502354</v>
+        <v>0.17031185346784997</v>
       </c>
       <c r="N83" s="10">
         <f t="shared" si="30"/>
-        <v>0.1589363142999396</v>
+        <v>0.17439261849671672</v>
       </c>
     </row>
     <row r="85" spans="2:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3322,27 +3581,27 @@
       </c>
       <c r="I85" s="7">
         <f t="shared" si="31"/>
-        <v>70098.399999999994</v>
+        <v>72215</v>
       </c>
       <c r="J85" s="7">
         <f t="shared" si="31"/>
-        <v>110755.47199999999</v>
+        <v>125000</v>
       </c>
       <c r="K85" s="7">
         <f t="shared" si="31"/>
-        <v>121831.01920000001</v>
+        <v>137500</v>
       </c>
       <c r="L85" s="7">
         <f t="shared" si="31"/>
-        <v>130359.19054400001</v>
+        <v>147125</v>
       </c>
       <c r="M85" s="7">
         <f t="shared" si="31"/>
-        <v>138180.74197664001</v>
+        <v>155952.5</v>
       </c>
       <c r="N85" s="7">
         <f t="shared" si="31"/>
-        <v>135417.12713710722</v>
+        <v>152833.45000000001</v>
       </c>
       <c r="Q85" s="7"/>
     </row>
@@ -3370,27 +3629,27 @@
       </c>
       <c r="I86" s="10">
         <f t="shared" si="32"/>
-        <v>0.35169945523089369</v>
+        <v>0.35933939074271271</v>
       </c>
       <c r="J86" s="10">
         <f t="shared" si="32"/>
-        <v>0.46826873231605171</v>
+        <v>0.51754673670918139</v>
       </c>
       <c r="K86" s="10">
         <f t="shared" si="32"/>
-        <v>0.4434133959572138</v>
+        <v>0.48581423422801517</v>
       </c>
       <c r="L86" s="10">
         <f t="shared" si="32"/>
-        <v>0.4161278536996727</v>
+        <v>0.44792095838415219</v>
       </c>
       <c r="M86" s="10">
         <f t="shared" si="32"/>
-        <v>0.39468103518401315</v>
+        <v>0.41539476455573171</v>
       </c>
       <c r="N86" s="10">
         <f t="shared" si="32"/>
-        <v>0.35319180955542129</v>
+        <v>0.36331795520149324</v>
       </c>
     </row>
     <row r="88" spans="2:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3462,27 +3721,27 @@
       </c>
       <c r="I89" s="10">
         <f t="shared" si="33"/>
-        <v>-1.5302536697759519E-2</v>
+        <v>-1.5176696555636277E-2</v>
       </c>
       <c r="J89" s="10">
         <f t="shared" si="33"/>
-        <v>-6.4476256015773099E-3</v>
+        <v>-6.3140701878520123E-3</v>
       </c>
       <c r="K89" s="10">
         <f t="shared" si="33"/>
-        <v>-1.8316172103029394E-3</v>
+        <v>-1.7780800972745355E-3</v>
       </c>
       <c r="L89" s="10">
         <f t="shared" si="33"/>
-        <v>1.606456295873333E-3</v>
+        <v>1.53214084830467E-3</v>
       </c>
       <c r="M89" s="10">
         <f t="shared" si="33"/>
-        <v>3.4497987742448098E-3</v>
+        <v>3.2170936447342155E-3</v>
       </c>
       <c r="N89" s="10">
         <f t="shared" si="33"/>
-        <v>3.9376949264062506E-3</v>
+        <v>3.5890002016276826E-3</v>
       </c>
     </row>
     <row r="90" spans="2:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3502,7 +3761,7 @@
     </row>
     <row r="91" spans="2:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B91" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E91" s="12">
         <v>9160</v>
@@ -3521,23 +3780,23 @@
       </c>
       <c r="J91" s="12">
         <f>J71*0.11</f>
-        <v>26017.329535846904</v>
+        <v>26567.648918876999</v>
       </c>
       <c r="K91" s="12">
         <f>K71*0.11</f>
-        <v>30223.291028611911</v>
+        <v>31133.299385586008</v>
       </c>
       <c r="L91" s="12">
         <f>L71*0.105</f>
-        <v>32893.051703764781</v>
+        <v>34488.506757371164</v>
       </c>
       <c r="M91" s="12">
         <f t="shared" ref="M91:N91" si="34">M71*0.105</f>
-        <v>36761.274584127517</v>
+        <v>39420.363223675238</v>
       </c>
       <c r="N91" s="12">
         <f t="shared" si="34"/>
-        <v>40258.00702256972</v>
+        <v>44169.334381231391</v>
       </c>
     </row>
     <row r="92" spans="2:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3564,7 +3823,7 @@
       </c>
       <c r="I92" s="10">
         <f t="shared" si="35"/>
-        <v>0.100344502936128</v>
+        <v>9.9519321676303452E-2</v>
       </c>
       <c r="J92" s="10">
         <f t="shared" si="35"/>
@@ -3576,7 +3835,7 @@
       </c>
       <c r="L92" s="10">
         <f t="shared" ref="L92" si="37">L91/L71</f>
-        <v>0.10499999999999998</v>
+        <v>0.105</v>
       </c>
       <c r="M92" s="10">
         <f t="shared" ref="M92" si="38">M91/M71</f>
@@ -3588,44 +3847,46 @@
       </c>
     </row>
     <row r="94" spans="2:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B94" s="1" t="s">
+      <c r="B94" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E94" s="11">
+      <c r="C94" s="7"/>
+      <c r="D94" s="7"/>
+      <c r="E94" s="7">
         <v>39116</v>
       </c>
-      <c r="F94" s="11">
+      <c r="F94" s="7">
         <v>18439</v>
       </c>
-      <c r="G94" s="11">
+      <c r="G94" s="7">
         <v>43010</v>
       </c>
-      <c r="H94" s="11">
+      <c r="H94" s="7">
         <v>52103</v>
       </c>
       <c r="I94" s="7">
         <f>I80+I82-I85+I88+I91</f>
-        <v>22544.5</v>
+        <v>20825</v>
       </c>
       <c r="J94" s="7">
         <f t="shared" ref="J94:N94" si="40">J80+J82-J85+J88+J91</f>
-        <v>17379.957535846916</v>
+        <v>3958.9209188769964</v>
       </c>
       <c r="K94" s="7">
         <f t="shared" si="40"/>
-        <v>34186.721828611902</v>
+        <v>20281.284385586008</v>
       </c>
       <c r="L94" s="7">
         <f t="shared" si="40"/>
-        <v>48438.011159764763</v>
+        <v>32402.256757371164</v>
       </c>
       <c r="M94" s="7">
         <f t="shared" si="40"/>
-        <v>68053.432607487513</v>
+        <v>54088.438223675228</v>
       </c>
       <c r="N94" s="7">
         <f t="shared" si="40"/>
-        <v>85033.422398409894</v>
+        <v>94612.255332382629</v>
       </c>
       <c r="O94" s="7"/>
       <c r="P94" s="7"/>
@@ -3662,27 +3923,27 @@
       </c>
       <c r="I95" s="10">
         <f t="shared" si="41"/>
-        <v>0.11311083232217688</v>
+        <v>0.10362449369545097</v>
       </c>
       <c r="J95" s="10">
         <f t="shared" si="41"/>
-        <v>7.3481612565542989E-2</v>
+        <v>1.6391412819636027E-2</v>
       </c>
       <c r="K95" s="10">
         <f t="shared" si="41"/>
-        <v>0.12442521225062043</v>
+        <v>7.1657721039593211E-2</v>
       </c>
       <c r="L95" s="10">
         <f t="shared" si="41"/>
-        <v>0.15462205263226403</v>
+        <v>9.8648427531494054E-2</v>
       </c>
       <c r="M95" s="10">
         <f t="shared" si="41"/>
-        <v>0.19437874515024192</v>
+        <v>0.1440698549950197</v>
       </c>
       <c r="N95" s="10">
         <f t="shared" si="41"/>
-        <v>0.2217821996709245</v>
+        <v>0.22491366349685116</v>
       </c>
     </row>
     <row r="96" spans="2:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3692,29 +3953,26 @@
       <c r="B97" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I97" s="7">
-        <f>I94</f>
-        <v>22544.5</v>
-      </c>
+      <c r="I97" s="7"/>
       <c r="J97" s="7">
-        <f>J94/(1+$U$7)^1</f>
-        <v>15817.216541542515</v>
+        <f>J94/(1+$U$7)^0.5</f>
+        <v>3781.0473805438642</v>
       </c>
       <c r="K97" s="7">
-        <f>K94/(1+$U$7)^2</f>
-        <v>28315.234109689562</v>
+        <f>K94/(1+$U$7)^1.5</f>
+        <v>17668.56724127609</v>
       </c>
       <c r="L97" s="7">
-        <f>L94/(1+$U$7)^3</f>
-        <v>36511.556770270668</v>
+        <f>L94/(1+$U$7)^2.5</f>
+        <v>25748.487541493265</v>
       </c>
       <c r="M97" s="7">
-        <f>M94/(1+$U$7)^4</f>
-        <v>46684.792502691751</v>
+        <f>M94/(1+$U$7)^3.5</f>
+        <v>39205.90580977514</v>
       </c>
       <c r="N97" s="7">
-        <f>N94/(1+$U$7)^5</f>
-        <v>53088.004973806703</v>
+        <f>N94/(1+$U$7)^4.5</f>
+        <v>62555.432583284375</v>
       </c>
       <c r="V97" s="7"/>
     </row>
@@ -3748,7 +4006,7 @@
   <dimension ref="A5:A47"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3775,7 +4033,7 @@
   <dimension ref="A12:A69"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A81" sqref="A1:AK81"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
